--- a/data/hotels_by_city/Dallas/Dallas_shard_681.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_681.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="779">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2237 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r568245285-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>56032</t>
+  </si>
+  <si>
+    <t>109054</t>
+  </si>
+  <si>
+    <t>568245285</t>
+  </si>
+  <si>
+    <t>03/23/2018</t>
+  </si>
+  <si>
+    <t>Okay and you get what you pay for</t>
+  </si>
+  <si>
+    <t>Stayed here for a 3 night stay because it was cheaper than the Airport Hyatt by $40 / night.  Picked up room key after a 10 minute wait at the front desk and opened my room door and there was a horrible odor in the room - just bad....  So went back to the front desk and requested a new room - no issues and the new room smelled better than the first, but not fresh at all.  Room was quiet except for doors slamming but that is anywhere you stay.  Standard room with comfortable bed and set-up.  Fair breakfast with eggs, bacon/sausage, breads, yogurt, cereal, juice and coffee.  Shuttle to airport worked okay.  Not the fastest service, but for free good.  Exercise room needs attention.  Old equipment and no water or wipes.  Did not go to the pool area.  All in all - an average motel and a reminder you get what you pay for.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>sleepinndfwtexas, Webmaster at Sleep Inn DFW Airport, responded to this reviewResponded March 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here for a 3 night stay because it was cheaper than the Airport Hyatt by $40 / night.  Picked up room key after a 10 minute wait at the front desk and opened my room door and there was a horrible odor in the room - just bad....  So went back to the front desk and requested a new room - no issues and the new room smelled better than the first, but not fresh at all.  Room was quiet except for doors slamming but that is anywhere you stay.  Standard room with comfortable bed and set-up.  Fair breakfast with eggs, bacon/sausage, breads, yogurt, cereal, juice and coffee.  Shuttle to airport worked okay.  Not the fastest service, but for free good.  Exercise room needs attention.  Old equipment and no water or wipes.  Did not go to the pool area.  All in all - an average motel and a reminder you get what you pay for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r564723274-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>564723274</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Near Airport</t>
+  </si>
+  <si>
+    <t>Close to airport, you get what you pay for. Definitely a convenient spot, about as average as a hotel can be! Not bad, but not the best either. Definitely seemed clean. Staff  was nice and attentive during check in. MoreShow less</t>
+  </si>
+  <si>
+    <t>sleepinndfwtexas, Manager at Sleep Inn DFW Airport, responded to this reviewResponded March 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2018</t>
+  </si>
+  <si>
+    <t>Close to airport, you get what you pay for. Definitely a convenient spot, about as average as a hotel can be! Not bad, but not the best either. Definitely seemed clean. Staff  was nice and attentive during check in. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r559061925-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>559061925</t>
+  </si>
+  <si>
+    <t>02/07/2018</t>
+  </si>
+  <si>
+    <t>You get what you pay for!</t>
+  </si>
+  <si>
+    <t>Basic accommodations near the airport. The rooms and hallways are very musty. Shuttle to the airport is nice. Tiny bathrooms that are very dated. Construction going on next door but we didn't experience any extra noise. For a cheap place to sleep this works.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>sleepinndfwtexas, Webmaster at Sleep Inn DFW Airport, responded to this reviewResponded February 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2018</t>
+  </si>
+  <si>
+    <t>Basic accommodations near the airport. The rooms and hallways are very musty. Shuttle to the airport is nice. Tiny bathrooms that are very dated. Construction going on next door but we didn't experience any extra noise. For a cheap place to sleep this works.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r529910179-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>529910179</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>Retirees Luncheon</t>
+  </si>
+  <si>
+    <t>We were fore warned that there was remodeling construction so we expected a mess. The hallways we being redone and full of men and their tools. The lobby was fine, check-in went well, the room was good, and the breakfast good.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r527785003-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>527785003</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t>markos was here again but not anymore</t>
+  </si>
+  <si>
+    <t>this sleep inn is poorly managed . they should inform people beforehand of hotel construction , very dirty , the breakfast bar was really bad , coffee was ok . room was ok , but ac did not work very well. neither did the printer at the so called business center. the worst thing is all the people hanging around the back of the hotel at night , very scary walking from your car to the hotel, they gave all the good spaces to the construction people.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r526751575-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>526751575</t>
+  </si>
+  <si>
+    <t>09/23/2017</t>
+  </si>
+  <si>
+    <t>Family wedding</t>
+  </si>
+  <si>
+    <t>Arrived early... No problem. .. Room clean and comfortable. Quite despite being on first floor near lobby. Breakfast fantastic.... Hot sasuage, eggs, waffles, cereal, pastries, etc. Large comfortable shower. Can't go wrong here!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r499765813-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>499765813</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>Not a great stay...</t>
+  </si>
+  <si>
+    <t>After arriving at the airport and calling the hotel, their shuttle never arrived to pick us up. Another hotel shuttle driver was kind enough to take us to the hotel. We were given a 1st floor room and ended up moving to another because the window was very loose in its frame and did not offer us security. In our second room, the door to the adjoining room was unlocked and I had to secure it. There were other people in the room on the other side, so I moved things in front of the door just for the peace of mind. Both rooms had a damp musty smell. The second room also smelled of smoke. Having arrived on a late evening flight, I elected not to ask for another room. The room our friends had smelled better than ours.  The overall cleanliness of the hotel left something to be desired. Scuffed doors, dingy carpet, and cheap-looking breakfast area... it just didn't seem to be worth as much as I was being charged for the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>After arriving at the airport and calling the hotel, their shuttle never arrived to pick us up. Another hotel shuttle driver was kind enough to take us to the hotel. We were given a 1st floor room and ended up moving to another because the window was very loose in its frame and did not offer us security. In our second room, the door to the adjoining room was unlocked and I had to secure it. There were other people in the room on the other side, so I moved things in front of the door just for the peace of mind. Both rooms had a damp musty smell. The second room also smelled of smoke. Having arrived on a late evening flight, I elected not to ask for another room. The room our friends had smelled better than ours.  The overall cleanliness of the hotel left something to be desired. Scuffed doors, dingy carpet, and cheap-looking breakfast area... it just didn't seem to be worth as much as I was being charged for the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r499390001-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>499390001</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Nice quick stay</t>
+  </si>
+  <si>
+    <t>I've been impressed with Sleep Inns in several locations, so when I had an unexpected overnight in Dallas due to a missed flight, I quickly booked a room. This is a newly renovated Sleep Inn (in fact, it's still under renovation), so the decor is modern and comfortable. The front desk staff was overwhelmed with check-ins even late that night but were still professional and helpful. Didn't have to wait on the shuttle at the airport and it was on time in the morning so I could catch my early flight without worry. I had a king on the first floor, which had a terrible view out the window but I didn't care.  as I just wanted (and got) a decent night's sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've been impressed with Sleep Inns in several locations, so when I had an unexpected overnight in Dallas due to a missed flight, I quickly booked a room. This is a newly renovated Sleep Inn (in fact, it's still under renovation), so the decor is modern and comfortable. The front desk staff was overwhelmed with check-ins even late that night but were still professional and helpful. Didn't have to wait on the shuttle at the airport and it was on time in the morning so I could catch my early flight without worry. I had a king on the first floor, which had a terrible view out the window but I didn't care.  as I just wanted (and got) a decent night's sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r498371144-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>498371144</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>Great access to Airport and 183</t>
+  </si>
+  <si>
+    <t>Do not rely on this airport for transportation to/from the airport.  I waited each time over an hour.  They put customers in positions to do the right thing, but they lack all types of qualities.  The night staff lady has not service skills and cannot assist with anything.  This can be a great hotel for business, but CHANGES are needed.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r490224673-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>490224673</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One night in Dallas </t>
+  </si>
+  <si>
+    <t>Stayed here for one night after a late flight to Dallas. Quick, easy and reasonably priced. Not a top notch hotel but clean enough and accommodating as you would expect for hotel for under 100.00 a night.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r488067467-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>488067467</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is very close to the airport and they have a free shuttle. You can also leave your car there for only $5.00 a night. The price is very affordable and the place is good for one night. It is clean and they have free breakfast. This is the perfect place to spend the night before you flight the next day that way you don't have to worry about traffic . It is a modest but comfortable place specially the location. It is also near McArthur Blvd where you can find lots of restaurants and shopping . </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r479305758-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>479305758</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>clean hotel, close to the airport</t>
+  </si>
+  <si>
+    <t>The Dallas airport was closed due to thunderstorms and we were lucky to book the Sleep Inn at short notice. The free shuttle was on time and very convenient and the free hot breakfast was good. My only problem was that I could not get a receipt showing how much I paid for the room.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r465189320-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>465189320</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>Under construction</t>
+  </si>
+  <si>
+    <t>Located close to DFW Airport. Hotel is currently undergoing expansion and reconstruction. Parking is limited. Has commuter rail located right behind hotel. Nonetheless, overall malaise was manageable. Breakfast area somewhat small.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r464172481-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>464172481</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>Reasonable rates and good breakfast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Included wifi, parking, breakfast, indoor pool and cardio fitness equipment. All at a very reasonable price and very nice courteous staff. The hotel is clean and very quiet considering the proximity to highways and the airport. </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r459772920-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>459772920</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Close to the airport ... transporation to the airport you might want to think????</t>
+  </si>
+  <si>
+    <t>We stayed here before an early morning flight. Room okay.  Bed okay. We did not eat breakfast as we had an early morning flight. We did leave our car here for a small fee.. Then it got interesting when the van the hotel uses took us the airport. No seat belts on the seats and the drive drove like he was a NASCAR driver.I did not feel safe at all. Then upon returning husband called the hotel to send driver. We waited and waited and flagged another van down and he took us to the hotel that was not on his route. We did not even go into the hotel to tell them the driver never showed up. Just wanted to get home., Not sure if i would say here again and use the van to the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>We stayed here before an early morning flight. Room okay.  Bed okay. We did not eat breakfast as we had an early morning flight. We did leave our car here for a small fee.. Then it got interesting when the van the hotel uses took us the airport. No seat belts on the seats and the drive drove like he was a NASCAR driver.I did not feel safe at all. Then upon returning husband called the hotel to send driver. We waited and waited and flagged another van down and he took us to the hotel that was not on his route. We did not even go into the hotel to tell them the driver never showed up. Just wanted to get home., Not sure if i would say here again and use the van to the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r439028224-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>439028224</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great customer service </t>
+  </si>
+  <si>
+    <t>We stayed on our way out of town.  The room was clean and spacious.  The bed was very comfortable.  Breakfast was delicious!!  Loved the coffee.  The manager was very helpful!  We had great customer service.  Indoor pool was awesome.  Would definitely recommend and stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Nancy B, General Manager at Sleep Inn DFW Airport, responded to this reviewResponded November 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2016</t>
+  </si>
+  <si>
+    <t>We stayed on our way out of town.  The room was clean and spacious.  The bed was very comfortable.  Breakfast was delicious!!  Loved the coffee.  The manager was very helpful!  We had great customer service.  Indoor pool was awesome.  Would definitely recommend and stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r438840505-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>438840505</t>
+  </si>
+  <si>
+    <t>11/20/2016</t>
+  </si>
+  <si>
+    <t>Nope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bed smelled funny. Booked and payed for the room room through Hotwire, and when we checked in they said it wasn't paid for yet and we needed to pay the cost of the room so I had to show the guy where Hotwire already pulled the money from my account. I wouldn't recommend this place for more than night. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r438091037-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>438091037</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>No heat in room, no 24-hr maintenance!</t>
+  </si>
+  <si>
+    <t>I stayed here one night during before flying out of DFW. I usually stay at Hampton Inns or Holiday Inns, but everything was either full or overpriced. So I chose to stay at Sleep Inn, and I completely regret it. 
+There was an overwhelming smell of air freshener in the lobby. My room itself smelled musty. When I first went into the room, it sounded like the window was open because I could hear cars, wind, and definitely the planes taking off like they were right outside my window. It turns out the window was closed--it's just a very thin window. So don't stay here if you're a light sleeper. In the morning I was woken up by the sound of the construction crew working in the parking lot area right outside my window. Again, the window was very thin and let almost all sounds in. Also, whenever someone would shut their door in the hallway, the walls in my room rattled. 
+But the worst part of this experience was the heater--it didn't work! I turned it on when I came in and after an hour of waiting it STILL never turned on--it just blew air. I called the front desk to ask if they had another room available or someone to look at it. There were no more rooms available because they were full and the maintenance guy wouldn't be available till the morning. Are you kidding me?! Completely...I stayed here one night during before flying out of DFW. I usually stay at Hampton Inns or Holiday Inns, but everything was either full or overpriced. So I chose to stay at Sleep Inn, and I completely regret it. There was an overwhelming smell of air freshener in the lobby. My room itself smelled musty. When I first went into the room, it sounded like the window was open because I could hear cars, wind, and definitely the planes taking off like they were right outside my window. It turns out the window was closed--it's just a very thin window. So don't stay here if you're a light sleeper. In the morning I was woken up by the sound of the construction crew working in the parking lot area right outside my window. Again, the window was very thin and let almost all sounds in. Also, whenever someone would shut their door in the hallway, the walls in my room rattled. But the worst part of this experience was the heater--it didn't work! I turned it on when I came in and after an hour of waiting it STILL never turned on--it just blew air. I called the front desk to ask if they had another room available or someone to look at it. There were no more rooms available because they were full and the maintenance guy wouldn't be available till the morning. Are you kidding me?! Completely unacceptable. I asked about reimbursement, but the lady said she wasn't authorized to give any and that I would need to speak with the manager in the morning. I ran out of time in the morning because I had to catch my flight but I will be calling their corporate office about this. So because it was cold in my room, I had to run the shower and let the steam heat the room. My other complaint is that the shower only has one temperature setting. I tried to adjust it to be less hot, but no matter how I turned the handle, it stayed the same temp. By the handle it says 'on' and 'off', not 'hot' and 'cold'. Breakfast was also disappointing. Very slim options. The one positive I can say is that the room was clean and the bed was very comfortable. Aside from being awoken by the construction workers, I had a good night's sleep. But you can get a better night's sleep AND heat in your room somewhere else!MoreShow less</t>
+  </si>
+  <si>
+    <t>Nancy B, Manager at Sleep Inn DFW Airport, responded to this reviewResponded November 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here one night during before flying out of DFW. I usually stay at Hampton Inns or Holiday Inns, but everything was either full or overpriced. So I chose to stay at Sleep Inn, and I completely regret it. 
+There was an overwhelming smell of air freshener in the lobby. My room itself smelled musty. When I first went into the room, it sounded like the window was open because I could hear cars, wind, and definitely the planes taking off like they were right outside my window. It turns out the window was closed--it's just a very thin window. So don't stay here if you're a light sleeper. In the morning I was woken up by the sound of the construction crew working in the parking lot area right outside my window. Again, the window was very thin and let almost all sounds in. Also, whenever someone would shut their door in the hallway, the walls in my room rattled. 
+But the worst part of this experience was the heater--it didn't work! I turned it on when I came in and after an hour of waiting it STILL never turned on--it just blew air. I called the front desk to ask if they had another room available or someone to look at it. There were no more rooms available because they were full and the maintenance guy wouldn't be available till the morning. Are you kidding me?! Completely...I stayed here one night during before flying out of DFW. I usually stay at Hampton Inns or Holiday Inns, but everything was either full or overpriced. So I chose to stay at Sleep Inn, and I completely regret it. There was an overwhelming smell of air freshener in the lobby. My room itself smelled musty. When I first went into the room, it sounded like the window was open because I could hear cars, wind, and definitely the planes taking off like they were right outside my window. It turns out the window was closed--it's just a very thin window. So don't stay here if you're a light sleeper. In the morning I was woken up by the sound of the construction crew working in the parking lot area right outside my window. Again, the window was very thin and let almost all sounds in. Also, whenever someone would shut their door in the hallway, the walls in my room rattled. But the worst part of this experience was the heater--it didn't work! I turned it on when I came in and after an hour of waiting it STILL never turned on--it just blew air. I called the front desk to ask if they had another room available or someone to look at it. There were no more rooms available because they were full and the maintenance guy wouldn't be available till the morning. Are you kidding me?! Completely unacceptable. I asked about reimbursement, but the lady said she wasn't authorized to give any and that I would need to speak with the manager in the morning. I ran out of time in the morning because I had to catch my flight but I will be calling their corporate office about this. So because it was cold in my room, I had to run the shower and let the steam heat the room. My other complaint is that the shower only has one temperature setting. I tried to adjust it to be less hot, but no matter how I turned the handle, it stayed the same temp. By the handle it says 'on' and 'off', not 'hot' and 'cold'. Breakfast was also disappointing. Very slim options. The one positive I can say is that the room was clean and the bed was very comfortable. Aside from being awoken by the construction workers, I had a good night's sleep. But you can get a better night's sleep AND heat in your room somewhere else!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r427973709-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>427973709</t>
+  </si>
+  <si>
+    <t>10/14/2016</t>
+  </si>
+  <si>
+    <t>One night stay on way home</t>
+  </si>
+  <si>
+    <t>We had the opportunity to stay one night on our way home from New Mexico.Our room was 2 queen beds, had adequate room but pocket door separating the bathroom dates the property. All personnel were courteous and helpful.There was some plane and dart train noise with this hotel located near the airport.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r427094944-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>427094944</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Old And Not Roomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room is not spacious; but, the bed is really nice for sleeping. Once you enter the room, you can tell it's an old hotel. Breakfast choices are few and there's no fresh fruit. A tv monitor at the lobby provides flight information and I think it is helpful for in transit guests. They also have shuttle that'll take one to the airport. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r426529391-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>426529391</t>
+  </si>
+  <si>
+    <t>10/09/2016</t>
+  </si>
+  <si>
+    <t>Perfect after a long day</t>
+  </si>
+  <si>
+    <t>I had driven down from Southern Kansas to meet the wife at DFW. Her flight didn't arrive till 11:30 pm which gave me time to check in with the helpful, friendly staff and get a shower, which was a bit cramped for me, but I'm a big guy.After picking up the wife, we retired to the awesomely comfortable king bed. Even with the airport and light rail close by, our room was quiet and we slept very well. My only complaint would be that it is a bit difficult to find. If not for Siri, it would have really spun me around.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r420348957-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>420348957</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t>Poor Airport Shuttle Service</t>
+  </si>
+  <si>
+    <t>This hotel is the standard Sleep Inn with very small rooms and a tiny bathroom but with a large walk-in shower.  The shower had a very restricted shower head, which made for a poor shower experience.  The room had all the standard amenities.  The TV was a large flat screen with high definition reception but I could not find Fox News, as there was not an available channel guide in the room.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r418891941-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>418891941</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>General upgrades needed</t>
+  </si>
+  <si>
+    <t>Quite a few outlets by the nightstand need to be replaced due to their faulty connections, since both outlets on the nightstand in Room 231 are non-functional. The lock on the bathroom door is also not working properly. It was never locked while I was there, simply because it's out of order. Room service was okay, but more amenities need to be replenished, especially upon request. Sadly I never received any additional bathsoap when I asked for one. The pool facilities are okay, but sometimes they close the pool way too early. There was no maintenance going on, but one night it was closed before 9 pm, although the sign says it's closed at 10pm. The kitchen should have more food options and also more food especially when the Hotel visitor population is increased. My roommate got no fruits and only one cup of coffee, because every other food for breakfast was finished. Visitors should have a limit to what they take, since some get alot whilst others are left without. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Nancy B, Guest Relations Manager at Sleep Inn DFW Airport, responded to this reviewResponded September 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2016</t>
+  </si>
+  <si>
+    <t>Quite a few outlets by the nightstand need to be replaced due to their faulty connections, since both outlets on the nightstand in Room 231 are non-functional. The lock on the bathroom door is also not working properly. It was never locked while I was there, simply because it's out of order. Room service was okay, but more amenities need to be replenished, especially upon request. Sadly I never received any additional bathsoap when I asked for one. The pool facilities are okay, but sometimes they close the pool way too early. There was no maintenance going on, but one night it was closed before 9 pm, although the sign says it's closed at 10pm. The kitchen should have more food options and also more food especially when the Hotel visitor population is increased. My roommate got no fruits and only one cup of coffee, because every other food for breakfast was finished. Visitors should have a limit to what they take, since some get alot whilst others are left without. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r417717300-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>417717300</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Clean and comfy</t>
+  </si>
+  <si>
+    <t>This place is great to stay at while travelling. You can get to the airport super easy and no traffic. The staff is very friendly the rooms are clean and the beds are comfy. The breakfast is ok. The 2nd deck has an ice cream machine! The price is right well under the competition.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r411524585-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>411524585</t>
+  </si>
+  <si>
+    <t>08/27/2016</t>
+  </si>
+  <si>
+    <t>3.5, fair enough hotel</t>
+  </si>
+  <si>
+    <t>Don't go to Sleep Inn expecting a magnificient experience. It's what it should be, an hotel located near an airport for quick stays. I had a 10h layover in Dallas and got from the shuttle to Sleep Inn, located about 15min from DFW. I got a decent price for a room with a king size bed, AC was working perfectly, so did wifi. I ordered from a local restaurant and got my pizza in about 45min. Not so bad compared to sleeping in the airport! I would've rated 3.5 out of 5</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r410846944-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>410846944</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had a great stay. Heading to the airport early. We were able to park here while gone. Pool was great. Staff was also super friendly and helpful! Room was very comfy. We would definatly stay here again! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r405936780-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>405936780</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>NO FREE PARKING WHILE FLYING OUT OF DFW</t>
+  </si>
+  <si>
+    <t>We stayed one night for 6:40 am flight to NYC. Although when I booked online it showed free parking and shuttle to the airport. When we arrived the front desk told us the parking was under construction and even it it wasn't we could only park one night. We were going to be in NYC a week. They stated they could still shuttle us but we would have to park somewhere else so my husband went ahead and scheduled the shuttle. After thinking about how ridiculous that sounded we went back to the desk and cancelled the shuttle and reserved a spot at The Parking Spot across the street. The desk clerk was surprised we were cancelling the shuttle and then my husband told her how can you shuttle us and us not leave our car parked here?  What idiots!  Plus the room stinks!  Had to spray perfume just to be able to stay in the room. Never again!  I rated a 2 just because of the convenience of being close to the airport. But there are a lot of other hotels close as well. Do yourself a favor and book some other hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed one night for 6:40 am flight to NYC. Although when I booked online it showed free parking and shuttle to the airport. When we arrived the front desk told us the parking was under construction and even it it wasn't we could only park one night. We were going to be in NYC a week. They stated they could still shuttle us but we would have to park somewhere else so my husband went ahead and scheduled the shuttle. After thinking about how ridiculous that sounded we went back to the desk and cancelled the shuttle and reserved a spot at The Parking Spot across the street. The desk clerk was surprised we were cancelling the shuttle and then my husband told her how can you shuttle us and us not leave our car parked here?  What idiots!  Plus the room stinks!  Had to spray perfume just to be able to stay in the room. Never again!  I rated a 2 just because of the convenience of being close to the airport. But there are a lot of other hotels close as well. Do yourself a favor and book some other hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r387854514-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>387854514</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>Quick nite</t>
+  </si>
+  <si>
+    <t>We stayed here one night due to our flight leaving the next morning. Nice place, good breakfast and good service - nice staff and location to the airport...... The shuttle was kind of slow but everything worked out....Thanks</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r383840699-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>383840699</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>The good: beds are comfy. Location is quiet. Airport shuttle available. The bad: location is quite a ways away from everything (food, etc). Room is somewhat outdated (popcorn ceilings) though it appears to be in decent shape. Discontinuing use of the brown spreads and moving to only white linen could really improve the room and let guests feel more comfortable. Also, the pool towels are a joke and should be replaced with newer,  more absorbent ones. Our room was dirty. I mean, an accumulation of filth over several months that could easily be fixed by attendance to detail by housekeeping. For example, I put down the towel mat and when I got out of the shower noticed that there was grey grime on the bottom where the towel was. This is proof that with only a clean mop and some water, much of the dirt could be cleaned.  Of note: the walls seem kind of thin. Our teenagers could hear the couple across the hall having sex. Eww!MoreShow less</t>
+  </si>
+  <si>
+    <t>The good: beds are comfy. Location is quiet. Airport shuttle available. The bad: location is quite a ways away from everything (food, etc). Room is somewhat outdated (popcorn ceilings) though it appears to be in decent shape. Discontinuing use of the brown spreads and moving to only white linen could really improve the room and let guests feel more comfortable. Also, the pool towels are a joke and should be replaced with newer,  more absorbent ones. Our room was dirty. I mean, an accumulation of filth over several months that could easily be fixed by attendance to detail by housekeeping. For example, I put down the towel mat and when I got out of the shower noticed that there was grey grime on the bottom where the towel was. This is proof that with only a clean mop and some water, much of the dirt could be cleaned.  Of note: the walls seem kind of thin. Our teenagers could hear the couple across the hall having sex. Eww!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r373911086-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>373911086</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Deceitful</t>
+  </si>
+  <si>
+    <t>The Sleep Inn in Irving TX was fair.  Somehow our wake up call never came.  But the thing that I found deceitful was on my checkout receipt.  There was a charge called "Surcharge .... $1.50"  I asked what that was for and was told it was for the breakfast and for room service!  We didn't ask for any room service nor received any.  As for the breakfast, (which wasn't that great) is advertised as "And our free amenities—like hot breakfast and WiFi—simply complete your stay. "I told the man at the desk that breakfast was advertised as free and he said, "It is."  I then told him that it wasn't free if I was charged for it.  He insisted it was.  Go figure.  I have asked for my $1.50 back .  Of course I haven't heard anything from them. If everyone were to ask for their money back, they would soon stop the extra charging as it will cost them more to return it than it is worth.I know $1.50 isn't very much but if they are willing to tack on extra charges, how else to they cut cost?  Scary thought!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>The Sleep Inn in Irving TX was fair.  Somehow our wake up call never came.  But the thing that I found deceitful was on my checkout receipt.  There was a charge called "Surcharge .... $1.50"  I asked what that was for and was told it was for the breakfast and for room service!  We didn't ask for any room service nor received any.  As for the breakfast, (which wasn't that great) is advertised as "And our free amenities—like hot breakfast and WiFi—simply complete your stay. "I told the man at the desk that breakfast was advertised as free and he said, "It is."  I then told him that it wasn't free if I was charged for it.  He insisted it was.  Go figure.  I have asked for my $1.50 back .  Of course I haven't heard anything from them. If everyone were to ask for their money back, they would soon stop the extra charging as it will cost them more to return it than it is worth.I know $1.50 isn't very much but if they are willing to tack on extra charges, how else to they cut cost?  Scary thought!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r364043786-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>364043786</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>ABSOLUTE EXCELLENCE!</t>
+  </si>
+  <si>
+    <t>I have stayed at various hotels around the DFW airport for years, and this is my first experience staying at this hotel.  What a gem.  From my first contact with the front desk, to my room quality, cleanliness, to the overall hotel amenities to my checkout...excellence in every way.  I was very impressed.  The hotel is convenient to the airport.   Provides complimentary transportation to/from the DFW airport.  The hotel provides a "free hot breakfast."   Has an indoor pool and hot tub...awesome for relaxing after a long trip.  The rooms are spacious, clean and comfortable.   The hotel staff puts the icing on the cake.  The hotel staff is "awesome" and makes for a pleasant stay when you are greeted upon arrival/at check-in by a true professional that cares for your business and it shows in their actions and attitude.  I will definitely be staying here again and again and would highly recommend this property.  Worth every penny.  Awesome stay.  Great convenient location to the airport and located only 20-25 minutes from downtown Dallas on Hwy 114.  Also the Dart systems runs by the hotel and you can easily catch a taxi or Uber to the closest Dart station which makes it easy to get around the area quickly and economically.  Great location. Great price.  Great hotel and excellent staff.  Really enjoyed the property.  Very nice, clean and absolute excellence.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I have stayed at various hotels around the DFW airport for years, and this is my first experience staying at this hotel.  What a gem.  From my first contact with the front desk, to my room quality, cleanliness, to the overall hotel amenities to my checkout...excellence in every way.  I was very impressed.  The hotel is convenient to the airport.   Provides complimentary transportation to/from the DFW airport.  The hotel provides a "free hot breakfast."   Has an indoor pool and hot tub...awesome for relaxing after a long trip.  The rooms are spacious, clean and comfortable.   The hotel staff puts the icing on the cake.  The hotel staff is "awesome" and makes for a pleasant stay when you are greeted upon arrival/at check-in by a true professional that cares for your business and it shows in their actions and attitude.  I will definitely be staying here again and again and would highly recommend this property.  Worth every penny.  Awesome stay.  Great convenient location to the airport and located only 20-25 minutes from downtown Dallas on Hwy 114.  Also the Dart systems runs by the hotel and you can easily catch a taxi or Uber to the closest Dart station which makes it easy to get around the area quickly and economically.  Great location. Great price.  Great hotel and excellent staff.  Really enjoyed the property.  Very nice, clean and absolute excellence.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r362319849-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>362319849</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>Best Sleep Inn Ever</t>
+  </si>
+  <si>
+    <t>I stayed here arriving late as my flight to Europe was cancelled.  The hotel was excellent: great customer service, quiet, very clean, good food and a good value compared to other hotels in the area. I would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r362269939-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>362269939</t>
+  </si>
+  <si>
+    <t>Great place to stay and park</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here in March 2016.  Everything was more than you would expect considering what we paid.  Room was small, but clean, and it was plenty big for what we needed.  The best perk was being able to leave the car parked and shuttle to and from the airport.  Staff was very friendly and always very helpful.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r355522930-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>355522930</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Great one-night stay in a pinch</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here on the night of March 13, 2016 because we had a 20-hour layover in Dallas-Fort Worth. We've stayed in Sleep Inns before and have been impressed at the value for money received, and this was a pleasant confirmation of the strength of the Sleep Inn brand.
+Ashton, Daniel, and Vicky took great care of us, getting us from the airport on the shuttle (Ashton managed to get us to the right shuttle stop over the phone in our first time at DFW airport, Daniel quickly shifted the time of our shuttle trip the next morning, Vicky confirmed our gate number and got us back to the right terminal). The set-up with the shuttle and early breakfast is custom-tailored for travelers in a bind like us. We ordered dinner delivery from one of the local restaurants and relaxed in our room all night.
+The thing about Sleep Inns in general that we like is that the details of a stay are well thought out. Things don't tend to go wrong for no good reason. Breakfast the next day was no exception.
+Just to give you an idea of how hard I would have to dig to find something slightly negative to say about the experience of staying here, I'll mention that the bagels at this Texas location are a bit too small for the toaster. It's hard to get them out of the slots. There...My wife and I stayed here on the night of March 13, 2016 because we had a 20-hour layover in Dallas-Fort Worth. We've stayed in Sleep Inns before and have been impressed at the value for money received, and this was a pleasant confirmation of the strength of the Sleep Inn brand.Ashton, Daniel, and Vicky took great care of us, getting us from the airport on the shuttle (Ashton managed to get us to the right shuttle stop over the phone in our first time at DFW airport, Daniel quickly shifted the time of our shuttle trip the next morning, Vicky confirmed our gate number and got us back to the right terminal). The set-up with the shuttle and early breakfast is custom-tailored for travelers in a bind like us. We ordered dinner delivery from one of the local restaurants and relaxed in our room all night.The thing about Sleep Inns in general that we like is that the details of a stay are well thought out. Things don't tend to go wrong for no good reason. Breakfast the next day was no exception.Just to give you an idea of how hard I would have to dig to find something slightly negative to say about the experience of staying here, I'll mention that the bagels at this Texas location are a bit too small for the toaster. It's hard to get them out of the slots. There you go -- a complaint about the difficulty of toasting a Texas bagel in a standard toaster. That is literally the most uncomfortable thing that happened to us during our stay.So overall, my wife and I was once again pleasantly surprised by the bang for our buck here, and I can unhesitatingly recommend the Dallas-Fort Worth airport Sleep Inn as worth your consideration if you need to stay near the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here on the night of March 13, 2016 because we had a 20-hour layover in Dallas-Fort Worth. We've stayed in Sleep Inns before and have been impressed at the value for money received, and this was a pleasant confirmation of the strength of the Sleep Inn brand.
+Ashton, Daniel, and Vicky took great care of us, getting us from the airport on the shuttle (Ashton managed to get us to the right shuttle stop over the phone in our first time at DFW airport, Daniel quickly shifted the time of our shuttle trip the next morning, Vicky confirmed our gate number and got us back to the right terminal). The set-up with the shuttle and early breakfast is custom-tailored for travelers in a bind like us. We ordered dinner delivery from one of the local restaurants and relaxed in our room all night.
+The thing about Sleep Inns in general that we like is that the details of a stay are well thought out. Things don't tend to go wrong for no good reason. Breakfast the next day was no exception.
+Just to give you an idea of how hard I would have to dig to find something slightly negative to say about the experience of staying here, I'll mention that the bagels at this Texas location are a bit too small for the toaster. It's hard to get them out of the slots. There...My wife and I stayed here on the night of March 13, 2016 because we had a 20-hour layover in Dallas-Fort Worth. We've stayed in Sleep Inns before and have been impressed at the value for money received, and this was a pleasant confirmation of the strength of the Sleep Inn brand.Ashton, Daniel, and Vicky took great care of us, getting us from the airport on the shuttle (Ashton managed to get us to the right shuttle stop over the phone in our first time at DFW airport, Daniel quickly shifted the time of our shuttle trip the next morning, Vicky confirmed our gate number and got us back to the right terminal). The set-up with the shuttle and early breakfast is custom-tailored for travelers in a bind like us. We ordered dinner delivery from one of the local restaurants and relaxed in our room all night.The thing about Sleep Inns in general that we like is that the details of a stay are well thought out. Things don't tend to go wrong for no good reason. Breakfast the next day was no exception.Just to give you an idea of how hard I would have to dig to find something slightly negative to say about the experience of staying here, I'll mention that the bagels at this Texas location are a bit too small for the toaster. It's hard to get them out of the slots. There you go -- a complaint about the difficulty of toasting a Texas bagel in a standard toaster. That is literally the most uncomfortable thing that happened to us during our stay.So overall, my wife and I was once again pleasantly surprised by the bang for our buck here, and I can unhesitatingly recommend the Dallas-Fort Worth airport Sleep Inn as worth your consideration if you need to stay near the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r353319616-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>353319616</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traveling solo.  I arrived at DFW at 7pm and called the "suites" (see my other reviews) Ihad made a reservation online whose booking site stated they had a/p shuttle service and was told the site has wrong info and for me to take a cab ($22 one way).  I called Sleep Inn and Ashton rescued me with a room with a comfy king size bed, microwave, frig, breakfast, etc.  AND a shuttle within 15 mins!.  Ashton and Vicki are personable, professional and cheerful.  All around pleasant stay.  My go to place for future DFW stopovers.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r352884040-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>352884040</t>
+  </si>
+  <si>
+    <t>03/04/2016</t>
+  </si>
+  <si>
+    <t>The nicest sleep inn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've slept at Sleep Inns before, and this one by far is the best out of them. The AC worked. The bed was comfy. The shower was nice.  I would stay here again. The only downside was the shuttle, to and from the airport, filled quickly and I had to wait 40 minutes for a pick up </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r342132813-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>342132813</t>
+  </si>
+  <si>
+    <t>01/23/2016</t>
+  </si>
+  <si>
+    <t>Lived up to its name!</t>
+  </si>
+  <si>
+    <t>I needed a place to crash for one night, and this hotel delivered on a budget.  There were a few scuffs on walls and errant paint splashes, but the room was quiet and the bed was comfortable.  The AC unit purred all night and didn't loudly kick on and off like they sometimes do.  The shower pressure was not great but it was adequate.  And I got a great night's sleep.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r341177184-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>341177184</t>
+  </si>
+  <si>
+    <t>01/19/2016</t>
+  </si>
+  <si>
+    <t>Wonderful nights rest!</t>
+  </si>
+  <si>
+    <t>We stayed here on our way back from a cruise. This was the perfect place to be. We checked in quickly with great customer service.  We then went to the room, which was newly remodeled. It looked wonderful. We then went to the indoor hot-tub and pool and relaxed. Afterwards we went to our room, and enjoyed a wonderful nights sleep on a very comfortable soft bed.  In the morning, I took a shower and enjoyed the water pressure. It was just right. The room temp was perfect. The breakfast is awesome. Scrambled eggs, sausage, Texas shaped waffles, fruit, bread, cereal, yogurt, muffins etc! I will be staying here again next time I am in Texas!  I loved it!!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here on our way back from a cruise. This was the perfect place to be. We checked in quickly with great customer service.  We then went to the room, which was newly remodeled. It looked wonderful. We then went to the indoor hot-tub and pool and relaxed. Afterwards we went to our room, and enjoyed a wonderful nights sleep on a very comfortable soft bed.  In the morning, I took a shower and enjoyed the water pressure. It was just right. The room temp was perfect. The breakfast is awesome. Scrambled eggs, sausage, Texas shaped waffles, fruit, bread, cereal, yogurt, muffins etc! I will be staying here again next time I am in Texas!  I loved it!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r340726091-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>340726091</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t>Pleaure trip - family visit</t>
+  </si>
+  <si>
+    <t>This is a very nice place to stay. Very clean, exceptional staff, convenient to airport. We were visiting family in the Dallas area. The breakfast is very good. Exceptional value. Will go back again. Stayed 3 nights.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r334334176-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>334334176</t>
+  </si>
+  <si>
+    <t>12/21/2015</t>
+  </si>
+  <si>
+    <t>Not impressed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We chose to leave our car here for parking and a courtesy shuttle. After flying all day we still have a four hour drive home and yes we are still at the airport .. next time i will just park at the airport .. </t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r333966596-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>333966596</t>
+  </si>
+  <si>
+    <t>12/19/2015</t>
+  </si>
+  <si>
+    <t>A Pleasant Surprise</t>
+  </si>
+  <si>
+    <t>My Mom and I stayed here the night before her flight from DFW Airport.  I usually get a suite at Comfort Suites but waited too late to book a room.  I wasn't sure what to expect.  The hotel staff was very welcoming and Miss Marilyn went above and beyond to help me when we arrived.  The room was very comfortable and clean.  Originally, I had asked for an accessible room with two beds but when we checked in, Miss Marilyn changed us to a room closer to the door so Mom did not have to walk as far.  The next day, the shuttle took us both to the airport and  picked me up after seeing Mom off at the gate.  It was quick and much easier than parking.  I did not get the young woman's name working the desk but she was also gracious and allowed me to finish checking out upon my return from the airport. I would definitely stay here again and the price was very reasonable.  The only suggestion I have is that the owner put up another mirror as the one over the sink is definitely a one person affair and two women needed another mirror to get ready.MoreShow less</t>
+  </si>
+  <si>
+    <t>My Mom and I stayed here the night before her flight from DFW Airport.  I usually get a suite at Comfort Suites but waited too late to book a room.  I wasn't sure what to expect.  The hotel staff was very welcoming and Miss Marilyn went above and beyond to help me when we arrived.  The room was very comfortable and clean.  Originally, I had asked for an accessible room with two beds but when we checked in, Miss Marilyn changed us to a room closer to the door so Mom did not have to walk as far.  The next day, the shuttle took us both to the airport and  picked me up after seeing Mom off at the gate.  It was quick and much easier than parking.  I did not get the young woman's name working the desk but she was also gracious and allowed me to finish checking out upon my return from the airport. I would definitely stay here again and the price was very reasonable.  The only suggestion I have is that the owner put up another mirror as the one over the sink is definitely a one person affair and two women needed another mirror to get ready.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r332474626-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>332474626</t>
+  </si>
+  <si>
+    <t>12/13/2015</t>
+  </si>
+  <si>
+    <t>Eh....breakfast was great but that's about all - the dried urine stains on the toilet were a unpleasant extra</t>
+  </si>
+  <si>
+    <t>I gave a rave review to the Motel 6 across the street from this Sleep Inn because in comparison - STAY AT THE MOTEL 6!A very tired Sleep Inn and although they have tried to update and refurbish there is only so much you can do before you need to tear down and start over and they really need to do this!Bed was old and lumpy, toilet needed to be cleaned had dried urine stains on it and the seat was up the room was either filmy from years of use or just gross - I really think a combo of both.Had free wifi and free breakfast....also had a fridge that was fairly warm and a microwave and coffee maker in room.  Total for this place was $111I ate about $40 worth of breakfast just to feel like I was breaking even.  Also there is a monorail that whizzes by about every 20 minutes - it's a strange noise but I got used to it.The saving grace of this place - THE BREAKFAST!!!Scrambled eggs, sauages, pastries, yogurt, biscuits, waffles in the shape of TX, cereal, 3 juices, milk and fairly decent coffee.Do yourself a favor and stay at the Motel 6 across the street - SOOOO much better and was only $60!  I can always grab breakfast somewhere -MoreShow less</t>
+  </si>
+  <si>
+    <t>I gave a rave review to the Motel 6 across the street from this Sleep Inn because in comparison - STAY AT THE MOTEL 6!A very tired Sleep Inn and although they have tried to update and refurbish there is only so much you can do before you need to tear down and start over and they really need to do this!Bed was old and lumpy, toilet needed to be cleaned had dried urine stains on it and the seat was up the room was either filmy from years of use or just gross - I really think a combo of both.Had free wifi and free breakfast....also had a fridge that was fairly warm and a microwave and coffee maker in room.  Total for this place was $111I ate about $40 worth of breakfast just to feel like I was breaking even.  Also there is a monorail that whizzes by about every 20 minutes - it's a strange noise but I got used to it.The saving grace of this place - THE BREAKFAST!!!Scrambled eggs, sauages, pastries, yogurt, biscuits, waffles in the shape of TX, cereal, 3 juices, milk and fairly decent coffee.Do yourself a favor and stay at the Motel 6 across the street - SOOOO much better and was only $60!  I can always grab breakfast somewhere -More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r323049056-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>323049056</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>Value for price</t>
+  </si>
+  <si>
+    <t>Flying out early the next morning, we booked this hotel for a Sunday night. I liked that it was not right next to the highway nor the airport, so it had nice fresh air and relative quiet when we opened the window on the second floor to see a field next door.The room was nice with a refrigerator and microwave and TV, where my hubby could view the Cowboys game. The bed was comfortable, the bath clean. The only negative - but a deal breaker for next time - was that they do not open for breakfast until 6am, though they have three shuttle times before that. That means people traveling without breakfast, and may not get a meal at lunch on the airplane either, if it is a long flight with turbulence. Since it is an AIRPORT hotel, it should cater to airport passengers and start breakfast before the first shuttle. My home Sleep Inn in SeaTac, WA begins breakfast at 4am - and has yogurt, hard-boiled eggs, fruit and pastries available to take an hour before that, if anyone needs to get to the airport for a 6am flight - which is when a lot of flights are departing. It has coffee and hot water for hot chocolate or tea 24 hours per day. That raises their rating in my eyes. This hotel should mimic them, and it would raise their value too.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Flying out early the next morning, we booked this hotel for a Sunday night. I liked that it was not right next to the highway nor the airport, so it had nice fresh air and relative quiet when we opened the window on the second floor to see a field next door.The room was nice with a refrigerator and microwave and TV, where my hubby could view the Cowboys game. The bed was comfortable, the bath clean. The only negative - but a deal breaker for next time - was that they do not open for breakfast until 6am, though they have three shuttle times before that. That means people traveling without breakfast, and may not get a meal at lunch on the airplane either, if it is a long flight with turbulence. Since it is an AIRPORT hotel, it should cater to airport passengers and start breakfast before the first shuttle. My home Sleep Inn in SeaTac, WA begins breakfast at 4am - and has yogurt, hard-boiled eggs, fruit and pastries available to take an hour before that, if anyone needs to get to the airport for a 6am flight - which is when a lot of flights are departing. It has coffee and hot water for hot chocolate or tea 24 hours per day. That raises their rating in my eyes. This hotel should mimic them, and it would raise their value too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r322801403-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>322801403</t>
+  </si>
+  <si>
+    <t>10/28/2015</t>
+  </si>
+  <si>
+    <t>Decent Stay... No Complaints</t>
+  </si>
+  <si>
+    <t>Beds were nice. Not the best. I received a single king room on the second floor. The bathroom in my room was very tidy and at a weird placement. The tv was kind of small but nice for the space. The shower did have awesome long lasting hot water. Access to the pool was in a weird location even though I did not visit the pool. At the front desk there was a nice big screen displaying arriving and departing flights. The breakfast was good for fruits and cereal. The eggs and sausage was gross. Decent stay for basic needs and cheap. Also included a shuttle to the airport.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r318440692-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>318440692</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>Excellent value</t>
+  </si>
+  <si>
+    <t>I booked this hotel because I had a very early morning flight out of Dallas and wanted to have plenty of time to get to the airport without losing too much sleep.  It was so inexpensive that I worried it would be tatty and tired, but I was wrong.  It is simple (only 2 floors) with minimal amenities, but they're plenty for people who are traveling.  The reception area was comfortable; there were luggage carriers readily available, and check-in with Otel.com was a breeze.  The room was very clean and the beds were surprisingly comfortable with crisp linens and plenty of pillows.  The heating/air-conditioning unit worked efficiently.  The nicest thing was the pleasantness of the young man at the desk in the evening and the cheery smile on the woman at the desk at 5 a.m. the next morning.  There's a complimentary computer and printer in the lobby for airline check in.  Although I didn't use it, there's a complimentary shuttle to the airport that starts in the wee hours of the morning.  I would happily recommend this hotel for anyone who wants a good night's sleep and doesn't require unnecessary luxury.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this hotel because I had a very early morning flight out of Dallas and wanted to have plenty of time to get to the airport without losing too much sleep.  It was so inexpensive that I worried it would be tatty and tired, but I was wrong.  It is simple (only 2 floors) with minimal amenities, but they're plenty for people who are traveling.  The reception area was comfortable; there were luggage carriers readily available, and check-in with Otel.com was a breeze.  The room was very clean and the beds were surprisingly comfortable with crisp linens and plenty of pillows.  The heating/air-conditioning unit worked efficiently.  The nicest thing was the pleasantness of the young man at the desk in the evening and the cheery smile on the woman at the desk at 5 a.m. the next morning.  There's a complimentary computer and printer in the lobby for airline check in.  Although I didn't use it, there's a complimentary shuttle to the airport that starts in the wee hours of the morning.  I would happily recommend this hotel for anyone who wants a good night's sleep and doesn't require unnecessary luxury.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r310582696-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>310582696</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>VERY QUIET NIGHT DESPITE THE LOCATION</t>
+  </si>
+  <si>
+    <t>When I checked in, I was wondering if we could hear the noice of the planes flying overhead.  Found out that once you are inside this motel, you will not hear any planes or anythingelse going by.  Rooms are very quiet at night and beds are very comfortable.  Room size was just right.  Breakfast was a good and hot with scrambled eggs, sausage, waffles, and the rest of the breakfast fare.  Rooms do not have a bathtub unless it is a handicap room,  but the showers are big enough for a large person.  NOTE.. shower floors are very slippery, we put a towel down on the floor which really helped.  We were visiting relatives in the area and will definitly stay here again.   There is also a pool here but did not use it.  Price is very affordable for the location.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>When I checked in, I was wondering if we could hear the noice of the planes flying overhead.  Found out that once you are inside this motel, you will not hear any planes or anythingelse going by.  Rooms are very quiet at night and beds are very comfortable.  Room size was just right.  Breakfast was a good and hot with scrambled eggs, sausage, waffles, and the rest of the breakfast fare.  Rooms do not have a bathtub unless it is a handicap room,  but the showers are big enough for a large person.  NOTE.. shower floors are very slippery, we put a towel down on the floor which really helped.  We were visiting relatives in the area and will definitly stay here again.   There is also a pool here but did not use it.  Price is very affordable for the location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r309387997-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>309387997</t>
+  </si>
+  <si>
+    <t>09/11/2015</t>
+  </si>
+  <si>
+    <t>A DREAM NIGHTS SLEEP AFTER A LONG HARD RIDE</t>
+  </si>
+  <si>
+    <t>I stayed at.the Dallas/Fortworth, TX airport location and once again pleasantly satisfied with the exception accommodations.  To bad the last reviewer failed to see the luxury in this hotel.  Where can you find a dependable fancy room without paying four star rates.  The front desk staff has been so kind, I hope we can locate Sleep Inn Hotels for the remainder of our trip in the Smokey Mountains and on to Nashville, TN</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r297940493-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>297940493</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>NICE, quiet, great staff and very accomodating!</t>
+  </si>
+  <si>
+    <t>I arrived on the shuttle at 1:30 a.m. and was welcomed by friendly desk staff.And was given a later checkout when I asked with no problem. This is a great hotel for the price range. I got a great price, free shuttle, wifi, helpful, friendly staff, a clean, quiet, modern room and breakfast.  I will definitely stay here again!!</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r292284540-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>292284540</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>So so</t>
+  </si>
+  <si>
+    <t>upon arrival from the airport,finding the shuttle was not hard BUT the front desk clerk makes it hard! I find it strange someone living somewhere does not know how there airport looks! I had to call her twice just to get the fright directions to the shuttle stop which she was wrong at first! After checkin everything else was normal! Clean room nice and cozy</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r290338011-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>290338011</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>Service?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel is average for moderate level hotel but there airport shuttle service is a deal breaker. They share there hotel van with SIX other hotels. A one hour trip from the airport is not uncommon on a packed hot overcrowded van.  Not good shuttle service. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r288693484-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>288693484</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>Shuttle not worth the discount</t>
+  </si>
+  <si>
+    <t>Decent hotel; I only stayed overnight before my flight at 8 am the following morning. I didn't take advantage of the complimentary breakfast, so I cannot speak on that topic. However, the shuttle to/from the airport is absolutely the worst! If you choose to park your car in the hotel parking lot during your trip instead of opting for higher priced airport parking options you are able to utilize the hotel shuttle service which runs between multiple hotels in the area.
+ My shuttle to the airport was 15 minutes behind schedule &amp; completely full upon arrival; even though I had signed up for a specific time slot in advance. By the time my shuttle arrived I had less than an hour to make it to the airport, check in with my airline, &amp; make it through airport security. Each person is given a set of instructions to follow which detail how/when to contact the shuttle service upon your return to pick up your car, but the instructions are absurd &amp; absolutely no help whatsoever. 
+Firstly, you are not permitted to call the shuttle service to schedule a pick up until you have picked up your luggage from baggage claim &amp; made your way to one of the appropriate pick up locations (good luck finding one!). Secondly, these locations are incredibly difficult to determine &amp; do not correspond to the locations listed on the instructions. (I wasn't the only person who...Decent hotel; I only stayed overnight before my flight at 8 am the following morning. I didn't take advantage of the complimentary breakfast, so I cannot speak on that topic. However, the shuttle to/from the airport is absolutely the worst! If you choose to park your car in the hotel parking lot during your trip instead of opting for higher priced airport parking options you are able to utilize the hotel shuttle service which runs between multiple hotels in the area. My shuttle to the airport was 15 minutes behind schedule &amp; completely full upon arrival; even though I had signed up for a specific time slot in advance. By the time my shuttle arrived I had less than an hour to make it to the airport, check in with my airline, &amp; make it through airport security. Each person is given a set of instructions to follow which detail how/when to contact the shuttle service upon your return to pick up your car, but the instructions are absurd &amp; absolutely no help whatsoever. Firstly, you are not permitted to call the shuttle service to schedule a pick up until you have picked up your luggage from baggage claim &amp; made your way to one of the appropriate pick up locations (good luck finding one!). Secondly, these locations are incredibly difficult to determine &amp; do not correspond to the locations listed on the instructions. (I wasn't the only person who felt this way, all 9 people on my shuttle commented on the difficulty of the instructions upon pick-up.) And thirdly, the people who operate the shuttle service have very little/poor communication with one another. After failing to find one of the pick-up locations I called the shuttle service phone number &amp; was told to head to a completely different location than what was listed on the instructions! Be prepared to wait quite a while for a shuttle with available space to come pick you up too. Want to take a taxi &amp; forgo the shuttle? It'll cost you a $27 minimum for a 3 mile ride. To eliminate unnecessary stress &amp; wasted time, I would suggest you skip the frugality of the shuttle service to this hotel; what you pay for is way more than the service you receive. Spend a bit of extra money &amp; choose an airport parking option with a more reliable &amp; better executed shuttle service!MoreShow less</t>
+  </si>
+  <si>
+    <t>Decent hotel; I only stayed overnight before my flight at 8 am the following morning. I didn't take advantage of the complimentary breakfast, so I cannot speak on that topic. However, the shuttle to/from the airport is absolutely the worst! If you choose to park your car in the hotel parking lot during your trip instead of opting for higher priced airport parking options you are able to utilize the hotel shuttle service which runs between multiple hotels in the area.
+ My shuttle to the airport was 15 minutes behind schedule &amp; completely full upon arrival; even though I had signed up for a specific time slot in advance. By the time my shuttle arrived I had less than an hour to make it to the airport, check in with my airline, &amp; make it through airport security. Each person is given a set of instructions to follow which detail how/when to contact the shuttle service upon your return to pick up your car, but the instructions are absurd &amp; absolutely no help whatsoever. 
+Firstly, you are not permitted to call the shuttle service to schedule a pick up until you have picked up your luggage from baggage claim &amp; made your way to one of the appropriate pick up locations (good luck finding one!). Secondly, these locations are incredibly difficult to determine &amp; do not correspond to the locations listed on the instructions. (I wasn't the only person who...Decent hotel; I only stayed overnight before my flight at 8 am the following morning. I didn't take advantage of the complimentary breakfast, so I cannot speak on that topic. However, the shuttle to/from the airport is absolutely the worst! If you choose to park your car in the hotel parking lot during your trip instead of opting for higher priced airport parking options you are able to utilize the hotel shuttle service which runs between multiple hotels in the area. My shuttle to the airport was 15 minutes behind schedule &amp; completely full upon arrival; even though I had signed up for a specific time slot in advance. By the time my shuttle arrived I had less than an hour to make it to the airport, check in with my airline, &amp; make it through airport security. Each person is given a set of instructions to follow which detail how/when to contact the shuttle service upon your return to pick up your car, but the instructions are absurd &amp; absolutely no help whatsoever. Firstly, you are not permitted to call the shuttle service to schedule a pick up until you have picked up your luggage from baggage claim &amp; made your way to one of the appropriate pick up locations (good luck finding one!). Secondly, these locations are incredibly difficult to determine &amp; do not correspond to the locations listed on the instructions. (I wasn't the only person who felt this way, all 9 people on my shuttle commented on the difficulty of the instructions upon pick-up.) And thirdly, the people who operate the shuttle service have very little/poor communication with one another. After failing to find one of the pick-up locations I called the shuttle service phone number &amp; was told to head to a completely different location than what was listed on the instructions! Be prepared to wait quite a while for a shuttle with available space to come pick you up too. Want to take a taxi &amp; forgo the shuttle? It'll cost you a $27 minimum for a 3 mile ride. To eliminate unnecessary stress &amp; wasted time, I would suggest you skip the frugality of the shuttle service to this hotel; what you pay for is way more than the service you receive. Spend a bit of extra money &amp; choose an airport parking option with a more reliable &amp; better executed shuttle service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r281204656-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>281204656</t>
+  </si>
+  <si>
+    <t>06/18/2015</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had a great experience at this hotel.  Staff was super nice and very helpful,  the room was very clean and the beds super comfortable. The kids went to the swimming pool and had fun even though the water was really cold besides that it was good.  Breakfast was really good and had a great variety. I really recommend this hotel is quiet, clean and beautiful. Planning on staying there next time we go to Texas. </t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r279257811-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>279257811</t>
+  </si>
+  <si>
+    <t>06/10/2015</t>
+  </si>
+  <si>
+    <t>Not impressed with staff room or service</t>
+  </si>
+  <si>
+    <t>We stayed there two nights on our way to europe. We stayed before flying out and left the car there. Was NOT told of the park and fly rate when I called the hotel. Was told upon check in that I could have availed of it. However, they would not honor it or give me ANY discount on parking. Online it said $4 a night. Park and fly rate was $99 a night with 10 days free. At hotel they wanted $5 a night. after a call to choice hotels he gave it to me for $4 a night. The hotel runs at 100% occupancy but they only have one person working the front desk so you wait to be checked in. The hallways appear to be centrally air conditioned but they have a wall unit laboring at the end of the hallway which is not enough so hallway is hot as hell!!! ( try Texas in 90 deg weather) The room air was not on either..so after a 10 hr drive it was torture. breakfast was ok..Airport shuttle was ok. I did the survey by choice lisitng my issues. 
+ON our way back we spent 1hr 20 min at airport waiting for a shuttle. My son called and gave our info. That was not the worst part. The worst part was one shuttle stopped by...the driver got off...said " 4 people??? I have no place"...got back in his van...We stayed there two nights on our way to europe. We stayed before flying out and left the car there. Was NOT told of the park and fly rate when I called the hotel. Was told upon check in that I could have availed of it. However, they would not honor it or give me ANY discount on parking. Online it said $4 a night. Park and fly rate was $99 a night with 10 days free. At hotel they wanted $5 a night. after a call to choice hotels he gave it to me for $4 a night. The hotel runs at 100% occupancy but they only have one person working the front desk so you wait to be checked in. The hallways appear to be centrally air conditioned but they have a wall unit laboring at the end of the hallway which is not enough so hallway is hot as hell!!! ( try Texas in 90 deg weather) The room air was not on either..so after a 10 hr drive it was torture. breakfast was ok..Airport shuttle was ok. I did the survey by choice lisitng my issues. ON our way back we spent 1hr 20 min at airport waiting for a shuttle. My son called and gave our info. That was not the worst part. The worst part was one shuttle stopped by...the driver got off...said " 4 people??? I have no place"...got back in his van and DROVE OFF!!!!. Then 15 min later another one comes by..It is 90 deg in Dallas and we were heading back from Norway after two flights. Finally we get to hotel and I guess judging from the cold shoulder from the front desk clerk my earlier review had made its way to hotel. Good news ...we were put upstairs...hallway air was on and room was at 72 deg..not best but given that outside was 90 ..i guess it was ok. Bright spot...GREAT MATTRESSESOh and gym is a elliptical and a treadmill with a/c not turned onMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>We stayed there two nights on our way to europe. We stayed before flying out and left the car there. Was NOT told of the park and fly rate when I called the hotel. Was told upon check in that I could have availed of it. However, they would not honor it or give me ANY discount on parking. Online it said $4 a night. Park and fly rate was $99 a night with 10 days free. At hotel they wanted $5 a night. after a call to choice hotels he gave it to me for $4 a night. The hotel runs at 100% occupancy but they only have one person working the front desk so you wait to be checked in. The hallways appear to be centrally air conditioned but they have a wall unit laboring at the end of the hallway which is not enough so hallway is hot as hell!!! ( try Texas in 90 deg weather) The room air was not on either..so after a 10 hr drive it was torture. breakfast was ok..Airport shuttle was ok. I did the survey by choice lisitng my issues. 
+ON our way back we spent 1hr 20 min at airport waiting for a shuttle. My son called and gave our info. That was not the worst part. The worst part was one shuttle stopped by...the driver got off...said " 4 people??? I have no place"...got back in his van...We stayed there two nights on our way to europe. We stayed before flying out and left the car there. Was NOT told of the park and fly rate when I called the hotel. Was told upon check in that I could have availed of it. However, they would not honor it or give me ANY discount on parking. Online it said $4 a night. Park and fly rate was $99 a night with 10 days free. At hotel they wanted $5 a night. after a call to choice hotels he gave it to me for $4 a night. The hotel runs at 100% occupancy but they only have one person working the front desk so you wait to be checked in. The hallways appear to be centrally air conditioned but they have a wall unit laboring at the end of the hallway which is not enough so hallway is hot as hell!!! ( try Texas in 90 deg weather) The room air was not on either..so after a 10 hr drive it was torture. breakfast was ok..Airport shuttle was ok. I did the survey by choice lisitng my issues. ON our way back we spent 1hr 20 min at airport waiting for a shuttle. My son called and gave our info. That was not the worst part. The worst part was one shuttle stopped by...the driver got off...said " 4 people??? I have no place"...got back in his van and DROVE OFF!!!!. Then 15 min later another one comes by..It is 90 deg in Dallas and we were heading back from Norway after two flights. Finally we get to hotel and I guess judging from the cold shoulder from the front desk clerk my earlier review had made its way to hotel. Good news ...we were put upstairs...hallway air was on and room was at 72 deg..not best but given that outside was 90 ..i guess it was ok. Bright spot...GREAT MATTRESSESOh and gym is a elliptical and a treadmill with a/c not turned onMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r273445302-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>273445302</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t>Right For Us</t>
+  </si>
+  <si>
+    <t>We had to catch an early morning flight out of DFW and so stayed overnight at this hotel It fit our needs.  We found it clean and comfortable with friendly staff.  You signed a sheet showing the time you needed the shuttle to the airport.  Be aware that they do make stops at other hotels so allow a 20-30 minute ride to the airport.  We left before breakfast time but they did have coffee there.  A nice touch would be to also have muffins you could take along with your coffee.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r269127343-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>269127343</t>
+  </si>
+  <si>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>Friendly Staff, Long shuttle ride</t>
+  </si>
+  <si>
+    <t>Staff was very friendly. Hotel was clean and modern.I was unaware that the shuttle went to several other hotels for pick up. I was the last drop off. I gave myself plenty of time to make it to the airport but did not take into account that we would be making other stops. I made it in time but thankfully the lines weren't too long at check point. It would have been helpful if they would have let me know about this when I scheduled my shuttle ride.Wifi worked ok. They did have several routers to choose from.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r268408995-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>268408995</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Clean,good quality bed.very good breakfast.for a modest price.with airport shuttle</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel one night,bed ,cable,wifi breakfast as good as anY trendy hotel,for a very comfortable price.Room was clean,bed with good quality matters, cable with hundred of channel.Recommend it for a night transfer at DFW.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r267984286-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>267984286</t>
+  </si>
+  <si>
+    <t>04/25/2015</t>
+  </si>
+  <si>
+    <t>Very clean place</t>
+  </si>
+  <si>
+    <t>This place is conveniently close to DFW airport. It is clean and quiet. Good place to rest while traveling. They offer an airport shuttle. I am not sure, but I believe they have an indoor swimming pool.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r257638640-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>257638640</t>
+  </si>
+  <si>
+    <t>03/04/2015</t>
+  </si>
+  <si>
+    <t>A Decent Budget Option</t>
+  </si>
+  <si>
+    <t>My husband and I were in town to visit family and stayed here for two days of our week long stay. There were good and bad about our stay. We arrived at 11pm and waited 40 minutes for the hotel shuttle, only to be told it would be delayed even further. So, our "free hotel shuttle" turned into a $35 taxi ride. Our room was very clean, which is something I always worry about with a budget hotel. Unfortunately, our shower did not drain and when you flushed the toilet it would run forever. Tip-bring ear plugs-the rooms are loud. One thing you should enjoy is the breakfast which includes both hot and cold items. Would I stay again? If the budget was tight-yes.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I were in town to visit family and stayed here for two days of our week long stay. There were good and bad about our stay. We arrived at 11pm and waited 40 minutes for the hotel shuttle, only to be told it would be delayed even further. So, our "free hotel shuttle" turned into a $35 taxi ride. Our room was very clean, which is something I always worry about with a budget hotel. Unfortunately, our shower did not drain and when you flushed the toilet it would run forever. Tip-bring ear plugs-the rooms are loud. One thing you should enjoy is the breakfast which includes both hot and cold items. Would I stay again? If the budget was tight-yes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r257436245-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>257436245</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>very friendly and helpful</t>
+  </si>
+  <si>
+    <t>we just had an overnight stay when stuck in Dallas airport. The front desk and shuttle driver were very helpful. The hotel is out of the way, and very basic. No restaurant or bar on site. They give you a menu for takeout. That said, the linen, bed and shower were very comfortable.  The room was clean. The gentleman at the front desk was super helpful, and helped us arrange an early morning taxi. they also have breakfast but we had to leave too early to be able to check that out. And they have shuttle service to DFW</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r257395632-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>257395632</t>
+  </si>
+  <si>
+    <t>03/02/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short overnight stay but satisfied </t>
+  </si>
+  <si>
+    <t>Overall:I was stopping over as a layby flight overnight. From the moment I rang up, staff were clear communicators and friendly. The room was clean and facilities were excellent for an overnight stay. Room and facilities:Everything needed for an overnight stay was provided. Nothing missing I could think of. Staff and service:It was late at night when I checked in. One staff member was very friendly! The other seemed over tired. He wasn't as welcoming but was not impolite. Pricing:Cost about 93 USD for one person (including taxes). This was with late notice (rang at airport) in Feb. Side note:Closest restaurant was a 15 min walk away. I was quite tired and so Dominoes was recommended. They delivered to my room in about 25 mins. Best part:Efficiency of staff. Also, complimentary shuttles to and from airport. I had a 4.05am shuttle! It was on time. Worst part:Nil on my short stay. Final word:No issues for an overnight stay with good shuttle service. MoreShow less</t>
+  </si>
+  <si>
+    <t>Overall:I was stopping over as a layby flight overnight. From the moment I rang up, staff were clear communicators and friendly. The room was clean and facilities were excellent for an overnight stay. Room and facilities:Everything needed for an overnight stay was provided. Nothing missing I could think of. Staff and service:It was late at night when I checked in. One staff member was very friendly! The other seemed over tired. He wasn't as welcoming but was not impolite. Pricing:Cost about 93 USD for one person (including taxes). This was with late notice (rang at airport) in Feb. Side note:Closest restaurant was a 15 min walk away. I was quite tired and so Dominoes was recommended. They delivered to my room in about 25 mins. Best part:Efficiency of staff. Also, complimentary shuttles to and from airport. I had a 4.05am shuttle! It was on time. Worst part:Nil on my short stay. Final word:No issues for an overnight stay with good shuttle service. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r249436364-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>249436364</t>
+  </si>
+  <si>
+    <t>01/15/2015</t>
+  </si>
+  <si>
+    <t>very clean and nice</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights for the College Football Championship. It was very clean and a great value when booked ahead. We paid around $120 a night and I overheard people walking in being quoted $350. Breakfast was nice with a few hot items and pastries. Free shuttle to and from the airport is shared between a few hotels so it can take up to 15 mins to get back and forth even though it's only normally a 5 min ride.About 20 mins ride to ATT stadium.I would stay here again.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r244583064-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>244583064</t>
+  </si>
+  <si>
+    <t>12/15/2014</t>
+  </si>
+  <si>
+    <t>Clean stay and a comfy bed</t>
+  </si>
+  <si>
+    <t>The rooms are set up very nice. Everything was VERY clean, the bed was comfortable along with clean. Would definitely stay again. We needed conjoined rooms at 8 o'clock at night and they made that happen. Great service.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r243089686-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>243089686</t>
+  </si>
+  <si>
+    <t>12/05/2014</t>
+  </si>
+  <si>
+    <t>All 5 stars for Customer service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am a frequent traveller ,and stay in many hotels .. but was my first time to see a Indian lady on the front desk ....but for my suprise she given the best customer service I ever had....she was super busy when she checked me in and other guest but the smile on her face and get patience last forever ...... </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r240767556-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>240767556</t>
+  </si>
+  <si>
+    <t>11/20/2014</t>
+  </si>
+  <si>
+    <t>NOT Airline Crew Friendly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our Airline has recently put us up at this hotel. The Good:Friendly staffLimited breakfast but okIndoor pool and jacuzziFree USA TodayUpdated rooms kindaMany TV channelsThe Bad:No free shuttle to surrounding areaAirport shuttle always lateConstruction project nearbyDART Train noise on one sideAbsolutely nothing to do or to eat nearby. As an airline employee who is stuck here for days with nothing to do and nowhere to go. Not good. </t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r240292810-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>240292810</t>
+  </si>
+  <si>
+    <t>11/17/2014</t>
+  </si>
+  <si>
+    <t>No complaints</t>
+  </si>
+  <si>
+    <t>Recently renovated. Close to the airport, shuttle service is okay, fairly efficient. The hotel is priced appropriately. There is a train right behind the hotel, it transports people to DFW so it isn't a long loud train and it didn't bother me. Wall air conditioning unit took a bit of adjusting, but quiet and worked fine. Room backed on to the elevator but was not noisy at all. Friendly staff. Definitely a good stay for a night with easy airport access. There is no food nearby however, can get some deliveries. The only food within walking distance is a whataburger connected to a gas station convenience store. Internet was decent. MoreShow less</t>
+  </si>
+  <si>
+    <t>Recently renovated. Close to the airport, shuttle service is okay, fairly efficient. The hotel is priced appropriately. There is a train right behind the hotel, it transports people to DFW so it isn't a long loud train and it didn't bother me. Wall air conditioning unit took a bit of adjusting, but quiet and worked fine. Room backed on to the elevator but was not noisy at all. Friendly staff. Definitely a good stay for a night with easy airport access. There is no food nearby however, can get some deliveries. The only food within walking distance is a whataburger connected to a gas station convenience store. Internet was decent. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r238630959-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>238630959</t>
+  </si>
+  <si>
+    <t>11/07/2014</t>
+  </si>
+  <si>
+    <t>Good for flying in or out of DFW</t>
+  </si>
+  <si>
+    <t>We stayed only the one night in order to fly out of DFW the next morning, so I can't say much about all the services. The room was comfortable and clean. Even though the hotel is right next to the airport, the room was quiet, and we had no trouble sleeping. My husband said the breakfast choices were sparse, but I didn't see them. Our only problem was that the shuttle for the airport was at least ten, maybe fifteen, minutes late the next morning.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r230026289-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>230026289</t>
+  </si>
+  <si>
+    <t>09/20/2014</t>
+  </si>
+  <si>
+    <t>Worth the Money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel has been recently remodeled and you can tell.  There is a touch if modern in the rooms, the flat screen TV etc.  Only downside was the hallways lingered of smoke. Maybe a one off event. The rate were we charged was very reasonable. The hotel is VERY close to the airport and there were several shuttles parked out front. </t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r227895796-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>227895796</t>
+  </si>
+  <si>
+    <t>09/09/2014</t>
+  </si>
+  <si>
+    <t>Serves it's purpose</t>
+  </si>
+  <si>
+    <t>I had a 6AM flight out of DFW, and wanted someplace close to spend the night, using my Choice Rewards points. Sleep Inn fit the bill perfectly. There isn't anything fancy here, just a basic, clean room to sleep. Check in was easy, desk staff was friendly and helpful. They have an airport shuttle, but I did not need to use it, so I can't comment on it. I also left before the breakfast started at 6AM.The property itself is obviously somewhat older and a little worn, but not trashy. Just showing a little age (aren't we all!). I'm pretty sure the it's main function is for travelers who are staying a night or two, then leaving. It's great for that. Not a place I would likely stay for weeks, though.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rick P, Manager at Sleep Inn DFW Airport, responded to this reviewResponded September 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2014</t>
+  </si>
+  <si>
+    <t>I had a 6AM flight out of DFW, and wanted someplace close to spend the night, using my Choice Rewards points. Sleep Inn fit the bill perfectly. There isn't anything fancy here, just a basic, clean room to sleep. Check in was easy, desk staff was friendly and helpful. They have an airport shuttle, but I did not need to use it, so I can't comment on it. I also left before the breakfast started at 6AM.The property itself is obviously somewhat older and a little worn, but not trashy. Just showing a little age (aren't we all!). I'm pretty sure the it's main function is for travelers who are staying a night or two, then leaving. It's great for that. Not a place I would likely stay for weeks, though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r221775860-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>221775860</t>
+  </si>
+  <si>
+    <t>08/14/2014</t>
+  </si>
+  <si>
+    <t>modest, adequate</t>
+  </si>
+  <si>
+    <t>Desk staff very nice, property itself is adequate but dark and well worn; rooms themselves are nicer, tho the bathroom is tiny.  The shuttle is hit or miss -- they use a common carrier with about 10 other hotels, and the order of pick-up and drop-off is anybody's guess ... on the return to DFW, we sat outside the lobby of one hotel for 10 minutes waiting (and nobody ever did come out - irritating).  It will get you there, but it could take half an hour or so, on top of the half hour wait for it to come in the first place.  I'd probably choose to pay a few $ more and stay elsewhere with a dedicated shuttle and nicer general atmosphere.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Desk staff very nice, property itself is adequate but dark and well worn; rooms themselves are nicer, tho the bathroom is tiny.  The shuttle is hit or miss -- they use a common carrier with about 10 other hotels, and the order of pick-up and drop-off is anybody's guess ... on the return to DFW, we sat outside the lobby of one hotel for 10 minutes waiting (and nobody ever did come out - irritating).  It will get you there, but it could take half an hour or so, on top of the half hour wait for it to come in the first place.  I'd probably choose to pay a few $ more and stay elsewhere with a dedicated shuttle and nicer general atmosphere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r211006951-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>211006951</t>
+  </si>
+  <si>
+    <t>06/18/2014</t>
+  </si>
+  <si>
+    <t>Layover land</t>
+  </si>
+  <si>
+    <t>Coming into DFW after four flights, I just needed some place to shower and sleep before catching my final flight home.  Shuttle service was fast and the driver was helpful with my several bags of luggage.  Room was clean, bed was comfortable, mission accomplished.  If you like to jog to get over jet-lag, you can go towards the parking area and turn right at the dead end and there is a little quick road that passes through a bit of green.  it was refreshing first thing in the morning after being confined to an airplane for many hours.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r210647244-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>210647244</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>Nice Park and Hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for one night before flying to Korea out of DFW.  Was able to park my car at the hotel for 10 days while away.  The staff was friendly and efficient, room was small but clean and comfortable and included a fridge and microwave.  The breakfast was solid with some hot and cold options.  I did not notice any airport noise during the night.  The airport shuttle is shared with other hotels so not the fastest and was crowded but it did run on schedule.  Keep the hotel number in your cell and when you return, call and ask for specific pick up spot for your terminal - I didn't quite get the specific spot and nearly missed the shuttle.  Not much else close by other than airport parking and hotels is really the only downfall.  Nice stay, would return again of need be.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for one night before flying to Korea out of DFW.  Was able to park my car at the hotel for 10 days while away.  The staff was friendly and efficient, room was small but clean and comfortable and included a fridge and microwave.  The breakfast was solid with some hot and cold options.  I did not notice any airport noise during the night.  The airport shuttle is shared with other hotels so not the fastest and was crowded but it did run on schedule.  Keep the hotel number in your cell and when you return, call and ask for specific pick up spot for your terminal - I didn't quite get the specific spot and nearly missed the shuttle.  Not much else close by other than airport parking and hotels is really the only downfall.  Nice stay, would return again of need be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r206658108-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>206658108</t>
+  </si>
+  <si>
+    <t>05/22/2014</t>
+  </si>
+  <si>
+    <t>Horrible Service and Worse Customers</t>
+  </si>
+  <si>
+    <t>The only reason this review didn't get a terrible rating is because the bed was comfortable and room was clean.  Unfortunately, at the point when I finally was able to go to bed, it was the last thing I cared about.  Checking in was a nightmare with one staff member who kept blowing us off to help anybody else who came to the desk, then couldn't find our reservation and took FOREVER to put us into the system.  Then, there was a very large group of 20 somethings staying the night who were obnoxiously loud, talking in the halls, banging doors, etc.  I wouldn't mind during the day as much and if they weren't old enough to know better, but this was at midnight and these people were all adults.  We had to yell at them twice after asking the front desk to get them to be quiet.  The check out the next morning at 3:30 am (because we had an early flight) also took an unnecessarily long time and the lady could have cared less about our complaints.  I never suggest staying here unless it is a last resort!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>The only reason this review didn't get a terrible rating is because the bed was comfortable and room was clean.  Unfortunately, at the point when I finally was able to go to bed, it was the last thing I cared about.  Checking in was a nightmare with one staff member who kept blowing us off to help anybody else who came to the desk, then couldn't find our reservation and took FOREVER to put us into the system.  Then, there was a very large group of 20 somethings staying the night who were obnoxiously loud, talking in the halls, banging doors, etc.  I wouldn't mind during the day as much and if they weren't old enough to know better, but this was at midnight and these people were all adults.  We had to yell at them twice after asking the front desk to get them to be quiet.  The check out the next morning at 3:30 am (because we had an early flight) also took an unnecessarily long time and the lady could have cared less about our complaints.  I never suggest staying here unless it is a last resort!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r204491693-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>204491693</t>
+  </si>
+  <si>
+    <t>05/07/2014</t>
+  </si>
+  <si>
+    <t>Bait and switch, very unethical</t>
+  </si>
+  <si>
+    <t>Telephone call with front desk quoted one price, I arrived and that person mysteriously was off for night.  Second person verbally confirmed the price but charged $25 more to my credit card.  Having been up over 32 hours, I signed the slip without verifying what was quoted only to get home and find they up the price.  Choice Hotels was horrible and claimed they saw no such price for the amount quoted on their site and would not honor what was quoted.  Never will I stay at any choice hotels again...The hotel is old as heck, second floor looks dirty, it's stink and very gothic.  By the way, I was there less than 6 hours; 12:30-6:00am.  Next time I'll sleep in the airport like the rest of the other smart people.  AC noise was awful and I kept looking for "Jason" to come through the creepy door at any moment.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Telephone call with front desk quoted one price, I arrived and that person mysteriously was off for night.  Second person verbally confirmed the price but charged $25 more to my credit card.  Having been up over 32 hours, I signed the slip without verifying what was quoted only to get home and find they up the price.  Choice Hotels was horrible and claimed they saw no such price for the amount quoted on their site and would not honor what was quoted.  Never will I stay at any choice hotels again...The hotel is old as heck, second floor looks dirty, it's stink and very gothic.  By the way, I was there less than 6 hours; 12:30-6:00am.  Next time I'll sleep in the airport like the rest of the other smart people.  AC noise was awful and I kept looking for "Jason" to come through the creepy door at any moment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r202905892-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>202905892</t>
+  </si>
+  <si>
+    <t>04/26/2014</t>
+  </si>
+  <si>
+    <t>affordable and nice hotel property</t>
+  </si>
+  <si>
+    <t>PROSnicely appointed rooms , seemed clean and newvery nice staff - front desk, breakfast attendant, etc..good rategreat breakfast - hot eggs and meat along with usual choicehotels brand offerings (hot waffles)great rates-very good valuefridge and microwave in roomCONSnot close to anything if you need something - no restaurants, stores, etc..shuttle could take a while since it is far from terminal - if you have a rental car like it did - not horrible.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r200865714-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>200865714</t>
+  </si>
+  <si>
+    <t>04/12/2014</t>
+  </si>
+  <si>
+    <t>Highly Recommend</t>
+  </si>
+  <si>
+    <t>I stayed at the Sleep Inn Plaza Dve for 3 days and found that the staff were very friendly and went out of their way to help me when things didn't go to plan.Robert and Adrian at the front desk were great hosts and made my stay enjoyable.The rooms were very comfortable and clean,the wi fi worked well and shutlle was prompt and friendly.I recommend this hotel for its staff value and location to DFW airport.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r199201810-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>199201810</t>
+  </si>
+  <si>
+    <t>03/29/2014</t>
+  </si>
+  <si>
+    <t>Good place to sleep for a layover at DFW</t>
+  </si>
+  <si>
+    <t>The rooms appear to be newly remodeled and they were very nice with two Queen beds, a refrigerator, microwave and a location close to DFW airport. The shuttle arrived pretty quickly to pick us up but ended up circling about 3 times to pick up others. It was late at night and they ended up overloading the van but we finally made it to the hotel safely. The continental breakfast had all we needed for a quick bite before our flight - cereal, bagels, sweet rolls, instant oatmeal packs, hard boiled eggs, and then a hot scrambled eggs and ham. And COFFEE :) I would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r197983506-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>197983506</t>
+  </si>
+  <si>
+    <t>03/19/2014</t>
+  </si>
+  <si>
+    <t>In town visiting friends</t>
+  </si>
+  <si>
+    <t>Needed a hotel for a night. This is a good hotel, no complaints, although it is a little difficult to find after dark. I was close to the airport runways but we did not experience any noise from the aircraft.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r197440542-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>197440542</t>
+  </si>
+  <si>
+    <t>03/14/2014</t>
+  </si>
+  <si>
+    <t>Reasonable and affordable</t>
+  </si>
+  <si>
+    <t>Stayed a few nights with my family recently.  Pretty reasonable place.  Others comment about the new renovations, but it doesn't look all that newly renovated to me.  It's not bad...it just doesn't look "newly" renovated.  Beds are firm but comfortable.  Pool was closed due to mechanical problem.  Workout room has a treadmill, stationary bike, and elliptical - all of which work, but have some minor issues.  The good - helpful staff, convenient to DFW, affordable, and newer (apparently) decor.Not as good - No bathtub (tough with small kids), small bath area (pocket door to toilet / shower area), breakfast not so hot - even for a freebie hotel breakfast.Overall, we'd return if the price was right and the stay was short, but probably wouldn't seek it out.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed a few nights with my family recently.  Pretty reasonable place.  Others comment about the new renovations, but it doesn't look all that newly renovated to me.  It's not bad...it just doesn't look "newly" renovated.  Beds are firm but comfortable.  Pool was closed due to mechanical problem.  Workout room has a treadmill, stationary bike, and elliptical - all of which work, but have some minor issues.  The good - helpful staff, convenient to DFW, affordable, and newer (apparently) decor.Not as good - No bathtub (tough with small kids), small bath area (pocket door to toilet / shower area), breakfast not so hot - even for a freebie hotel breakfast.Overall, we'd return if the price was right and the stay was short, but probably wouldn't seek it out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r190455097-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>190455097</t>
+  </si>
+  <si>
+    <t>01/10/2014</t>
+  </si>
+  <si>
+    <t>A great deal for a price</t>
+  </si>
+  <si>
+    <t>The hotel was recently renovated, and my room with one king bed was very nice and pleasant. The bed and 5 pillows were exceptionally comfortable, the colors of walls were relaxing, and there were a TV, a microwave oven, a coffee maker, an iron, etc. that any traveler would appreciate. I liked the huge mirror next to the door, too. All the staff (the front, the breakfast room, etc.) were very courteous, helpful, and pleasant. A free shuttle is available to the airport, which takes only several minutes. Breakfast is also free. I paid $45 for one night!</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r185949659-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>185949659</t>
+  </si>
+  <si>
+    <t>11/26/2013</t>
+  </si>
+  <si>
+    <t>Okay for an overnight near the airport</t>
+  </si>
+  <si>
+    <t>The hotel has basic accommodation that includes a mini-fridge, microwave, coffee maker and flat screen TV in the room.  There is only one ice machine located on the first floor by the vending machines.  Sleep quality is pretty good given the proximity to the airport.  The shuttle is a shared shuttle so pick up at the airport can be about a 30 minute wait.  On the return to the airport, you make a reservation so that works out fine.  There are no restaurants nearby but the hotel does have a lot of menus for delivery choices.  Breakfast was quite good with a large variety of hot and cold items.  There wasn't much seating but trays are available to take breakfast back to the room.  The room rate was very, very affordable so that makes this hotel a good choice when flying out of DFW.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>The hotel has basic accommodation that includes a mini-fridge, microwave, coffee maker and flat screen TV in the room.  There is only one ice machine located on the first floor by the vending machines.  Sleep quality is pretty good given the proximity to the airport.  The shuttle is a shared shuttle so pick up at the airport can be about a 30 minute wait.  On the return to the airport, you make a reservation so that works out fine.  There are no restaurants nearby but the hotel does have a lot of menus for delivery choices.  Breakfast was quite good with a large variety of hot and cold items.  There wasn't much seating but trays are available to take breakfast back to the room.  The room rate was very, very affordable so that makes this hotel a good choice when flying out of DFW.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r181542112-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>181542112</t>
+  </si>
+  <si>
+    <t>10/18/2013</t>
+  </si>
+  <si>
+    <t>Great Price, easy access to Dallas with no car</t>
+  </si>
+  <si>
+    <t>I stayed here for I believe four nights. I didn't have a car, but there is a bus that stops in front of the hotel that will take you to a metro train station, which gives extremely easy access to all of Dallas. The cost is $5, and that gives you a pass that is good for the whole day on all the busses and trains.My room was quiet and clean. They have a wonderful breakfast which included (as someone posted a picture of) make your own Texas shaped waffles. There is also an indoor pool and Jacuzzi. My one complaint had to do with the hotel shuttle. I called them to request a shuttle, they said it would be on it's way, waited 30 minutes, called again, they said sorry it's on it's way, waited another 30 minutes, called again. This time I asked if I was missing it or something, they said to look for the "Hotel Connection" van, which I had no idea I was supposed to look for. I thought I should be looking for a sleep inn van.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for I believe four nights. I didn't have a car, but there is a bus that stops in front of the hotel that will take you to a metro train station, which gives extremely easy access to all of Dallas. The cost is $5, and that gives you a pass that is good for the whole day on all the busses and trains.My room was quiet and clean. They have a wonderful breakfast which included (as someone posted a picture of) make your own Texas shaped waffles. There is also an indoor pool and Jacuzzi. My one complaint had to do with the hotel shuttle. I called them to request a shuttle, they said it would be on it's way, waited 30 minutes, called again, they said sorry it's on it's way, waited another 30 minutes, called again. This time I asked if I was missing it or something, they said to look for the "Hotel Connection" van, which I had no idea I was supposed to look for. I thought I should be looking for a sleep inn van.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r177373891-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>177373891</t>
+  </si>
+  <si>
+    <t>09/16/2013</t>
+  </si>
+  <si>
+    <t>Nothing stellar, but will pass</t>
+  </si>
+  <si>
+    <t>I booked a room through the bonus points program and stayed here for one night while traveling from Omaha, NE to Kingston, Jamaica.  The airport shuttle took forever (it stopped at half a dozen other hotels), the room's decor was outdated, and the person working the front desk wasn't overly helpful or welcoming.  Nonetheless, the bed was relatively comfortable, the was room quiet, and I slept soundly through the night.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r176656023-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>176656023</t>
+  </si>
+  <si>
+    <t>09/10/2013</t>
+  </si>
+  <si>
+    <t>Parking can be rough</t>
+  </si>
+  <si>
+    <t>The price was good, and I stayed here on short notice. The parking lot was full! It was strange being early afternoon. I got the impression they had some type of "park and ride" for the airport, I could be wrong though. Otherwise the room was nice, the room had an unusual round shower. Overall a nice place, breakfast was ok too.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r166695559-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>166695559</t>
+  </si>
+  <si>
+    <t>07/07/2013</t>
+  </si>
+  <si>
+    <t>Downgrading from previous review</t>
+  </si>
+  <si>
+    <t>I don't normally go back and update reviews so quickly, but I had an opportunity to stay here a second time over the weekend.
+The bed is still old, but comfortable, and the room, overall still has some wear and tear. It is time they upgraded the TVs though. HD or flat screen aren't a big deal to me, but the one I had constantly had volume issues. It would get too loud then too soft. I know that happens a lot with commercials, but this was just CNN's coverage of the Asiana plane crash, followed by some sports.
+But the main reason for the downgrade to 3 stars is the parking. I had mentioned before it was a tight lot, but this weekend was beyond ridiculous. When I arrived to check in at 4 p.m. There was one spot in the entire lot. Five of the spots were occupied by shuttles. 
+I went to some business and dinner, and there were no spots available and a couple of cars had jumped the curb to park i a lot behind the hotel. I didn't not want to do this so I parked across the street. I noticed as I parked, I wasn't the only one. Another gentleman was walkiing to his car as I was exiting mine. 
+As soon as I saw a shuttle leave I ran to my car to move to the spot. 
+I'm sure the park and...I don't normally go back and update reviews so quickly, but I had an opportunity to stay here a second time over the weekend.The bed is still old, but comfortable, and the room, overall still has some wear and tear. It is time they upgraded the TVs though. HD or flat screen aren't a big deal to me, but the one I had constantly had volume issues. It would get too loud then too soft. I know that happens a lot with commercials, but this was just CNN's coverage of the Asiana plane crash, followed by some sports.But the main reason for the downgrade to 3 stars is the parking. I had mentioned before it was a tight lot, but this weekend was beyond ridiculous. When I arrived to check in at 4 p.m. There was one spot in the entire lot. Five of the spots were occupied by shuttles. I went to some business and dinner, and there were no spots available and a couple of cars had jumped the curb to park i a lot behind the hotel. I didn't not want to do this so I parked across the street. I noticed as I parked, I wasn't the only one. Another gentleman was walkiing to his car as I was exiting mine. As soon as I saw a shuttle leave I ran to my car to move to the spot. I'm sure the park and fly deal is great. I'd use it myself. But with the shuttle using parking spots as well as people parking their cars there and in another city, the already small parking area becomes impossible. The hotel really needs to convert the lot behind the building into more parking. Just 5-10 more spots would be great. It's a shame to have that lot just sit there useless when people need to park and have to drive around that lot anyway looking for a spot. Otherwise, again, the value here is hard to beat. Few frills but a friendly staff and a comfortable room, with one of the best internet connections I've used at a hotel in some time.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Rick P, Manager at Sleep Inn DFW Airport, responded to this reviewResponded July 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2013</t>
+  </si>
+  <si>
+    <t>I don't normally go back and update reviews so quickly, but I had an opportunity to stay here a second time over the weekend.
+The bed is still old, but comfortable, and the room, overall still has some wear and tear. It is time they upgraded the TVs though. HD or flat screen aren't a big deal to me, but the one I had constantly had volume issues. It would get too loud then too soft. I know that happens a lot with commercials, but this was just CNN's coverage of the Asiana plane crash, followed by some sports.
+But the main reason for the downgrade to 3 stars is the parking. I had mentioned before it was a tight lot, but this weekend was beyond ridiculous. When I arrived to check in at 4 p.m. There was one spot in the entire lot. Five of the spots were occupied by shuttles. 
+I went to some business and dinner, and there were no spots available and a couple of cars had jumped the curb to park i a lot behind the hotel. I didn't not want to do this so I parked across the street. I noticed as I parked, I wasn't the only one. Another gentleman was walkiing to his car as I was exiting mine. 
+As soon as I saw a shuttle leave I ran to my car to move to the spot. 
+I'm sure the park and...I don't normally go back and update reviews so quickly, but I had an opportunity to stay here a second time over the weekend.The bed is still old, but comfortable, and the room, overall still has some wear and tear. It is time they upgraded the TVs though. HD or flat screen aren't a big deal to me, but the one I had constantly had volume issues. It would get too loud then too soft. I know that happens a lot with commercials, but this was just CNN's coverage of the Asiana plane crash, followed by some sports.But the main reason for the downgrade to 3 stars is the parking. I had mentioned before it was a tight lot, but this weekend was beyond ridiculous. When I arrived to check in at 4 p.m. There was one spot in the entire lot. Five of the spots were occupied by shuttles. I went to some business and dinner, and there were no spots available and a couple of cars had jumped the curb to park i a lot behind the hotel. I didn't not want to do this so I parked across the street. I noticed as I parked, I wasn't the only one. Another gentleman was walkiing to his car as I was exiting mine. As soon as I saw a shuttle leave I ran to my car to move to the spot. I'm sure the park and fly deal is great. I'd use it myself. But with the shuttle using parking spots as well as people parking their cars there and in another city, the already small parking area becomes impossible. The hotel really needs to convert the lot behind the building into more parking. Just 5-10 more spots would be great. It's a shame to have that lot just sit there useless when people need to park and have to drive around that lot anyway looking for a spot. Otherwise, again, the value here is hard to beat. Few frills but a friendly staff and a comfortable room, with one of the best internet connections I've used at a hotel in some time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r161835388-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>161835388</t>
+  </si>
+  <si>
+    <t>05/25/2013</t>
+  </si>
+  <si>
+    <t>Good for short stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place fit the bill for me. I was coming in from out of town to catch an early 6am flight at DFW. I did not want to spend a lot of money for a few short hours.  They allow me to park my vehicle for the duration of my trip. I don't have to get mixed up in the airport traffic. This perfect for this option.  I am here to rest my head for a few hours. To stay in this hotel for an extended vacation; for me , that would be an absolute no for reasons stated by other reviewers. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r161280680-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>161280680</t>
+  </si>
+  <si>
+    <t>05/20/2013</t>
+  </si>
+  <si>
+    <t>Medicore at best</t>
+  </si>
+  <si>
+    <t>This property is pretty outdated. I can sleep on almost anything (including the floor) and these beds were pretty awful. The price was good but for reasons I guess. Pretty bare bone stay and good if you're only staying one night. The staff was really nice. Not very helpful but defintely friendly. Unless they updated and got new beds, I wouldn't stay at this property again. My back hurt for days afterwards.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r159289619-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>159289619</t>
+  </si>
+  <si>
+    <t>04/30/2013</t>
+  </si>
+  <si>
+    <t>Perfect for your early morning flight</t>
+  </si>
+  <si>
+    <t>I stayed at the Sleep Inn the night before an early flight out of DFW. I was pleasantly surprised considering the very reasonable price. The room was quiet, the bed was good, plenty of pillows.  Lots of lighting and I did not have to play detective trying to figure out how to turn lights on.  Also PLENTY of electrical outlets for charging phones, etc., and the complimentary Wi-Fi worked perfectly. Bathroom and shower were clean. A/C worked great. Complimentary breakfast was very good with an assortment of hot and cold foods plus coffee, juice, yogurt, etc. Waffle maker, too. The hotel offers a park and fly package, but for security purposes I opted to leave my car at "The Parking Spot" which is right across the street. It could not have worked out better for me. The only reason I did not give 5 stars is I noticed some cobwebs on one of the sprinkler heads in the room and also in the corner of the bathroom.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>I stayed at the Sleep Inn the night before an early flight out of DFW. I was pleasantly surprised considering the very reasonable price. The room was quiet, the bed was good, plenty of pillows.  Lots of lighting and I did not have to play detective trying to figure out how to turn lights on.  Also PLENTY of electrical outlets for charging phones, etc., and the complimentary Wi-Fi worked perfectly. Bathroom and shower were clean. A/C worked great. Complimentary breakfast was very good with an assortment of hot and cold foods plus coffee, juice, yogurt, etc. Waffle maker, too. The hotel offers a park and fly package, but for security purposes I opted to leave my car at "The Parking Spot" which is right across the street. It could not have worked out better for me. The only reason I did not give 5 stars is I noticed some cobwebs on one of the sprinkler heads in the room and also in the corner of the bathroom.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r153373691-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>153373691</t>
+  </si>
+  <si>
+    <t>02/28/2013</t>
+  </si>
+  <si>
+    <t>Better rooms available</t>
+  </si>
+  <si>
+    <t>We stayed two nights here.The first night was not a good experience with the room not being fully cleaned, a broken window which we didn't realize was cracked open throughout the night, and the vending machine not working well.The staff was nice when we were checking out and the next night which we had already booked previously we stayed in a different room that was clean and in better shape over all. It was also closer to the pool.The pool was warm and we had fun. The hot tub was hot but too many bubbles formed within minutes.The breakfast was a more than continental and included things like plain eggs. There was a computer in an open area but the internet connection was either super slow or non working.Overall an ok stay but very worn out place.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed two nights here.The first night was not a good experience with the room not being fully cleaned, a broken window which we didn't realize was cracked open throughout the night, and the vending machine not working well.The staff was nice when we were checking out and the next night which we had already booked previously we stayed in a different room that was clean and in better shape over all. It was also closer to the pool.The pool was warm and we had fun. The hot tub was hot but too many bubbles formed within minutes.The breakfast was a more than continental and included things like plain eggs. There was a computer in an open area but the internet connection was either super slow or non working.Overall an ok stay but very worn out place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r149266423-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>149266423</t>
+  </si>
+  <si>
+    <t>01/09/2013</t>
+  </si>
+  <si>
+    <t>Stole my car!</t>
+  </si>
+  <si>
+    <t>I stayed five days on this place. It's simple but clean, the breakfast don't offer nothing besides the basic and during the nights other guests make a scandal (every night they fight, slamming the doors and yelling) and the staff was to shy to interfere. In my last day, somebody brake the driver window of my car and stole what was inside. They said they have security cameras on the parking lot but wasn't responsible for it and worst, didnt give me ANY assistence. So no, I don't recomend this place! For the same money you can find better rooms close to the airport.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r148746695-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>148746695</t>
+  </si>
+  <si>
+    <t>01/03/2013</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>I'm not going to paint a rosy picture and say that this hotel isn't a bit older and doesn't need a few minor repairs and upgrades here and there. In fact, around the toilet area there appeared to be rust and the mattress was old, but comfortable to me. I would like a few more firm pillows. And it does need a bigger parking lot (though luckily I found an empty spot right next to a door...very helpful since my night there the weather didn't get above freezing all day). And the hotel hallways do smell of smoke. And due to construction in the area getting to and out of the hotel area can be tricky (but the hotel has little to do with this). But for under $50 a night, it's hard to beat. You can pay the extra $60 and stay across the street and get a nicer bed, even a flat screen TV and newer carpet. But is all that worth that much money, especially when, in all honesty, most of the differences will be unnoticeable. This is one of the better values I've found.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm not going to paint a rosy picture and say that this hotel isn't a bit older and doesn't need a few minor repairs and upgrades here and there. In fact, around the toilet area there appeared to be rust and the mattress was old, but comfortable to me. I would like a few more firm pillows. And it does need a bigger parking lot (though luckily I found an empty spot right next to a door...very helpful since my night there the weather didn't get above freezing all day). And the hotel hallways do smell of smoke. And due to construction in the area getting to and out of the hotel area can be tricky (but the hotel has little to do with this). But for under $50 a night, it's hard to beat. You can pay the extra $60 and stay across the street and get a nicer bed, even a flat screen TV and newer carpet. But is all that worth that much money, especially when, in all honesty, most of the differences will be unnoticeable. This is one of the better values I've found.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r146452349-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>146452349</t>
+  </si>
+  <si>
+    <t>11/29/2012</t>
+  </si>
+  <si>
+    <t>Stay somewhere else</t>
+  </si>
+  <si>
+    <t>Hate to write bad reviews but this one deserves one. I have stayed at numerous Sleep Inns across the country and this one did not measure up. Check in was quick but clerk did not seem interested. Had to call him back to get the internet code. Carpet does not appear clean (I would not walk on it barefoot). Place is dingy. No microwave nor fridge in room. Pressure in shower was terrible. I hate that as I enjoy a good shower.My sis had to make a copy of her airline reservations and she was charged 25 cents per page. We had also stayed at La Quinta, Holiday Inn during this trip and neither charged for copies. Breakfast was horrible. Coffee was watered down and so was the waffle syrup. The beds were good and they did have an airport shuttle. i am sure you can get a better deal at another hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Hate to write bad reviews but this one deserves one. I have stayed at numerous Sleep Inns across the country and this one did not measure up. Check in was quick but clerk did not seem interested. Had to call him back to get the internet code. Carpet does not appear clean (I would not walk on it barefoot). Place is dingy. No microwave nor fridge in room. Pressure in shower was terrible. I hate that as I enjoy a good shower.My sis had to make a copy of her airline reservations and she was charged 25 cents per page. We had also stayed at La Quinta, Holiday Inn during this trip and neither charged for copies. Breakfast was horrible. Coffee was watered down and so was the waffle syrup. The beds were good and they did have an airport shuttle. i am sure you can get a better deal at another hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r146185777-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>146185777</t>
+  </si>
+  <si>
+    <t>11/25/2012</t>
+  </si>
+  <si>
+    <t>Good Price and Location</t>
+  </si>
+  <si>
+    <t>Great location with free shuttle to airport and cheap airport parking for $6.95 per night but not fence or security.  The parking Spot is just down the street also for $11.95.  Hotel was clean and well kept but staff appeared to be family of owners and not overly helpful.  Did not give off the impression that they wanted to be there.  Called down for a 5am wake up call and the girl answered the phone "what you want"  We then received our wake up call at 5.30am..  Morning check out same un-helpful girl</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r145705338-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>145705338</t>
+  </si>
+  <si>
+    <t>11/18/2012</t>
+  </si>
+  <si>
+    <t>Can't be beat for the money</t>
+  </si>
+  <si>
+    <t>Only complaint was that the hotel shuttle is "shared" by several nearby hotels, so it took about 20 minutes to pick us up from the airport.  Otherwise, a fantastic hotel for the money.  Indoor pool with hot tub, clean rooms, lots of food delivery options for dinner, and an "above average" continental breakfast.  Don't expect a chocolate on your pillow or a butler to bring wine, but for the price, perfect.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r138355809-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>138355809</t>
+  </si>
+  <si>
+    <t>08/25/2012</t>
+  </si>
+  <si>
+    <t>Exceptional Customer Service</t>
+  </si>
+  <si>
+    <t>I would just like to acknowledge the exceptional customer service Sleep Inn representative Vicky Cazares provided while staying here approximately a week.  Any problem which were few we had Vicky cheerfully resolved from refilling the coffee urn at breakfast to helping me access and print my plane boarding pass. She was thoughtful, kind and courteous.  Since she was so helpful I would come back here again when I am in the Dallas area.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r137727191-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>137727191</t>
+  </si>
+  <si>
+    <t>08/20/2012</t>
+  </si>
+  <si>
+    <t>VERY Surprised!  Nice hotel!</t>
+  </si>
+  <si>
+    <t>It was a real last minute decision to stay here before a real early morning flight.  A tornado came through the DFW area and hundreds of flights were cancelled.  I knew there was going to be drama at the airport in the morning as my flight was before 6 AM so I opted to stay closer to the airport to get there early.  I'm a Hilton guy so a Hilton property is usually my # 1 choice, but due to the number of flights being cancelled everything was sold out.  I opted for the Sleep Inn.I must say, I was pleasantly surprised.  The room was super clean and the sheets were clean and soft.  I did not care for the amenities as they were low quality and made me itch, but that's minor.  The shower was nice, clean, and had a great pressure (I hate a wimpy shower).  They did offer a free breakfast, but I didn't partake.  I did grab a banana on my way out the door to grab the shuttle.  The driver was on time and really friendly (for such an early hour).  Nice guy!I've stayed at thousands of hotel in over 50 countries, so when I review I don't review lightly.  Over all, if you're looking for a quick stay at an airport location at a GREAT price, I would highly recommend this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>It was a real last minute decision to stay here before a real early morning flight.  A tornado came through the DFW area and hundreds of flights were cancelled.  I knew there was going to be drama at the airport in the morning as my flight was before 6 AM so I opted to stay closer to the airport to get there early.  I'm a Hilton guy so a Hilton property is usually my # 1 choice, but due to the number of flights being cancelled everything was sold out.  I opted for the Sleep Inn.I must say, I was pleasantly surprised.  The room was super clean and the sheets were clean and soft.  I did not care for the amenities as they were low quality and made me itch, but that's minor.  The shower was nice, clean, and had a great pressure (I hate a wimpy shower).  They did offer a free breakfast, but I didn't partake.  I did grab a banana on my way out the door to grab the shuttle.  The driver was on time and really friendly (for such an early hour).  Nice guy!I've stayed at thousands of hotel in over 50 countries, so when I review I don't review lightly.  Over all, if you're looking for a quick stay at an airport location at a GREAT price, I would highly recommend this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r136522517-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>136522517</t>
+  </si>
+  <si>
+    <t>08/07/2012</t>
+  </si>
+  <si>
+    <t>Sleep Inn...Functional</t>
+  </si>
+  <si>
+    <t>Overall the hotel is okay. It was hard to understand the hotel clerk who spoke with a heavy accent,  It is what you would expect from a less than three star hotel.  The lobby area was functional.  The furniture was economical much like that found at budget furniture stores.  The hallway leading to the rooms was somewhat shabby.The furniture on second floor sitting area was torn. The carpeting appeared dirty and the trash cans needed cleaning.  The room was livable.  The carpet inside was frayed.  Bedding needs replacing, had cigarette burns and looked dingy. The bed was somewhat comfortable. Plenty of pillows (not real fluffy, but not flat),  The a/c works well. Free internet a plus. Continental breakfast was skimpy. Televisions could be updated.  There is a washer/dryer on site.MoreShow less</t>
+  </si>
+  <si>
+    <t>Overall the hotel is okay. It was hard to understand the hotel clerk who spoke with a heavy accent,  It is what you would expect from a less than three star hotel.  The lobby area was functional.  The furniture was economical much like that found at budget furniture stores.  The hallway leading to the rooms was somewhat shabby.The furniture on second floor sitting area was torn. The carpeting appeared dirty and the trash cans needed cleaning.  The room was livable.  The carpet inside was frayed.  Bedding needs replacing, had cigarette burns and looked dingy. The bed was somewhat comfortable. Plenty of pillows (not real fluffy, but not flat),  The a/c works well. Free internet a plus. Continental breakfast was skimpy. Televisions could be updated.  There is a washer/dryer on site.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r133068341-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>133068341</t>
+  </si>
+  <si>
+    <t>06/29/2012</t>
+  </si>
+  <si>
+    <t>No Hot Breakfast, Wifi won't work w/ Kindle Fire or my android cellphone</t>
+  </si>
+  <si>
+    <t>Arrived around 5pm.  Room is clean enough and decent for the price.  Within 5 minutes noticed wifi doesn't work on Kindle Fire or Android cell phones -- normal home page redirect would not work.  Front desk staff was clueless -- blamed it on old router, but this is clearly an issue w/ their security setup on wireless as thier network is not using any kind of WEP or WPA encryption.  Front desk couild not offer any help, and the 24-hour wi-fi # in the room just led to voicemail.   We then decided to check out the pool -- it was nice and warm -- the only thing really good so far -- that got the second star.  However, I also noticed on info card that it a continental breakfast is served.  The choicehotels.com website said a hot breakfast was included, which even the PC in the lobby confirmed on its default home page.  The staff couldn't do anymore than tell me to call Choice corporate for their "false advertising".  If you want a hot breakfast or wi-fi on non-Windows devices then stay elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Arrived around 5pm.  Room is clean enough and decent for the price.  Within 5 minutes noticed wifi doesn't work on Kindle Fire or Android cell phones -- normal home page redirect would not work.  Front desk staff was clueless -- blamed it on old router, but this is clearly an issue w/ their security setup on wireless as thier network is not using any kind of WEP or WPA encryption.  Front desk couild not offer any help, and the 24-hour wi-fi # in the room just led to voicemail.   We then decided to check out the pool -- it was nice and warm -- the only thing really good so far -- that got the second star.  However, I also noticed on info card that it a continental breakfast is served.  The choicehotels.com website said a hot breakfast was included, which even the PC in the lobby confirmed on its default home page.  The staff couldn't do anymore than tell me to call Choice corporate for their "false advertising".  If you want a hot breakfast or wi-fi on non-Windows devices then stay elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r132748767-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>132748767</t>
+  </si>
+  <si>
+    <t>06/25/2012</t>
+  </si>
+  <si>
+    <t>Not Happy!</t>
+  </si>
+  <si>
+    <t>The staff of this hotel fail to follow simple requests which caused me to miss my flight and they fail to even give a decent apology !This is a very active hotel for younger families so if you expect quiet and sleep choose a different hotel!The staff will not give wake-up calls that they promise so do not miss a $400 flight because of them like I did!The rooms are not real clean even for a lower grade hotel like this.Make a few calls and stay somewhere else for the same price and have a better experience!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r131938356-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>131938356</t>
+  </si>
+  <si>
+    <t>06/13/2012</t>
+  </si>
+  <si>
+    <t>What a nice stay</t>
+  </si>
+  <si>
+    <t>sounds trite, but this time it's true.  There are lots of hotels in DFW area, but the convention I was attending was at a pricier chain.  Vicky at the front desk was friendly, helpful &amp; knew the area so getting around was easy when the GPS died!  I really liked the 'room service' full line italian restaurant service not just some chain pizza joint &amp; having a fridge &amp; micro worked great for left-overs.  Full workout room, inside pool &amp; hot tub worked the road kinks out &amp; it was spotless, as was our room. I got a great rate booking direct through Sleep Inn's website and rooms were hard to come by with race week &amp; 2 State party conventions that weekend.  The tv was good sized flat screen &amp; lots of thick towels &amp; pillows made dream time easy-it was very quiet even that close to DFW .  I look forward to staying here againMoreShow less</t>
+  </si>
+  <si>
+    <t>sounds trite, but this time it's true.  There are lots of hotels in DFW area, but the convention I was attending was at a pricier chain.  Vicky at the front desk was friendly, helpful &amp; knew the area so getting around was easy when the GPS died!  I really liked the 'room service' full line italian restaurant service not just some chain pizza joint &amp; having a fridge &amp; micro worked great for left-overs.  Full workout room, inside pool &amp; hot tub worked the road kinks out &amp; it was spotless, as was our room. I got a great rate booking direct through Sleep Inn's website and rooms were hard to come by with race week &amp; 2 State party conventions that weekend.  The tv was good sized flat screen &amp; lots of thick towels &amp; pillows made dream time easy-it was very quiet even that close to DFW .  I look forward to staying here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r128183656-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>128183656</t>
+  </si>
+  <si>
+    <t>04/19/2012</t>
+  </si>
+  <si>
+    <t>Great rate</t>
+  </si>
+  <si>
+    <t>Great service for the rate you paid for your stay. Will be back for small trip to catch my flight as they provide excellent shuttle service.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r127711713-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>127711713</t>
+  </si>
+  <si>
+    <t>04/11/2012</t>
+  </si>
+  <si>
+    <t>Good for a stopover between flights</t>
+  </si>
+  <si>
+    <t>I'm surprised by the many negative comments about this property. I assume that the Sleep Inn DFW is focussed on travellers connecting between flights at DFW Airport. SI-DFW fits the bill nicely for this purpose. I arrived very weary after a long flight (from Australia) and only wanted somewhere to stay overnight until my next flight the following morning. The hotel was clean and comfortable and the front desk staff were very pleasant. As noted by others, there are no nearby restaurants, but a multitude of 'room service' menu options is available. There is a also a nearby Burger place if you only want a quick takeout option. The airport shuttle bus was quick and comfortable. Overall, SI-DFW is  probably not the best choice if you want to explore the DFW area, but for a 'between-flights' requirement, it is hard to beat. The room rate was very reasonable.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>I'm surprised by the many negative comments about this property. I assume that the Sleep Inn DFW is focussed on travellers connecting between flights at DFW Airport. SI-DFW fits the bill nicely for this purpose. I arrived very weary after a long flight (from Australia) and only wanted somewhere to stay overnight until my next flight the following morning. The hotel was clean and comfortable and the front desk staff were very pleasant. As noted by others, there are no nearby restaurants, but a multitude of 'room service' menu options is available. There is a also a nearby Burger place if you only want a quick takeout option. The airport shuttle bus was quick and comfortable. Overall, SI-DFW is  probably not the best choice if you want to explore the DFW area, but for a 'between-flights' requirement, it is hard to beat. The room rate was very reasonable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r125665462-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>125665462</t>
+  </si>
+  <si>
+    <t>03/05/2012</t>
+  </si>
+  <si>
+    <t>Bare bones, get what you pay for....</t>
+  </si>
+  <si>
+    <t>Very basic accomodations.  Worth the $49.  The area is surrounded by other motels, no place to eat withing walking distance.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r124783190-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>124783190</t>
+  </si>
+  <si>
+    <t>02/18/2012</t>
+  </si>
+  <si>
+    <t>I have stayed in better..</t>
+  </si>
+  <si>
+    <t>I work for Choice Hotels, and have stayed in MANY of them, I was not impressed by the rooms, although they were ok for what I needed. I had to take linens to the front desk at least 2 times as they were stained and dirty! Breakfast was ok for continental style although had to ask the staff to replentish foods and coffee.I think I would choose to pay a little more next time and stay somewhere else..</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r123914307-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>123914307</t>
+  </si>
+  <si>
+    <t>01/31/2012</t>
+  </si>
+  <si>
+    <t>Not as good as Super 8</t>
+  </si>
+  <si>
+    <t>The hotel was getting a paint job when I overnighting in January 2012 so the smell of fresh paint was the first thing to hit me when I entered. I had overnighted at Super 8 the weekend before and I was very impressed but I decided to try Sleep Inn for my second overnight since the rate was about the same. Here is a summary of the issues I had with Sleep Inn:The shuttle service took much longer than Super 8 even if I called as soon as I got outside the airport.The restaurant (although bigger than Super 8) was in darkness and not as easily accessible as Super 8. I had to fish around in the dark to get some teabags since I couldn't find the light switch. (I checked in at night but still earlier than I had checked in at Super 8)The room and bathroom were much smaller than Super 8 and there was no mini fridge nor microwave.The hotels are all in the same area and within walking distance of each other. The nightly rate is about the same so I would definitely recommend Super 8 over Sleep Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was getting a paint job when I overnighting in January 2012 so the smell of fresh paint was the first thing to hit me when I entered. I had overnighted at Super 8 the weekend before and I was very impressed but I decided to try Sleep Inn for my second overnight since the rate was about the same. Here is a summary of the issues I had with Sleep Inn:The shuttle service took much longer than Super 8 even if I called as soon as I got outside the airport.The restaurant (although bigger than Super 8) was in darkness and not as easily accessible as Super 8. I had to fish around in the dark to get some teabags since I couldn't find the light switch. (I checked in at night but still earlier than I had checked in at Super 8)The room and bathroom were much smaller than Super 8 and there was no mini fridge nor microwave.The hotels are all in the same area and within walking distance of each other. The nightly rate is about the same so I would definitely recommend Super 8 over Sleep Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r123159733-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>123159733</t>
+  </si>
+  <si>
+    <t>01/16/2012</t>
+  </si>
+  <si>
+    <t>Sleeping on the Airport floor would have been better</t>
+  </si>
+  <si>
+    <t>After our flight got canceled, we were in a line with about 50 other people, and just took the first hotel offered to us under the 'distressed passenger' program.  Wow, this was a bad idea.  Wish I would have taken a minute to look it up, but I was misled by the Sleep Inn brand, thinking it would be ok for a few hours of sleep.  After waiting almost an hour for the disgusting shuttle, we finally arrived at this nasty little hotel.  The desk clerk was very frazzled and finally got us set up in a smoking room; gross.  I swore that there were bed bugs b/c I was itching all night; kinda glad I hadn't read other reviews confirming this.  The restroom was clean, so at least I had a good shower to wash off the nasty before heading back to the airport the next morning.  Seriously, I've slept on airport floors a few times, and I wish I would have saved my $60.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>After our flight got canceled, we were in a line with about 50 other people, and just took the first hotel offered to us under the 'distressed passenger' program.  Wow, this was a bad idea.  Wish I would have taken a minute to look it up, but I was misled by the Sleep Inn brand, thinking it would be ok for a few hours of sleep.  After waiting almost an hour for the disgusting shuttle, we finally arrived at this nasty little hotel.  The desk clerk was very frazzled and finally got us set up in a smoking room; gross.  I swore that there were bed bugs b/c I was itching all night; kinda glad I hadn't read other reviews confirming this.  The restroom was clean, so at least I had a good shower to wash off the nasty before heading back to the airport the next morning.  Seriously, I've slept on airport floors a few times, and I wish I would have saved my $60.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r118869972-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>118869972</t>
+  </si>
+  <si>
+    <t>10/02/2011</t>
+  </si>
+  <si>
+    <t>Super close and convenient to DFW</t>
+  </si>
+  <si>
+    <t>We needed a place to crash with a free shuttle for an overnight connection to Mexico from Chicago and this place fit the bill nicely.  Price was good, clean room, efficient staff. That's all we need when we're only going to be there for about 8-10 hours.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r117936766-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>117936766</t>
+  </si>
+  <si>
+    <t>09/11/2011</t>
+  </si>
+  <si>
+    <t>Best location in DFW North</t>
+  </si>
+  <si>
+    <t>This nice hotel has the best location to DFW. You are 10 minutes from car rental facilities and free shuttle to the airport.  Also you are near many good shopping malls and best location if you are travelling to north of Texas and Oklahoma.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r117553047-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>117553047</t>
+  </si>
+  <si>
+    <t>09/01/2011</t>
+  </si>
+  <si>
+    <t>Dreary</t>
+  </si>
+  <si>
+    <t>I usually stay at Comfort Suites (where I have NEVER been disappointed) but this time decided to stay at a nearby Sleep Inn because the price was less and they still advertised free internet &amp; continental breakfast. This place was so depressing! I was willing to overlook the tiny spider crawling on the desk as I arrived. The ant crawling on the toilet gave me pause. But then there was the bed that looked less than perfectly made (leaving the impression that it had been pre-used)... and the dull musty feel in the air of the whole building... and the dull, stagnant looking indoor pool/sauna that caused me to re-think my plans for a swim.  And the reception - apparently a family has been hired to sit around listlessly. Never a smile or greeting - just the distinct impression that none of them wanted to be there.  First time in a long while I was genuinely glad to check out. You get what you pay for, I suppose, but for this kind of experience I could have gone to a Super 8!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>I usually stay at Comfort Suites (where I have NEVER been disappointed) but this time decided to stay at a nearby Sleep Inn because the price was less and they still advertised free internet &amp; continental breakfast. This place was so depressing! I was willing to overlook the tiny spider crawling on the desk as I arrived. The ant crawling on the toilet gave me pause. But then there was the bed that looked less than perfectly made (leaving the impression that it had been pre-used)... and the dull musty feel in the air of the whole building... and the dull, stagnant looking indoor pool/sauna that caused me to re-think my plans for a swim.  And the reception - apparently a family has been hired to sit around listlessly. Never a smile or greeting - just the distinct impression that none of them wanted to be there.  First time in a long while I was genuinely glad to check out. You get what you pay for, I suppose, but for this kind of experience I could have gone to a Super 8!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r116405251-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>116405251</t>
+  </si>
+  <si>
+    <t>08/07/2011</t>
+  </si>
+  <si>
+    <t>"Distressed traveller" stayover</t>
+  </si>
+  <si>
+    <t>We missed our connection at the DFW airport and had a choice to spend the night at the airport or in one of the local hotels. This was the cheapest one and the cost was further reduced by a coupon from the airline due to circumstances. No complaints: free shuttle, close to the airport, internet is free, room clean and bed comfortable, indoor swimming pool available,  and ,of course, the "complimentary" breakfast. Well, you would not have any choices, -there are no breakfast places or freestanding restaurants nearby, except for a Whataburger (8 min walk). The person at the desk was acommodating and helpful. So, if you are stuck at the airport, staying here certainly beats sleeping at the airport and is financially reasonable.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>We missed our connection at the DFW airport and had a choice to spend the night at the airport or in one of the local hotels. This was the cheapest one and the cost was further reduced by a coupon from the airline due to circumstances. No complaints: free shuttle, close to the airport, internet is free, room clean and bed comfortable, indoor swimming pool available,  and ,of course, the "complimentary" breakfast. Well, you would not have any choices, -there are no breakfast places or freestanding restaurants nearby, except for a Whataburger (8 min walk). The person at the desk was acommodating and helpful. So, if you are stuck at the airport, staying here certainly beats sleeping at the airport and is financially reasonable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r114790319-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>114790319</t>
+  </si>
+  <si>
+    <t>06/27/2011</t>
+  </si>
+  <si>
+    <t>No Free Parking!</t>
+  </si>
+  <si>
+    <t>I really had no other problem with this place except that the "free parking" perk was misleading.  The only night that was free was the first one.  I had to pay $3.00 for the other nights.  It's still cheaper than the parking lots surrounding the airport but I should have been told when I called and asked about the free parking.I wouldn't spend my vacation in this hotel but it's a good place to spend while waiting for a flight.  The shuttle was great, on time, and drove us right up to the gate.  When I called on the way back, it was there by the time I got down to the street level.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>I really had no other problem with this place except that the "free parking" perk was misleading.  The only night that was free was the first one.  I had to pay $3.00 for the other nights.  It's still cheaper than the parking lots surrounding the airport but I should have been told when I called and asked about the free parking.I wouldn't spend my vacation in this hotel but it's a good place to spend while waiting for a flight.  The shuttle was great, on time, and drove us right up to the gate.  When I called on the way back, it was there by the time I got down to the street level.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r110030966-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>110030966</t>
+  </si>
+  <si>
+    <t>05/26/2011</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here twice - one at the beginning of a vacation and once at the end.  Both times were very satisfactory and we felt that we'd gotten a good bargain.  The rooms were clean and the front end staff were particularly helpful (Chris and Ashton).  They both went out of their way to give us useful advice - when to schedule the airport van, which take out restaurants were good, etc..  We were very satisfied.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r97331501-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>97331501</t>
+  </si>
+  <si>
+    <t>02/20/2011</t>
+  </si>
+  <si>
+    <t>Quiet well-maintained airport hotel with shuttle</t>
+  </si>
+  <si>
+    <t>We have stayed here three times in the past two years.  All we want from an airport hotel is a clean, quiet place to stay with a reliable shuttle,  and this place consistently delivers both, with a good complementary breakfast as well.The shuttle does not run between midnight and 4 am.  Other than that, we found that we could depend on it.</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r70845880-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>70845880</t>
+  </si>
+  <si>
+    <t>07/13/2010</t>
+  </si>
+  <si>
+    <t>I like the property</t>
+  </si>
+  <si>
+    <t>For the price you get basically the same thing they charge more for at the other more well known chains.  I found the service and room okay with a clean room and fresh linens.  Okay maybe it's nothing fancy and a little run down, but it's certainly worth the money.  Has good wi-fi (free) and a breakfast just like the other hotels.  Very functional if one is not overly fussy.  Oh, and it's a lot quieter than the motel 6 across the street.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r48090971-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>48090971</t>
+  </si>
+  <si>
+    <t>10/29/2009</t>
+  </si>
+  <si>
+    <t>Stuck in Dallas overnight, but thanks to Sleep Inn, not so bad</t>
+  </si>
+  <si>
+    <t>I used my mobile phone to check kayak.com for local hotel rates.  First, I called the Comfort Inn and the guy at the desk refused to match any of the rates I saw online, even the ones that didn't indicate internet-only.  I hung up and called the Sleep Inn.  They happily matched the rate online and sent a speedy shuttle to pick us up.  The shuttle driver was kind enough to go through a drive through for us since we hadn't eaten all day.  Check-in was quick.  Room was clean.  Wake up call right on time.  Good continental breakfast spread.  What more can you want when you're forced to find a place to stay the night at midnight?MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>I used my mobile phone to check kayak.com for local hotel rates.  First, I called the Comfort Inn and the guy at the desk refused to match any of the rates I saw online, even the ones that didn't indicate internet-only.  I hung up and called the Sleep Inn.  They happily matched the rate online and sent a speedy shuttle to pick us up.  The shuttle driver was kind enough to go through a drive through for us since we hadn't eaten all day.  Check-in was quick.  Room was clean.  Wake up call right on time.  Good continental breakfast spread.  What more can you want when you're forced to find a place to stay the night at midnight?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r11102846-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>11102846</t>
+  </si>
+  <si>
+    <t>11/27/2007</t>
+  </si>
+  <si>
+    <t>Usually Sleep Inns are clean and good value. This one you should certainly pass. Carpet filthy, mold in the room, bedding awful, sheets, pillows, towels all thin and worn out.Light bulbs out, doors need adjusting, we ran out of hot water. I enjoyed the waffles, but I'll get them somewhere else. Another "Patel" hotel but this Patel needs to straighten up or get out of the lodging biz.</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r8097190-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>8097190</t>
+  </si>
+  <si>
+    <t>07/09/2007</t>
+  </si>
+  <si>
+    <t>Clean but remote-- do you have a car?</t>
+  </si>
+  <si>
+    <t>The hotel was fine-- good size, clean, loved the shuttle.But if you arrive, as I did, without a car, be aware-- there is no restaurant nearby.  I had to walk on a busy overpass to get to an unpleasant Denny's for dinner.  The Westin and Holiday Inn (across the overpass) both have restaurants. Just be aware that you need a car if youstay here, or a willingness to walk aways in the Texas sun.That said, the Holiday Inn has a very nice happy hour!  Free food!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r7987775-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>7987775</t>
+  </si>
+  <si>
+    <t>06/24/2007</t>
+  </si>
+  <si>
+    <t>Mildew!!!</t>
+  </si>
+  <si>
+    <t>Room 129, which the hotel clerk announced as we were handed our keys, reeked of mildew upon entrance.  Whatever Febreeze product they used couldn't cover it up.  We had just come from friends fighting a similar situation and recognized it immediately.  No other room was available, and we needed to sleep immediately, so we covered our faces with the sheets and blasted the air conditioner for our 6 hours of sleep/layover.  The smell was still there in the morning when I pulled the sheet from my face.Also, the airport COURTESY VAN signs really are problematic at the airport.  They are at extreme ends of the terminals--we couldn't see them from the baggage claim area.  It'd help if the desk clerk had been more specific rather than speaking in generalities.  I doubt that they've been to the airport or know the set-up.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>Room 129, which the hotel clerk announced as we were handed our keys, reeked of mildew upon entrance.  Whatever Febreeze product they used couldn't cover it up.  We had just come from friends fighting a similar situation and recognized it immediately.  No other room was available, and we needed to sleep immediately, so we covered our faces with the sheets and blasted the air conditioner for our 6 hours of sleep/layover.  The smell was still there in the morning when I pulled the sheet from my face.Also, the airport COURTESY VAN signs really are problematic at the airport.  They are at extreme ends of the terminals--we couldn't see them from the baggage claim area.  It'd help if the desk clerk had been more specific rather than speaking in generalities.  I doubt that they've been to the airport or know the set-up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r3278443-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>3278443</t>
+  </si>
+  <si>
+    <t>03/15/2005</t>
+  </si>
+  <si>
+    <t>Not a bad place to lay your head</t>
+  </si>
+  <si>
+    <t>We recently stayed here and had no problems with it at all. The rooms are clean and spacious. It is very close to DFW. The 24 hour shuttle was very convenient. They have great park and fly rates. The service was fine. Can't really expect much from a budget chain hotel, so there shouldn't be much to complain about. Would recommend it if you just want a place to sleep, which is usually the case if you are staying close to DFW.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r2842278-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>2842278</t>
+  </si>
+  <si>
+    <t>11/22/2004</t>
+  </si>
+  <si>
+    <t>Unprofessional</t>
+  </si>
+  <si>
+    <t>I travel at least one week per month.  Upon arriving, Matthew at the front desk was dressed in plain clothes, doing homework.  No name tag, his shirt looked like he had slept in it, he looked as if he had walked in off the street and went to work, unprofessional.  I had to wait on him to finish the portion of his homework before checking in.  The room wasn't deodorized and smelled of smoke.  For one night it was OK, the park-and-fly rate was good; however, I wouldn't stay here again.  I don't ask for much from a Choice brand motel/hotel; however, I do expect the staff to be professionally dressed and paying attention to their job duties and not their classroom duties.MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel at least one week per month.  Upon arriving, Matthew at the front desk was dressed in plain clothes, doing homework.  No name tag, his shirt looked like he had slept in it, he looked as if he had walked in off the street and went to work, unprofessional.  I had to wait on him to finish the portion of his homework before checking in.  The room wasn't deodorized and smelled of smoke.  For one night it was OK, the park-and-fly rate was good; however, I wouldn't stay here again.  I don't ask for much from a Choice brand motel/hotel; however, I do expect the staff to be professionally dressed and paying attention to their job duties and not their classroom duties.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r2575257-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>2575257</t>
+  </si>
+  <si>
+    <t>09/14/2004</t>
+  </si>
+  <si>
+    <t>What a Gem!</t>
+  </si>
+  <si>
+    <t>Superb value! Although this is a budget hotel, the experience here is first-class. To start, this hotel is located just outside DFW airport within a quiet, 3-year-old hotel park with properties ranging from a full-service Marriott to a Motel 6, with everything else in-between. As a single female, I felt quite safe in this area. The rooms are well-designed, spotlessly clean, and well-equipped (hair dryer, coffee maker, iron &amp; ironing board, etc.) I particularly like the free Internet access, with a choice of wireless or dataport access. There is a lovely indoor pool, as well as an exercise room with stair master, treadmill, exercycle and TV. Additionally, there's free airport shuttle service and complimentary continental breakfast. Raj Patel, the general manager, is very accommodating and pleasant. Hard to believe you get all this for such a good price. The only amenity it lacks is an on-site restaurant; but there are several delivery options available for dining if one does not have a car. With this one exception, this hotel provides all the essential comforts of a full-service hotel at a much lower rate. I love this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>Superb value! Although this is a budget hotel, the experience here is first-class. To start, this hotel is located just outside DFW airport within a quiet, 3-year-old hotel park with properties ranging from a full-service Marriott to a Motel 6, with everything else in-between. As a single female, I felt quite safe in this area. The rooms are well-designed, spotlessly clean, and well-equipped (hair dryer, coffee maker, iron &amp; ironing board, etc.) I particularly like the free Internet access, with a choice of wireless or dataport access. There is a lovely indoor pool, as well as an exercise room with stair master, treadmill, exercycle and TV. Additionally, there's free airport shuttle service and complimentary continental breakfast. Raj Patel, the general manager, is very accommodating and pleasant. Hard to believe you get all this for such a good price. The only amenity it lacks is an on-site restaurant; but there are several delivery options available for dining if one does not have a car. With this one exception, this hotel provides all the essential comforts of a full-service hotel at a much lower rate. I love this place!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2879,7510 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>117</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>128</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>117</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" t="s">
+        <v>117</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>153</v>
+      </c>
+      <c r="O17" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>154</v>
+      </c>
+      <c r="X17" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>153</v>
+      </c>
+      <c r="O18" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>153</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>167</v>
+      </c>
+      <c r="X19" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>146</v>
+      </c>
+      <c r="O20" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s">
+        <v>179</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>146</v>
+      </c>
+      <c r="O21" t="s">
+        <v>117</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" t="s">
+        <v>182</v>
+      </c>
+      <c r="K22" t="s">
+        <v>183</v>
+      </c>
+      <c r="L22" t="s">
+        <v>184</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>146</v>
+      </c>
+      <c r="O22" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L23" t="s">
+        <v>189</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>190</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>192</v>
+      </c>
+      <c r="J24" t="s">
+        <v>193</v>
+      </c>
+      <c r="K24" t="s">
+        <v>194</v>
+      </c>
+      <c r="L24" t="s">
+        <v>195</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>196</v>
+      </c>
+      <c r="O24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>197</v>
+      </c>
+      <c r="X24" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s">
+        <v>204</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>205</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J26" t="s">
+        <v>208</v>
+      </c>
+      <c r="K26" t="s">
+        <v>209</v>
+      </c>
+      <c r="L26" t="s">
+        <v>210</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>205</v>
+      </c>
+      <c r="O26" t="s">
+        <v>86</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>212</v>
+      </c>
+      <c r="J27" t="s">
+        <v>213</v>
+      </c>
+      <c r="K27" t="s">
+        <v>214</v>
+      </c>
+      <c r="L27" t="s">
+        <v>215</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>205</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>217</v>
+      </c>
+      <c r="J28" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" t="s">
+        <v>219</v>
+      </c>
+      <c r="L28" t="s">
+        <v>220</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>205</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" t="s">
+        <v>225</v>
+      </c>
+      <c r="L29" t="s">
+        <v>226</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>227</v>
+      </c>
+      <c r="O29" t="s">
+        <v>228</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>230</v>
+      </c>
+      <c r="J30" t="s">
+        <v>231</v>
+      </c>
+      <c r="K30" t="s">
+        <v>232</v>
+      </c>
+      <c r="L30" t="s">
+        <v>233</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>227</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>236</v>
+      </c>
+      <c r="J31" t="s">
+        <v>237</v>
+      </c>
+      <c r="K31" t="s">
+        <v>238</v>
+      </c>
+      <c r="L31" t="s">
+        <v>239</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>240</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>243</v>
+      </c>
+      <c r="J32" t="s">
+        <v>244</v>
+      </c>
+      <c r="K32" t="s">
+        <v>245</v>
+      </c>
+      <c r="L32" t="s">
+        <v>246</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>247</v>
+      </c>
+      <c r="O32" t="s">
+        <v>71</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>249</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>250</v>
+      </c>
+      <c r="J33" t="s">
+        <v>251</v>
+      </c>
+      <c r="K33" t="s">
+        <v>252</v>
+      </c>
+      <c r="L33" t="s">
+        <v>253</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>247</v>
+      </c>
+      <c r="O33" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>254</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>255</v>
+      </c>
+      <c r="J34" t="s">
+        <v>251</v>
+      </c>
+      <c r="K34" t="s">
+        <v>256</v>
+      </c>
+      <c r="L34" t="s">
+        <v>257</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>258</v>
+      </c>
+      <c r="O34" t="s">
+        <v>117</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>260</v>
+      </c>
+      <c r="J35" t="s">
+        <v>261</v>
+      </c>
+      <c r="K35" t="s">
+        <v>262</v>
+      </c>
+      <c r="L35" t="s">
+        <v>263</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>258</v>
+      </c>
+      <c r="O35" t="s">
+        <v>117</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>265</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>266</v>
+      </c>
+      <c r="J36" t="s">
+        <v>267</v>
+      </c>
+      <c r="K36" t="s">
+        <v>268</v>
+      </c>
+      <c r="L36" t="s">
+        <v>269</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>270</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>271</v>
+      </c>
+      <c r="J37" t="s">
+        <v>272</v>
+      </c>
+      <c r="K37" t="s">
+        <v>273</v>
+      </c>
+      <c r="L37" t="s">
+        <v>274</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>258</v>
+      </c>
+      <c r="O37" t="s">
+        <v>71</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>275</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>276</v>
+      </c>
+      <c r="J38" t="s">
+        <v>277</v>
+      </c>
+      <c r="K38" t="s">
+        <v>278</v>
+      </c>
+      <c r="L38" t="s">
+        <v>279</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>280</v>
+      </c>
+      <c r="O38" t="s">
+        <v>86</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>281</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>282</v>
+      </c>
+      <c r="J39" t="s">
+        <v>283</v>
+      </c>
+      <c r="K39" t="s">
+        <v>284</v>
+      </c>
+      <c r="L39" t="s">
+        <v>285</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>280</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>288</v>
+      </c>
+      <c r="J40" t="s">
+        <v>289</v>
+      </c>
+      <c r="K40" t="s">
+        <v>290</v>
+      </c>
+      <c r="L40" t="s">
+        <v>291</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>280</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>292</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>293</v>
+      </c>
+      <c r="J41" t="s">
+        <v>294</v>
+      </c>
+      <c r="K41" t="s">
+        <v>295</v>
+      </c>
+      <c r="L41" t="s">
+        <v>296</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>297</v>
+      </c>
+      <c r="O41" t="s">
+        <v>117</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>298</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>299</v>
+      </c>
+      <c r="J42" t="s">
+        <v>300</v>
+      </c>
+      <c r="K42" t="s">
+        <v>301</v>
+      </c>
+      <c r="L42" t="s">
+        <v>302</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>297</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>304</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>305</v>
+      </c>
+      <c r="J43" t="s">
+        <v>306</v>
+      </c>
+      <c r="K43" t="s">
+        <v>307</v>
+      </c>
+      <c r="L43" t="s">
+        <v>308</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>297</v>
+      </c>
+      <c r="O43" t="s">
+        <v>86</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>310</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>311</v>
+      </c>
+      <c r="J44" t="s">
+        <v>312</v>
+      </c>
+      <c r="K44" t="s">
+        <v>313</v>
+      </c>
+      <c r="L44" t="s">
+        <v>314</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>315</v>
+      </c>
+      <c r="O44" t="s">
+        <v>117</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>317</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>318</v>
+      </c>
+      <c r="J45" t="s">
+        <v>319</v>
+      </c>
+      <c r="K45" t="s">
+        <v>320</v>
+      </c>
+      <c r="L45" t="s">
+        <v>321</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>315</v>
+      </c>
+      <c r="O45" t="s">
+        <v>71</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>322</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>323</v>
+      </c>
+      <c r="J46" t="s">
+        <v>324</v>
+      </c>
+      <c r="K46" t="s">
+        <v>325</v>
+      </c>
+      <c r="L46" t="s">
+        <v>326</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>315</v>
+      </c>
+      <c r="O46" t="s">
+        <v>86</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>328</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>329</v>
+      </c>
+      <c r="J47" t="s">
+        <v>330</v>
+      </c>
+      <c r="K47" t="s">
+        <v>331</v>
+      </c>
+      <c r="L47" t="s">
+        <v>332</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>333</v>
+      </c>
+      <c r="O47" t="s">
+        <v>117</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>335</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>336</v>
+      </c>
+      <c r="J48" t="s">
+        <v>337</v>
+      </c>
+      <c r="K48" t="s">
+        <v>338</v>
+      </c>
+      <c r="L48" t="s">
+        <v>339</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>333</v>
+      </c>
+      <c r="O48" t="s">
+        <v>117</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>340</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>341</v>
+      </c>
+      <c r="J49" t="s">
+        <v>342</v>
+      </c>
+      <c r="K49" t="s">
+        <v>343</v>
+      </c>
+      <c r="L49" t="s">
+        <v>344</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>345</v>
+      </c>
+      <c r="O49" t="s">
+        <v>228</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>346</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>347</v>
+      </c>
+      <c r="J50" t="s">
+        <v>348</v>
+      </c>
+      <c r="K50" t="s">
+        <v>349</v>
+      </c>
+      <c r="L50" t="s">
+        <v>350</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>351</v>
+      </c>
+      <c r="O50" t="s">
+        <v>117</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>352</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>353</v>
+      </c>
+      <c r="J51" t="s">
+        <v>354</v>
+      </c>
+      <c r="K51" t="s">
+        <v>355</v>
+      </c>
+      <c r="L51" t="s">
+        <v>356</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>351</v>
+      </c>
+      <c r="O51" t="s">
+        <v>71</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>357</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>358</v>
+      </c>
+      <c r="J52" t="s">
+        <v>359</v>
+      </c>
+      <c r="K52" t="s">
+        <v>360</v>
+      </c>
+      <c r="L52" t="s">
+        <v>361</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>351</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>363</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>364</v>
+      </c>
+      <c r="J53" t="s">
+        <v>365</v>
+      </c>
+      <c r="K53" t="s">
+        <v>366</v>
+      </c>
+      <c r="L53" t="s">
+        <v>367</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>368</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>369</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>370</v>
+      </c>
+      <c r="J54" t="s">
+        <v>371</v>
+      </c>
+      <c r="K54" t="s">
+        <v>372</v>
+      </c>
+      <c r="L54" t="s">
+        <v>373</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>374</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>376</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>377</v>
+      </c>
+      <c r="J55" t="s">
+        <v>378</v>
+      </c>
+      <c r="K55" t="s">
+        <v>379</v>
+      </c>
+      <c r="L55" t="s">
+        <v>380</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>374</v>
+      </c>
+      <c r="O55" t="s">
+        <v>117</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>381</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>382</v>
+      </c>
+      <c r="J56" t="s">
+        <v>383</v>
+      </c>
+      <c r="K56" t="s">
+        <v>384</v>
+      </c>
+      <c r="L56" t="s">
+        <v>385</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>386</v>
+      </c>
+      <c r="O56" t="s">
+        <v>71</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>387</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>388</v>
+      </c>
+      <c r="J57" t="s">
+        <v>389</v>
+      </c>
+      <c r="K57" t="s">
+        <v>390</v>
+      </c>
+      <c r="L57" t="s">
+        <v>391</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>386</v>
+      </c>
+      <c r="O57" t="s">
+        <v>71</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>392</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>393</v>
+      </c>
+      <c r="J58" t="s">
+        <v>394</v>
+      </c>
+      <c r="K58" t="s">
+        <v>395</v>
+      </c>
+      <c r="L58" t="s">
+        <v>396</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>386</v>
+      </c>
+      <c r="O58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>397</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>398</v>
+      </c>
+      <c r="J59" t="s">
+        <v>399</v>
+      </c>
+      <c r="K59" t="s">
+        <v>400</v>
+      </c>
+      <c r="L59" t="s">
+        <v>401</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>368</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>403</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>404</v>
+      </c>
+      <c r="J60" t="s">
+        <v>405</v>
+      </c>
+      <c r="K60" t="s">
+        <v>406</v>
+      </c>
+      <c r="L60" t="s">
+        <v>407</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>368</v>
+      </c>
+      <c r="O60" t="s">
+        <v>117</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>408</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>409</v>
+      </c>
+      <c r="J61" t="s">
+        <v>410</v>
+      </c>
+      <c r="K61" t="s">
+        <v>411</v>
+      </c>
+      <c r="L61" t="s">
+        <v>412</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>368</v>
+      </c>
+      <c r="O61" t="s">
+        <v>86</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>414</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>415</v>
+      </c>
+      <c r="J62" t="s">
+        <v>416</v>
+      </c>
+      <c r="K62" t="s">
+        <v>417</v>
+      </c>
+      <c r="L62" t="s">
+        <v>418</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>419</v>
+      </c>
+      <c r="O62" t="s">
+        <v>228</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>420</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>421</v>
+      </c>
+      <c r="J63" t="s">
+        <v>422</v>
+      </c>
+      <c r="K63" t="s">
+        <v>423</v>
+      </c>
+      <c r="L63" t="s">
+        <v>424</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>425</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>426</v>
+      </c>
+      <c r="J64" t="s">
+        <v>427</v>
+      </c>
+      <c r="K64" t="s">
+        <v>428</v>
+      </c>
+      <c r="L64" t="s">
+        <v>429</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>430</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>431</v>
+      </c>
+      <c r="J65" t="s">
+        <v>432</v>
+      </c>
+      <c r="K65" t="s">
+        <v>433</v>
+      </c>
+      <c r="L65" t="s">
+        <v>434</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>435</v>
+      </c>
+      <c r="O65" t="s">
+        <v>71</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>436</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>437</v>
+      </c>
+      <c r="J66" t="s">
+        <v>438</v>
+      </c>
+      <c r="K66" t="s">
+        <v>439</v>
+      </c>
+      <c r="L66" t="s">
+        <v>440</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>435</v>
+      </c>
+      <c r="O66" t="s">
+        <v>71</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>442</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>443</v>
+      </c>
+      <c r="J67" t="s">
+        <v>444</v>
+      </c>
+      <c r="K67" t="s">
+        <v>445</v>
+      </c>
+      <c r="L67" t="s">
+        <v>446</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>447</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>448</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>449</v>
+      </c>
+      <c r="J68" t="s">
+        <v>450</v>
+      </c>
+      <c r="K68" t="s">
+        <v>451</v>
+      </c>
+      <c r="L68" t="s">
+        <v>452</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>453</v>
+      </c>
+      <c r="O68" t="s">
+        <v>228</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>454</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>455</v>
+      </c>
+      <c r="J69" t="s">
+        <v>456</v>
+      </c>
+      <c r="K69" t="s">
+        <v>457</v>
+      </c>
+      <c r="L69" t="s">
+        <v>458</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>453</v>
+      </c>
+      <c r="O69" t="s">
+        <v>71</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>459</v>
+      </c>
+      <c r="X69" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>462</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>463</v>
+      </c>
+      <c r="J70" t="s">
+        <v>464</v>
+      </c>
+      <c r="K70" t="s">
+        <v>465</v>
+      </c>
+      <c r="L70" t="s">
+        <v>466</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>467</v>
+      </c>
+      <c r="O70" t="s">
+        <v>71</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>469</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>470</v>
+      </c>
+      <c r="J71" t="s">
+        <v>471</v>
+      </c>
+      <c r="K71" t="s">
+        <v>472</v>
+      </c>
+      <c r="L71" t="s">
+        <v>473</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>474</v>
+      </c>
+      <c r="O71" t="s">
+        <v>71</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>475</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>476</v>
+      </c>
+      <c r="J72" t="s">
+        <v>477</v>
+      </c>
+      <c r="K72" t="s">
+        <v>478</v>
+      </c>
+      <c r="L72" t="s">
+        <v>479</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>480</v>
+      </c>
+      <c r="O72" t="s">
+        <v>86</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>482</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>483</v>
+      </c>
+      <c r="J73" t="s">
+        <v>484</v>
+      </c>
+      <c r="K73" t="s">
+        <v>485</v>
+      </c>
+      <c r="L73" t="s">
+        <v>486</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>487</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>489</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>490</v>
+      </c>
+      <c r="J74" t="s">
+        <v>491</v>
+      </c>
+      <c r="K74" t="s">
+        <v>492</v>
+      </c>
+      <c r="L74" t="s">
+        <v>493</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>494</v>
+      </c>
+      <c r="O74" t="s">
+        <v>86</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>496</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>497</v>
+      </c>
+      <c r="J75" t="s">
+        <v>498</v>
+      </c>
+      <c r="K75" t="s">
+        <v>499</v>
+      </c>
+      <c r="L75" t="s">
+        <v>500</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>487</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>501</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>502</v>
+      </c>
+      <c r="J76" t="s">
+        <v>503</v>
+      </c>
+      <c r="K76" t="s">
+        <v>504</v>
+      </c>
+      <c r="L76" t="s">
+        <v>505</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>487</v>
+      </c>
+      <c r="O76" t="s">
+        <v>86</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>506</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>507</v>
+      </c>
+      <c r="J77" t="s">
+        <v>508</v>
+      </c>
+      <c r="K77" t="s">
+        <v>509</v>
+      </c>
+      <c r="L77" t="s">
+        <v>510</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>480</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>511</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>512</v>
+      </c>
+      <c r="J78" t="s">
+        <v>513</v>
+      </c>
+      <c r="K78" t="s">
+        <v>514</v>
+      </c>
+      <c r="L78" t="s">
+        <v>515</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>480</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>516</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>517</v>
+      </c>
+      <c r="J79" t="s">
+        <v>518</v>
+      </c>
+      <c r="K79" t="s">
+        <v>519</v>
+      </c>
+      <c r="L79" t="s">
+        <v>520</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>480</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>522</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>523</v>
+      </c>
+      <c r="J80" t="s">
+        <v>524</v>
+      </c>
+      <c r="K80" t="s">
+        <v>525</v>
+      </c>
+      <c r="L80" t="s">
+        <v>526</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>527</v>
+      </c>
+      <c r="O80" t="s">
+        <v>71</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>528</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>529</v>
+      </c>
+      <c r="J81" t="s">
+        <v>530</v>
+      </c>
+      <c r="K81" t="s">
+        <v>531</v>
+      </c>
+      <c r="L81" t="s">
+        <v>532</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>533</v>
+      </c>
+      <c r="O81" t="s">
+        <v>117</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>535</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>536</v>
+      </c>
+      <c r="J82" t="s">
+        <v>537</v>
+      </c>
+      <c r="K82" t="s">
+        <v>538</v>
+      </c>
+      <c r="L82" t="s">
+        <v>539</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>540</v>
+      </c>
+      <c r="O82" t="s">
+        <v>86</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>542</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>543</v>
+      </c>
+      <c r="J83" t="s">
+        <v>544</v>
+      </c>
+      <c r="K83" t="s">
+        <v>545</v>
+      </c>
+      <c r="L83" t="s">
+        <v>546</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>547</v>
+      </c>
+      <c r="O83" t="s">
+        <v>86</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>548</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>549</v>
+      </c>
+      <c r="J84" t="s">
+        <v>550</v>
+      </c>
+      <c r="K84" t="s">
+        <v>551</v>
+      </c>
+      <c r="L84" t="s">
+        <v>552</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>553</v>
+      </c>
+      <c r="O84" t="s">
+        <v>71</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>554</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>555</v>
+      </c>
+      <c r="J85" t="s">
+        <v>556</v>
+      </c>
+      <c r="K85" t="s">
+        <v>557</v>
+      </c>
+      <c r="L85" t="s">
+        <v>558</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>559</v>
+      </c>
+      <c r="O85" t="s">
+        <v>228</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>560</v>
+      </c>
+      <c r="X85" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>563</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>564</v>
+      </c>
+      <c r="J86" t="s">
+        <v>565</v>
+      </c>
+      <c r="K86" t="s">
+        <v>566</v>
+      </c>
+      <c r="L86" t="s">
+        <v>567</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>568</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>569</v>
+      </c>
+      <c r="J87" t="s">
+        <v>570</v>
+      </c>
+      <c r="K87" t="s">
+        <v>571</v>
+      </c>
+      <c r="L87" t="s">
+        <v>572</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>547</v>
+      </c>
+      <c r="O87" t="s">
+        <v>71</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>573</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>574</v>
+      </c>
+      <c r="J88" t="s">
+        <v>575</v>
+      </c>
+      <c r="K88" t="s">
+        <v>576</v>
+      </c>
+      <c r="L88" t="s">
+        <v>577</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>578</v>
+      </c>
+      <c r="O88" t="s">
+        <v>86</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>580</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>581</v>
+      </c>
+      <c r="J89" t="s">
+        <v>582</v>
+      </c>
+      <c r="K89" t="s">
+        <v>583</v>
+      </c>
+      <c r="L89" t="s">
+        <v>584</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>547</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>2</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>586</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>587</v>
+      </c>
+      <c r="J90" t="s">
+        <v>588</v>
+      </c>
+      <c r="K90" t="s">
+        <v>589</v>
+      </c>
+      <c r="L90" t="s">
+        <v>590</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>591</v>
+      </c>
+      <c r="O90" t="s">
+        <v>86</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>592</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>593</v>
+      </c>
+      <c r="J91" t="s">
+        <v>594</v>
+      </c>
+      <c r="K91" t="s">
+        <v>595</v>
+      </c>
+      <c r="L91" t="s">
+        <v>596</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>591</v>
+      </c>
+      <c r="O91" t="s">
+        <v>228</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>598</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>599</v>
+      </c>
+      <c r="J92" t="s">
+        <v>600</v>
+      </c>
+      <c r="K92" t="s">
+        <v>601</v>
+      </c>
+      <c r="L92" t="s">
+        <v>602</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2</v>
+      </c>
+      <c r="N92" t="s">
+        <v>603</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>2</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>2</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>605</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>606</v>
+      </c>
+      <c r="J93" t="s">
+        <v>607</v>
+      </c>
+      <c r="K93" t="s">
+        <v>608</v>
+      </c>
+      <c r="L93" t="s">
+        <v>609</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="s">
+        <v>603</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>610</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>611</v>
+      </c>
+      <c r="J94" t="s">
+        <v>612</v>
+      </c>
+      <c r="K94" t="s">
+        <v>613</v>
+      </c>
+      <c r="L94" t="s">
+        <v>614</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>603</v>
+      </c>
+      <c r="O94" t="s">
+        <v>117</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>615</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>616</v>
+      </c>
+      <c r="J95" t="s">
+        <v>617</v>
+      </c>
+      <c r="K95" t="s">
+        <v>618</v>
+      </c>
+      <c r="L95" t="s">
+        <v>619</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>620</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>621</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>622</v>
+      </c>
+      <c r="J96" t="s">
+        <v>623</v>
+      </c>
+      <c r="K96" t="s">
+        <v>624</v>
+      </c>
+      <c r="L96" t="s">
+        <v>625</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>626</v>
+      </c>
+      <c r="O96" t="s">
+        <v>71</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>628</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>629</v>
+      </c>
+      <c r="J97" t="s">
+        <v>630</v>
+      </c>
+      <c r="K97" t="s">
+        <v>631</v>
+      </c>
+      <c r="L97" t="s">
+        <v>632</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s">
+        <v>620</v>
+      </c>
+      <c r="O97" t="s">
+        <v>86</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>3</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>3</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>3</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>634</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>635</v>
+      </c>
+      <c r="J98" t="s">
+        <v>636</v>
+      </c>
+      <c r="K98" t="s">
+        <v>637</v>
+      </c>
+      <c r="L98" t="s">
+        <v>638</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" t="s">
+        <v>639</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>2</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>2</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>641</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>642</v>
+      </c>
+      <c r="J99" t="s">
+        <v>643</v>
+      </c>
+      <c r="K99" t="s">
+        <v>644</v>
+      </c>
+      <c r="L99" t="s">
+        <v>645</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" t="s">
+        <v>639</v>
+      </c>
+      <c r="O99" t="s">
+        <v>71</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>3</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>2</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>1</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>646</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>647</v>
+      </c>
+      <c r="J100" t="s">
+        <v>648</v>
+      </c>
+      <c r="K100" t="s">
+        <v>649</v>
+      </c>
+      <c r="L100" t="s">
+        <v>650</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>639</v>
+      </c>
+      <c r="O100" t="s">
+        <v>71</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>652</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>653</v>
+      </c>
+      <c r="J101" t="s">
+        <v>654</v>
+      </c>
+      <c r="K101" t="s">
+        <v>655</v>
+      </c>
+      <c r="L101" t="s">
+        <v>656</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>657</v>
+      </c>
+      <c r="O101" t="s">
+        <v>71</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>3</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>658</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>659</v>
+      </c>
+      <c r="J102" t="s">
+        <v>660</v>
+      </c>
+      <c r="K102" t="s">
+        <v>661</v>
+      </c>
+      <c r="L102" t="s">
+        <v>662</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>663</v>
+      </c>
+      <c r="O102" t="s">
+        <v>86</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>4</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>665</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>666</v>
+      </c>
+      <c r="J103" t="s">
+        <v>667</v>
+      </c>
+      <c r="K103" t="s">
+        <v>668</v>
+      </c>
+      <c r="L103" t="s">
+        <v>669</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
+        <v>663</v>
+      </c>
+      <c r="O103" t="s">
+        <v>86</v>
+      </c>
+      <c r="P103" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" t="n">
+        <v>3</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>3</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>670</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>671</v>
+      </c>
+      <c r="J104" t="s">
+        <v>672</v>
+      </c>
+      <c r="K104" t="s">
+        <v>673</v>
+      </c>
+      <c r="L104" t="s">
+        <v>674</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s">
+        <v>675</v>
+      </c>
+      <c r="O104" t="s">
+        <v>117</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>3</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>3</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>2</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>676</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>677</v>
+      </c>
+      <c r="J105" t="s">
+        <v>678</v>
+      </c>
+      <c r="K105" t="s">
+        <v>679</v>
+      </c>
+      <c r="L105" t="s">
+        <v>680</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="s">
+        <v>657</v>
+      </c>
+      <c r="O105" t="s">
+        <v>86</v>
+      </c>
+      <c r="P105" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>2</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>2</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>682</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>683</v>
+      </c>
+      <c r="J106" t="s">
+        <v>684</v>
+      </c>
+      <c r="K106" t="s">
+        <v>685</v>
+      </c>
+      <c r="L106" t="s">
+        <v>686</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2</v>
+      </c>
+      <c r="N106" t="s">
+        <v>687</v>
+      </c>
+      <c r="O106" t="s">
+        <v>117</v>
+      </c>
+      <c r="P106" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>2</v>
+      </c>
+      <c r="R106" t="n">
+        <v>3</v>
+      </c>
+      <c r="S106" t="n">
+        <v>1</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>2</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>689</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>690</v>
+      </c>
+      <c r="J107" t="s">
+        <v>691</v>
+      </c>
+      <c r="K107" t="s">
+        <v>692</v>
+      </c>
+      <c r="L107" t="s">
+        <v>693</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s">
+        <v>694</v>
+      </c>
+      <c r="O107" t="s">
+        <v>117</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>4</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>4</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>695</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>696</v>
+      </c>
+      <c r="J108" t="s">
+        <v>697</v>
+      </c>
+      <c r="K108" t="s">
+        <v>698</v>
+      </c>
+      <c r="L108" t="s">
+        <v>699</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>700</v>
+      </c>
+      <c r="O108" t="s">
+        <v>71</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="s"/>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>701</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>702</v>
+      </c>
+      <c r="J109" t="s">
+        <v>703</v>
+      </c>
+      <c r="K109" t="s">
+        <v>704</v>
+      </c>
+      <c r="L109" t="s">
+        <v>705</v>
+      </c>
+      <c r="M109" t="n">
+        <v>2</v>
+      </c>
+      <c r="N109" t="s">
+        <v>706</v>
+      </c>
+      <c r="O109" t="s">
+        <v>71</v>
+      </c>
+      <c r="P109" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="n">
+        <v>3</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>1</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>708</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>709</v>
+      </c>
+      <c r="J110" t="s">
+        <v>710</v>
+      </c>
+      <c r="K110" t="s">
+        <v>711</v>
+      </c>
+      <c r="L110" t="s">
+        <v>712</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="s">
+        <v>713</v>
+      </c>
+      <c r="O110" t="s">
+        <v>228</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="s"/>
+      <c r="S110" t="n">
+        <v>4</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>4</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>715</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>716</v>
+      </c>
+      <c r="J111" t="s">
+        <v>717</v>
+      </c>
+      <c r="K111" t="s">
+        <v>718</v>
+      </c>
+      <c r="L111" t="s">
+        <v>719</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4</v>
+      </c>
+      <c r="N111" t="s">
+        <v>720</v>
+      </c>
+      <c r="O111" t="s">
+        <v>228</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="s"/>
+      <c r="R111" t="s"/>
+      <c r="S111" t="n">
+        <v>4</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>4</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>722</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>723</v>
+      </c>
+      <c r="J112" t="s">
+        <v>724</v>
+      </c>
+      <c r="K112" t="s">
+        <v>595</v>
+      </c>
+      <c r="L112" t="s">
+        <v>725</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4</v>
+      </c>
+      <c r="N112" t="s">
+        <v>700</v>
+      </c>
+      <c r="O112" t="s">
+        <v>117</v>
+      </c>
+      <c r="P112" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>3</v>
+      </c>
+      <c r="R112" t="n">
+        <v>5</v>
+      </c>
+      <c r="S112" t="n">
+        <v>4</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>726</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>727</v>
+      </c>
+      <c r="J113" t="s">
+        <v>728</v>
+      </c>
+      <c r="K113" t="s">
+        <v>729</v>
+      </c>
+      <c r="L113" t="s">
+        <v>730</v>
+      </c>
+      <c r="M113" t="n">
+        <v>5</v>
+      </c>
+      <c r="N113" t="s">
+        <v>731</v>
+      </c>
+      <c r="O113" t="s">
+        <v>117</v>
+      </c>
+      <c r="P113" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>5</v>
+      </c>
+      <c r="R113" t="n">
+        <v>5</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="s"/>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>732</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>733</v>
+      </c>
+      <c r="J114" t="s">
+        <v>734</v>
+      </c>
+      <c r="K114" t="s">
+        <v>735</v>
+      </c>
+      <c r="L114" t="s">
+        <v>736</v>
+      </c>
+      <c r="M114" t="n">
+        <v>4</v>
+      </c>
+      <c r="N114" t="s">
+        <v>737</v>
+      </c>
+      <c r="O114" t="s">
+        <v>71</v>
+      </c>
+      <c r="P114" t="s"/>
+      <c r="Q114" t="s"/>
+      <c r="R114" t="s"/>
+      <c r="S114" t="s"/>
+      <c r="T114" t="s"/>
+      <c r="U114" t="s"/>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>738</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>739</v>
+      </c>
+      <c r="J115" t="s">
+        <v>740</v>
+      </c>
+      <c r="K115" t="s">
+        <v>741</v>
+      </c>
+      <c r="L115" t="s">
+        <v>742</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5</v>
+      </c>
+      <c r="N115" t="s">
+        <v>743</v>
+      </c>
+      <c r="O115" t="s">
+        <v>117</v>
+      </c>
+      <c r="P115" t="s"/>
+      <c r="Q115" t="s"/>
+      <c r="R115" t="s"/>
+      <c r="S115" t="s"/>
+      <c r="T115" t="s"/>
+      <c r="U115" t="s"/>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>745</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>746</v>
+      </c>
+      <c r="J116" t="s">
+        <v>747</v>
+      </c>
+      <c r="K116" t="s">
+        <v>232</v>
+      </c>
+      <c r="L116" t="s">
+        <v>748</v>
+      </c>
+      <c r="M116" t="n">
+        <v>2</v>
+      </c>
+      <c r="N116" t="s">
+        <v>749</v>
+      </c>
+      <c r="O116" t="s">
+        <v>117</v>
+      </c>
+      <c r="P116" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>1</v>
+      </c>
+      <c r="R116" t="n">
+        <v>3</v>
+      </c>
+      <c r="S116" t="n">
+        <v>1</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="n">
+        <v>2</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s"/>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>750</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" t="s">
+        <v>751</v>
+      </c>
+      <c r="J117" t="s">
+        <v>752</v>
+      </c>
+      <c r="K117" t="s">
+        <v>753</v>
+      </c>
+      <c r="L117" t="s">
+        <v>754</v>
+      </c>
+      <c r="M117" t="n">
+        <v>3</v>
+      </c>
+      <c r="N117" t="s"/>
+      <c r="O117" t="s"/>
+      <c r="P117" t="s"/>
+      <c r="Q117" t="s"/>
+      <c r="R117" t="s"/>
+      <c r="S117" t="s"/>
+      <c r="T117" t="s"/>
+      <c r="U117" t="s"/>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s"/>
+      <c r="X117" t="s"/>
+      <c r="Y117" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
+      <c r="D118" t="n">
+        <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" t="s">
+        <v>755</v>
+      </c>
+      <c r="G118" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" t="s">
+        <v>756</v>
+      </c>
+      <c r="J118" t="s">
+        <v>757</v>
+      </c>
+      <c r="K118" t="s">
+        <v>758</v>
+      </c>
+      <c r="L118" t="s">
+        <v>759</v>
+      </c>
+      <c r="M118" t="n">
+        <v>2</v>
+      </c>
+      <c r="N118" t="s">
+        <v>760</v>
+      </c>
+      <c r="O118" t="s">
+        <v>53</v>
+      </c>
+      <c r="P118" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>2</v>
+      </c>
+      <c r="R118" t="n">
+        <v>4</v>
+      </c>
+      <c r="S118" t="n">
+        <v>2</v>
+      </c>
+      <c r="T118" t="s"/>
+      <c r="U118" t="n">
+        <v>2</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="s"/>
+      <c r="X118" t="s"/>
+      <c r="Y118" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B119" t="s"/>
+      <c r="C119" t="s"/>
+      <c r="D119" t="n">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" t="s">
+        <v>762</v>
+      </c>
+      <c r="G119" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" t="s">
+        <v>47</v>
+      </c>
+      <c r="I119" t="s">
+        <v>763</v>
+      </c>
+      <c r="J119" t="s">
+        <v>764</v>
+      </c>
+      <c r="K119" t="s">
+        <v>765</v>
+      </c>
+      <c r="L119" t="s">
+        <v>766</v>
+      </c>
+      <c r="M119" t="n">
+        <v>4</v>
+      </c>
+      <c r="N119" t="s"/>
+      <c r="O119" t="s"/>
+      <c r="P119" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>4</v>
+      </c>
+      <c r="R119" t="s"/>
+      <c r="S119" t="n">
+        <v>5</v>
+      </c>
+      <c r="T119" t="s"/>
+      <c r="U119" t="n">
+        <v>4</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="s"/>
+      <c r="X119" t="s"/>
+      <c r="Y119" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B120" t="s"/>
+      <c r="C120" t="s"/>
+      <c r="D120" t="n">
+        <v>119</v>
+      </c>
+      <c r="E120" t="s">
+        <v>44</v>
+      </c>
+      <c r="F120" t="s">
+        <v>767</v>
+      </c>
+      <c r="G120" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" t="s">
+        <v>47</v>
+      </c>
+      <c r="I120" t="s">
+        <v>768</v>
+      </c>
+      <c r="J120" t="s">
+        <v>769</v>
+      </c>
+      <c r="K120" t="s">
+        <v>770</v>
+      </c>
+      <c r="L120" t="s">
+        <v>771</v>
+      </c>
+      <c r="M120" t="n">
+        <v>2</v>
+      </c>
+      <c r="N120" t="s"/>
+      <c r="O120" t="s"/>
+      <c r="P120" t="s"/>
+      <c r="Q120" t="s"/>
+      <c r="R120" t="s"/>
+      <c r="S120" t="s"/>
+      <c r="T120" t="s"/>
+      <c r="U120" t="s"/>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="s"/>
+      <c r="X120" t="s"/>
+      <c r="Y120" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>37757</v>
+      </c>
+      <c r="B121" t="s"/>
+      <c r="C121" t="s"/>
+      <c r="D121" t="n">
+        <v>120</v>
+      </c>
+      <c r="E121" t="s">
+        <v>44</v>
+      </c>
+      <c r="F121" t="s">
+        <v>773</v>
+      </c>
+      <c r="G121" t="s">
+        <v>46</v>
+      </c>
+      <c r="H121" t="s">
+        <v>47</v>
+      </c>
+      <c r="I121" t="s">
+        <v>774</v>
+      </c>
+      <c r="J121" t="s">
+        <v>775</v>
+      </c>
+      <c r="K121" t="s">
+        <v>776</v>
+      </c>
+      <c r="L121" t="s">
+        <v>777</v>
+      </c>
+      <c r="M121" t="n">
+        <v>5</v>
+      </c>
+      <c r="N121" t="s"/>
+      <c r="O121" t="s"/>
+      <c r="P121" t="s"/>
+      <c r="Q121" t="s"/>
+      <c r="R121" t="s"/>
+      <c r="S121" t="s"/>
+      <c r="T121" t="s"/>
+      <c r="U121" t="s"/>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="s"/>
+      <c r="X121" t="s"/>
+      <c r="Y121" t="s">
+        <v>778</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_681.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_681.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="897">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>kghudson</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Stayed here for a 3 night stay because it was cheaper than the Airport Hyatt by $40 / night.  Picked up room key after a 10 minute wait at the front desk and opened my room door and there was a horrible odor in the room - just bad....  So went back to the front desk and requested a new room - no issues and the new room smelled better than the first, but not fresh at all.  Room was quiet except for doors slamming but that is anywhere you stay.  Standard room with comfortable bed and set-up.  Fair breakfast with eggs, bacon/sausage, breads, yogurt, cereal, juice and coffee.  Shuttle to airport worked okay.  Not the fastest service, but for free good.  Exercise room needs attention.  Old equipment and no water or wipes.  Did not go to the pool area.  All in all - an average motel and a reminder you get what you pay for.More</t>
   </si>
   <si>
+    <t>Duke0724</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r564723274-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>Close to airport, you get what you pay for. Definitely a convenient spot, about as average as a hotel can be! Not bad, but not the best either. Definitely seemed clean. Staff  was nice and attentive during check in. More</t>
   </si>
   <si>
+    <t>bathos13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r559061925-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>Basic accommodations near the airport. The rooms and hallways are very musty. Shuttle to the airport is nice. Tiny bathrooms that are very dated. Construction going on next door but we didn't experience any extra noise. For a cheap place to sleep this works.More</t>
   </si>
   <si>
+    <t>BobTayne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r529910179-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -261,6 +273,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>Mark P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r527785003-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -279,6 +294,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Barbara B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r526751575-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t>Arrived early... No problem. .. Room clean and comfortable. Quite despite being on first floor near lobby. Breakfast fantastic.... Hot sasuage, eggs, waffles, cereal, pastries, etc. Large comfortable shower. Can't go wrong here!</t>
   </si>
   <si>
+    <t>bmcneil0215</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r499765813-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -315,6 +336,9 @@
     <t>After arriving at the airport and calling the hotel, their shuttle never arrived to pick us up. Another hotel shuttle driver was kind enough to take us to the hotel. We were given a 1st floor room and ended up moving to another because the window was very loose in its frame and did not offer us security. In our second room, the door to the adjoining room was unlocked and I had to secure it. There were other people in the room on the other side, so I moved things in front of the door just for the peace of mind. Both rooms had a damp musty smell. The second room also smelled of smoke. Having arrived on a late evening flight, I elected not to ask for another room. The room our friends had smelled better than ours.  The overall cleanliness of the hotel left something to be desired. Scuffed doors, dingy carpet, and cheap-looking breakfast area... it just didn't seem to be worth as much as I was being charged for the room.More</t>
   </si>
   <si>
+    <t>Knoxgrl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r499390001-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -333,6 +357,9 @@
     <t>I've been impressed with Sleep Inns in several locations, so when I had an unexpected overnight in Dallas due to a missed flight, I quickly booked a room. This is a newly renovated Sleep Inn (in fact, it's still under renovation), so the decor is modern and comfortable. The front desk staff was overwhelmed with check-ins even late that night but were still professional and helpful. Didn't have to wait on the shuttle at the airport and it was on time in the morning so I could catch my early flight without worry. I had a king on the first floor, which had a terrible view out the window but I didn't care.  as I just wanted (and got) a decent night's sleep.More</t>
   </si>
   <si>
+    <t>rboykins71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r498371144-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -351,6 +378,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Kyle F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r490224673-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -372,6 +402,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>esperanzaavitiao2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r488067467-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -387,6 +420,9 @@
     <t xml:space="preserve">This hotel is very close to the airport and they have a free shuttle. You can also leave your car there for only $5.00 a night. The price is very affordable and the place is good for one night. It is clean and they have free breakfast. This is the perfect place to spend the night before you flight the next day that way you don't have to worry about traffic . It is a modest but comfortable place specially the location. It is also near McArthur Blvd where you can find lots of restaurants and shopping . </t>
   </si>
   <si>
+    <t>Nan2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r479305758-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -405,6 +441,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>Brandy P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r465189320-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -423,6 +462,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>Connie T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r464172481-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -441,6 +483,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>travelbug19902016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r459772920-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -462,6 +507,9 @@
     <t>We stayed here before an early morning flight. Room okay.  Bed okay. We did not eat breakfast as we had an early morning flight. We did leave our car here for a small fee.. Then it got interesting when the van the hotel uses took us the airport. No seat belts on the seats and the drive drove like he was a NASCAR driver.I did not feel safe at all. Then upon returning husband called the hotel to send driver. We waited and waited and flagged another van down and he took us to the hotel that was not on his route. We did not even go into the hotel to tell them the driver never showed up. Just wanted to get home., Not sure if i would say here again and use the van to the airport.More</t>
   </si>
   <si>
+    <t>Lucero C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r439028224-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -489,6 +537,9 @@
     <t>We stayed on our way out of town.  The room was clean and spacious.  The bed was very comfortable.  Breakfast was delicious!!  Loved the coffee.  The manager was very helpful!  We had great customer service.  Indoor pool was awesome.  Would definitely recommend and stay here again.More</t>
   </si>
   <si>
+    <t>KH420</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r438840505-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -502,6 +553,9 @@
   </si>
   <si>
     <t xml:space="preserve">The bed smelled funny. Booked and payed for the room room through Hotwire, and when we checked in they said it wasn't paid for yet and we needed to pay the cost of the room so I had to show the guy where Hotwire already pulled the money from my account. I wouldn't recommend this place for more than night. </t>
+  </si>
+  <si>
+    <t>Shana913</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r438091037-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
@@ -532,6 +586,9 @@
 But the worst part of this experience was the heater--it didn't work! I turned it on when I came in and after an hour of waiting it STILL never turned on--it just blew air. I called the front desk to ask if they had another room available or someone to look at it. There were no more rooms available because they were full and the maintenance guy wouldn't be available till the morning. Are you kidding me?! Completely...I stayed here one night during before flying out of DFW. I usually stay at Hampton Inns or Holiday Inns, but everything was either full or overpriced. So I chose to stay at Sleep Inn, and I completely regret it. There was an overwhelming smell of air freshener in the lobby. My room itself smelled musty. When I first went into the room, it sounded like the window was open because I could hear cars, wind, and definitely the planes taking off like they were right outside my window. It turns out the window was closed--it's just a very thin window. So don't stay here if you're a light sleeper. In the morning I was woken up by the sound of the construction crew working in the parking lot area right outside my window. Again, the window was very thin and let almost all sounds in. Also, whenever someone would shut their door in the hallway, the walls in my room rattled. But the worst part of this experience was the heater--it didn't work! I turned it on when I came in and after an hour of waiting it STILL never turned on--it just blew air. I called the front desk to ask if they had another room available or someone to look at it. There were no more rooms available because they were full and the maintenance guy wouldn't be available till the morning. Are you kidding me?! Completely unacceptable. I asked about reimbursement, but the lady said she wasn't authorized to give any and that I would need to speak with the manager in the morning. I ran out of time in the morning because I had to catch my flight but I will be calling their corporate office about this. So because it was cold in my room, I had to run the shower and let the steam heat the room. My other complaint is that the shower only has one temperature setting. I tried to adjust it to be less hot, but no matter how I turned the handle, it stayed the same temp. By the handle it says 'on' and 'off', not 'hot' and 'cold'. Breakfast was also disappointing. Very slim options. The one positive I can say is that the room was clean and the bed was very comfortable. Aside from being awoken by the construction workers, I had a good night's sleep. But you can get a better night's sleep AND heat in your room somewhere else!More</t>
   </si>
   <si>
+    <t>Jean P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r427973709-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -547,6 +604,9 @@
     <t>We had the opportunity to stay one night on our way home from New Mexico.Our room was 2 queen beds, had adequate room but pocket door separating the bathroom dates the property. All personnel were courteous and helpful.There was some plane and dart train noise with this hotel located near the airport.</t>
   </si>
   <si>
+    <t>l3lessed</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r427094944-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -562,6 +622,9 @@
     <t xml:space="preserve">Room is not spacious; but, the bed is really nice for sleeping. Once you enter the room, you can tell it's an old hotel. Breakfast choices are few and there's no fresh fruit. A tv monitor at the lobby provides flight information and I think it is helpful for in transit guests. They also have shuttle that'll take one to the airport. </t>
   </si>
   <si>
+    <t>motopoet59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r426529391-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -577,6 +640,9 @@
     <t>I had driven down from Southern Kansas to meet the wife at DFW. Her flight didn't arrive till 11:30 pm which gave me time to check in with the helpful, friendly staff and get a shower, which was a bit cramped for me, but I'm a big guy.After picking up the wife, we retired to the awesomely comfortable king bed. Even with the airport and light rail close by, our room was quiet and we slept very well. My only complaint would be that it is a bit difficult to find. If not for Siri, it would have really spun me around.</t>
   </si>
   <si>
+    <t>Lakeranger</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r420348957-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -595,6 +661,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>RavieM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r418891941-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -622,6 +691,9 @@
     <t>Quite a few outlets by the nightstand need to be replaced due to their faulty connections, since both outlets on the nightstand in Room 231 are non-functional. The lock on the bathroom door is also not working properly. It was never locked while I was there, simply because it's out of order. Room service was okay, but more amenities need to be replenished, especially upon request. Sadly I never received any additional bathsoap when I asked for one. The pool facilities are okay, but sometimes they close the pool way too early. There was no maintenance going on, but one night it was closed before 9 pm, although the sign says it's closed at 10pm. The kitchen should have more food options and also more food especially when the Hotel visitor population is increased. My roommate got no fruits and only one cup of coffee, because every other food for breakfast was finished. Visitors should have a limit to what they take, since some get alot whilst others are left without. More</t>
   </si>
   <si>
+    <t>Daniel M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r417717300-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -640,6 +712,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>jberthelet</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r411524585-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -655,6 +730,9 @@
     <t>Don't go to Sleep Inn expecting a magnificient experience. It's what it should be, an hotel located near an airport for quick stays. I had a 10h layover in Dallas and got from the shuttle to Sleep Inn, located about 15min from DFW. I got a decent price for a room with a king size bed, AC was working perfectly, so did wifi. I ordered from a local restaurant and got my pizza in about 45min. Not so bad compared to sleeping in the airport! I would've rated 3.5 out of 5</t>
   </si>
   <si>
+    <t>Rachel P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r410846944-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -670,6 +748,9 @@
     <t xml:space="preserve">We had a great stay. Heading to the airport early. We were able to park here while gone. Pool was great. Staff was also super friendly and helpful! Room was very comfy. We would definatly stay here again! </t>
   </si>
   <si>
+    <t>Charla K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r405936780-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -688,6 +769,9 @@
     <t>We stayed one night for 6:40 am flight to NYC. Although when I booked online it showed free parking and shuttle to the airport. When we arrived the front desk told us the parking was under construction and even it it wasn't we could only park one night. We were going to be in NYC a week. They stated they could still shuttle us but we would have to park somewhere else so my husband went ahead and scheduled the shuttle. After thinking about how ridiculous that sounded we went back to the desk and cancelled the shuttle and reserved a spot at The Parking Spot across the street. The desk clerk was surprised we were cancelling the shuttle and then my husband told her how can you shuttle us and us not leave our car parked here?  What idiots!  Plus the room stinks!  Had to spray perfume just to be able to stay in the room. Never again!  I rated a 2 just because of the convenience of being close to the airport. But there are a lot of other hotels close as well. Do yourself a favor and book some other hotel. More</t>
   </si>
   <si>
+    <t>John M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r387854514-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -709,6 +793,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>AxeMJax</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r383840699-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -727,6 +814,9 @@
     <t>The good: beds are comfy. Location is quiet. Airport shuttle available. The bad: location is quite a ways away from everything (food, etc). Room is somewhat outdated (popcorn ceilings) though it appears to be in decent shape. Discontinuing use of the brown spreads and moving to only white linen could really improve the room and let guests feel more comfortable. Also, the pool towels are a joke and should be replaced with newer,  more absorbent ones. Our room was dirty. I mean, an accumulation of filth over several months that could easily be fixed by attendance to detail by housekeeping. For example, I put down the towel mat and when I got out of the shower noticed that there was grey grime on the bottom where the towel was. This is proof that with only a clean mop and some water, much of the dirt could be cleaned.  Of note: the walls seem kind of thin. Our teenagers could hear the couple across the hall having sex. Eww!More</t>
   </si>
   <si>
+    <t>Lenita W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r373911086-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -748,6 +838,9 @@
     <t>The Sleep Inn in Irving TX was fair.  Somehow our wake up call never came.  But the thing that I found deceitful was on my checkout receipt.  There was a charge called "Surcharge .... $1.50"  I asked what that was for and was told it was for the breakfast and for room service!  We didn't ask for any room service nor received any.  As for the breakfast, (which wasn't that great) is advertised as "And our free amenities—like hot breakfast and WiFi—simply complete your stay. "I told the man at the desk that breakfast was advertised as free and he said, "It is."  I then told him that it wasn't free if I was charged for it.  He insisted it was.  Go figure.  I have asked for my $1.50 back .  Of course I haven't heard anything from them. If everyone were to ask for their money back, they would soon stop the extra charging as it will cost them more to return it than it is worth.I know $1.50 isn't very much but if they are willing to tack on extra charges, how else to they cut cost?  Scary thought!More</t>
   </si>
   <si>
+    <t>Jeanniene</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r364043786-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -769,6 +862,9 @@
     <t>I have stayed at various hotels around the DFW airport for years, and this is my first experience staying at this hotel.  What a gem.  From my first contact with the front desk, to my room quality, cleanliness, to the overall hotel amenities to my checkout...excellence in every way.  I was very impressed.  The hotel is convenient to the airport.   Provides complimentary transportation to/from the DFW airport.  The hotel provides a "free hot breakfast."   Has an indoor pool and hot tub...awesome for relaxing after a long trip.  The rooms are spacious, clean and comfortable.   The hotel staff puts the icing on the cake.  The hotel staff is "awesome" and makes for a pleasant stay when you are greeted upon arrival/at check-in by a true professional that cares for your business and it shows in their actions and attitude.  I will definitely be staying here again and again and would highly recommend this property.  Worth every penny.  Awesome stay.  Great convenient location to the airport and located only 20-25 minutes from downtown Dallas on Hwy 114.  Also the Dart systems runs by the hotel and you can easily catch a taxi or Uber to the closest Dart station which makes it easy to get around the area quickly and economically.  Great location. Great price.  Great hotel and excellent staff.  Really enjoyed the property.  Very nice, clean and absolute excellence.More</t>
   </si>
   <si>
+    <t>jgm12342016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r362319849-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -784,6 +880,9 @@
     <t>I stayed here arriving late as my flight to Europe was cancelled.  The hotel was excellent: great customer service, quiet, very clean, good food and a good value compared to other hotels in the area. I would stay here again.</t>
   </si>
   <si>
+    <t>Zackf1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r362269939-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -797,6 +896,9 @@
   </si>
   <si>
     <t>March 2016</t>
+  </si>
+  <si>
+    <t>BuyerBeware21</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r355522930-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
@@ -823,6 +925,9 @@
 Just to give you an idea of how hard I would have to dig to find something slightly negative to say about the experience of staying here, I'll mention that the bagels at this Texas location are a bit too small for the toaster. It's hard to get them out of the slots. There...My wife and I stayed here on the night of March 13, 2016 because we had a 20-hour layover in Dallas-Fort Worth. We've stayed in Sleep Inns before and have been impressed at the value for money received, and this was a pleasant confirmation of the strength of the Sleep Inn brand.Ashton, Daniel, and Vicky took great care of us, getting us from the airport on the shuttle (Ashton managed to get us to the right shuttle stop over the phone in our first time at DFW airport, Daniel quickly shifted the time of our shuttle trip the next morning, Vicky confirmed our gate number and got us back to the right terminal). The set-up with the shuttle and early breakfast is custom-tailored for travelers in a bind like us. We ordered dinner delivery from one of the local restaurants and relaxed in our room all night.The thing about Sleep Inns in general that we like is that the details of a stay are well thought out. Things don't tend to go wrong for no good reason. Breakfast the next day was no exception.Just to give you an idea of how hard I would have to dig to find something slightly negative to say about the experience of staying here, I'll mention that the bagels at this Texas location are a bit too small for the toaster. It's hard to get them out of the slots. There you go -- a complaint about the difficulty of toasting a Texas bagel in a standard toaster. That is literally the most uncomfortable thing that happened to us during our stay.So overall, my wife and I was once again pleasantly surprised by the bang for our buck here, and I can unhesitatingly recommend the Dallas-Fort Worth airport Sleep Inn as worth your consideration if you need to stay near the airport.More</t>
   </si>
   <si>
+    <t>Rollrcoaster</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r353319616-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -838,6 +943,9 @@
     <t xml:space="preserve">Traveling solo.  I arrived at DFW at 7pm and called the "suites" (see my other reviews) Ihad made a reservation online whose booking site stated they had a/p shuttle service and was told the site has wrong info and for me to take a cab ($22 one way).  I called Sleep Inn and Ashton rescued me with a room with a comfy king size bed, microwave, frig, breakfast, etc.  AND a shuttle within 15 mins!.  Ashton and Vicki are personable, professional and cheerful.  All around pleasant stay.  My go to place for future DFW stopovers.  </t>
   </si>
   <si>
+    <t>Noemy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r352884040-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -853,6 +961,9 @@
     <t xml:space="preserve">I've slept at Sleep Inns before, and this one by far is the best out of them. The AC worked. The bed was comfy. The shower was nice.  I would stay here again. The only downside was the shuttle, to and from the airport, filled quickly and I had to wait 40 minutes for a pick up </t>
   </si>
   <si>
+    <t>gregweiser</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r342132813-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -871,6 +982,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>okcmomto3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r341177184-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -889,6 +1003,9 @@
     <t>We stayed here on our way back from a cruise. This was the perfect place to be. We checked in quickly with great customer service.  We then went to the room, which was newly remodeled. It looked wonderful. We then went to the indoor hot-tub and pool and relaxed. Afterwards we went to our room, and enjoyed a wonderful nights sleep on a very comfortable soft bed.  In the morning, I took a shower and enjoyed the water pressure. It was just right. The room temp was perfect. The breakfast is awesome. Scrambled eggs, sausage, Texas shaped waffles, fruit, bread, cereal, yogurt, muffins etc! I will be staying here again next time I am in Texas!  I loved it!!More</t>
   </si>
   <si>
+    <t>Robert H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r340726091-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -904,6 +1021,9 @@
     <t>This is a very nice place to stay. Very clean, exceptional staff, convenient to airport. We were visiting family in the Dallas area. The breakfast is very good. Exceptional value. Will go back again. Stayed 3 nights.</t>
   </si>
   <si>
+    <t>Camarogirlnikki</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r334334176-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -922,6 +1042,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>SuzanHK H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r333966596-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -940,6 +1063,9 @@
     <t>My Mom and I stayed here the night before her flight from DFW Airport.  I usually get a suite at Comfort Suites but waited too late to book a room.  I wasn't sure what to expect.  The hotel staff was very welcoming and Miss Marilyn went above and beyond to help me when we arrived.  The room was very comfortable and clean.  Originally, I had asked for an accessible room with two beds but when we checked in, Miss Marilyn changed us to a room closer to the door so Mom did not have to walk as far.  The next day, the shuttle took us both to the airport and  picked me up after seeing Mom off at the gate.  It was quick and much easier than parking.  I did not get the young woman's name working the desk but she was also gracious and allowed me to finish checking out upon my return from the airport. I would definitely stay here again and the price was very reasonable.  The only suggestion I have is that the owner put up another mirror as the one over the sink is definitely a one person affair and two women needed another mirror to get ready.More</t>
   </si>
   <si>
+    <t>Hardb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r332474626-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -958,6 +1084,9 @@
     <t>I gave a rave review to the Motel 6 across the street from this Sleep Inn because in comparison - STAY AT THE MOTEL 6!A very tired Sleep Inn and although they have tried to update and refurbish there is only so much you can do before you need to tear down and start over and they really need to do this!Bed was old and lumpy, toilet needed to be cleaned had dried urine stains on it and the seat was up the room was either filmy from years of use or just gross - I really think a combo of both.Had free wifi and free breakfast....also had a fridge that was fairly warm and a microwave and coffee maker in room.  Total for this place was $111I ate about $40 worth of breakfast just to feel like I was breaking even.  Also there is a monorail that whizzes by about every 20 minutes - it's a strange noise but I got used to it.The saving grace of this place - THE BREAKFAST!!!Scrambled eggs, sauages, pastries, yogurt, biscuits, waffles in the shape of TX, cereal, 3 juices, milk and fairly decent coffee.Do yourself a favor and stay at the Motel 6 across the street - SOOOO much better and was only $60!  I can always grab breakfast somewhere -More</t>
   </si>
   <si>
+    <t>orcasgal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r323049056-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -979,6 +1108,9 @@
     <t>Flying out early the next morning, we booked this hotel for a Sunday night. I liked that it was not right next to the highway nor the airport, so it had nice fresh air and relative quiet when we opened the window on the second floor to see a field next door.The room was nice with a refrigerator and microwave and TV, where my hubby could view the Cowboys game. The bed was comfortable, the bath clean. The only negative - but a deal breaker for next time - was that they do not open for breakfast until 6am, though they have three shuttle times before that. That means people traveling without breakfast, and may not get a meal at lunch on the airplane either, if it is a long flight with turbulence. Since it is an AIRPORT hotel, it should cater to airport passengers and start breakfast before the first shuttle. My home Sleep Inn in SeaTac, WA begins breakfast at 4am - and has yogurt, hard-boiled eggs, fruit and pastries available to take an hour before that, if anyone needs to get to the airport for a 6am flight - which is when a lot of flights are departing. It has coffee and hot water for hot chocolate or tea 24 hours per day. That raises their rating in my eyes. This hotel should mimic them, and it would raise their value too.More</t>
   </si>
   <si>
+    <t>Alvin G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r322801403-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -994,6 +1126,9 @@
     <t>Beds were nice. Not the best. I received a single king room on the second floor. The bathroom in my room was very tidy and at a weird placement. The tv was kind of small but nice for the space. The shower did have awesome long lasting hot water. Access to the pool was in a weird location even though I did not visit the pool. At the front desk there was a nice big screen displaying arriving and departing flights. The breakfast was good for fruits and cereal. The eggs and sausage was gross. Decent stay for basic needs and cheap. Also included a shuttle to the airport.</t>
   </si>
   <si>
+    <t>canadianflyer3778</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r318440692-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1012,6 +1147,9 @@
     <t>I booked this hotel because I had a very early morning flight out of Dallas and wanted to have plenty of time to get to the airport without losing too much sleep.  It was so inexpensive that I worried it would be tatty and tired, but I was wrong.  It is simple (only 2 floors) with minimal amenities, but they're plenty for people who are traveling.  The reception area was comfortable; there were luggage carriers readily available, and check-in with Otel.com was a breeze.  The room was very clean and the beds were surprisingly comfortable with crisp linens and plenty of pillows.  The heating/air-conditioning unit worked efficiently.  The nicest thing was the pleasantness of the young man at the desk in the evening and the cheery smile on the woman at the desk at 5 a.m. the next morning.  There's a complimentary computer and printer in the lobby for airline check in.  Although I didn't use it, there's a complimentary shuttle to the airport that starts in the wee hours of the morning.  I would happily recommend this hotel for anyone who wants a good night's sleep and doesn't require unnecessary luxury.More</t>
   </si>
   <si>
+    <t>roadmap2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r310582696-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1033,6 +1171,9 @@
     <t>When I checked in, I was wondering if we could hear the noice of the planes flying overhead.  Found out that once you are inside this motel, you will not hear any planes or anythingelse going by.  Rooms are very quiet at night and beds are very comfortable.  Room size was just right.  Breakfast was a good and hot with scrambled eggs, sausage, waffles, and the rest of the breakfast fare.  Rooms do not have a bathtub unless it is a handicap room,  but the showers are big enough for a large person.  NOTE.. shower floors are very slippery, we put a towel down on the floor which really helped.  We were visiting relatives in the area and will definitly stay here again.   There is also a pool here but did not use it.  Price is very affordable for the location.More</t>
   </si>
   <si>
+    <t>Jeff C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r309387997-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1048,6 +1189,9 @@
     <t>I stayed at.the Dallas/Fortworth, TX airport location and once again pleasantly satisfied with the exception accommodations.  To bad the last reviewer failed to see the luxury in this hotel.  Where can you find a dependable fancy room without paying four star rates.  The front desk staff has been so kind, I hope we can locate Sleep Inn Hotels for the remainder of our trip in the Smokey Mountains and on to Nashville, TN</t>
   </si>
   <si>
+    <t>Merilee H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r297940493-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1066,6 +1210,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Te'Nia B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r292284540-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1084,6 +1231,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>bug88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r290338011-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1097,6 +1247,9 @@
   </si>
   <si>
     <t xml:space="preserve">Hotel is average for moderate level hotel but there airport shuttle service is a deal breaker. They share there hotel van with SIX other hotels. A one hour trip from the airport is not uncommon on a packed hot overcrowded van.  Not good shuttle service. </t>
+  </si>
+  <si>
+    <t>Sydney P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r288693484-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
@@ -1121,6 +1274,9 @@
 Firstly, you are not permitted to call the shuttle service to schedule a pick up until you have picked up your luggage from baggage claim &amp; made your way to one of the appropriate pick up locations (good luck finding one!). Secondly, these locations are incredibly difficult to determine &amp; do not correspond to the locations listed on the instructions. (I wasn't the only person who...Decent hotel; I only stayed overnight before my flight at 8 am the following morning. I didn't take advantage of the complimentary breakfast, so I cannot speak on that topic. However, the shuttle to/from the airport is absolutely the worst! If you choose to park your car in the hotel parking lot during your trip instead of opting for higher priced airport parking options you are able to utilize the hotel shuttle service which runs between multiple hotels in the area. My shuttle to the airport was 15 minutes behind schedule &amp; completely full upon arrival; even though I had signed up for a specific time slot in advance. By the time my shuttle arrived I had less than an hour to make it to the airport, check in with my airline, &amp; make it through airport security. Each person is given a set of instructions to follow which detail how/when to contact the shuttle service upon your return to pick up your car, but the instructions are absurd &amp; absolutely no help whatsoever. Firstly, you are not permitted to call the shuttle service to schedule a pick up until you have picked up your luggage from baggage claim &amp; made your way to one of the appropriate pick up locations (good luck finding one!). Secondly, these locations are incredibly difficult to determine &amp; do not correspond to the locations listed on the instructions. (I wasn't the only person who felt this way, all 9 people on my shuttle commented on the difficulty of the instructions upon pick-up.) And thirdly, the people who operate the shuttle service have very little/poor communication with one another. After failing to find one of the pick-up locations I called the shuttle service phone number &amp; was told to head to a completely different location than what was listed on the instructions! Be prepared to wait quite a while for a shuttle with available space to come pick you up too. Want to take a taxi &amp; forgo the shuttle? It'll cost you a $27 minimum for a 3 mile ride. To eliminate unnecessary stress &amp; wasted time, I would suggest you skip the frugality of the shuttle service to this hotel; what you pay for is way more than the service you receive. Spend a bit of extra money &amp; choose an airport parking option with a more reliable &amp; better executed shuttle service!More</t>
   </si>
   <si>
+    <t>Alvaro F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r281204656-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1137,6 +1293,9 @@
   </si>
   <si>
     <t>February 2015</t>
+  </si>
+  <si>
+    <t>akira816</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r279257811-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
@@ -1162,6 +1321,9 @@
 ON our way back we spent 1hr 20 min at airport waiting for a shuttle. My son called and gave our info. That was not the worst part. The worst part was one shuttle stopped by...the driver got off...said " 4 people??? I have no place"...got back in his van...We stayed there two nights on our way to europe. We stayed before flying out and left the car there. Was NOT told of the park and fly rate when I called the hotel. Was told upon check in that I could have availed of it. However, they would not honor it or give me ANY discount on parking. Online it said $4 a night. Park and fly rate was $99 a night with 10 days free. At hotel they wanted $5 a night. after a call to choice hotels he gave it to me for $4 a night. The hotel runs at 100% occupancy but they only have one person working the front desk so you wait to be checked in. The hallways appear to be centrally air conditioned but they have a wall unit laboring at the end of the hallway which is not enough so hallway is hot as hell!!! ( try Texas in 90 deg weather) The room air was not on either..so after a 10 hr drive it was torture. breakfast was ok..Airport shuttle was ok. I did the survey by choice lisitng my issues. ON our way back we spent 1hr 20 min at airport waiting for a shuttle. My son called and gave our info. That was not the worst part. The worst part was one shuttle stopped by...the driver got off...said " 4 people??? I have no place"...got back in his van and DROVE OFF!!!!. Then 15 min later another one comes by..It is 90 deg in Dallas and we were heading back from Norway after two flights. Finally we get to hotel and I guess judging from the cold shoulder from the front desk clerk my earlier review had made its way to hotel. Good news ...we were put upstairs...hallway air was on and room was at 72 deg..not best but given that outside was 90 ..i guess it was ok. Bright spot...GREAT MATTRESSESOh and gym is a elliptical and a treadmill with a/c not turned onMore</t>
   </si>
   <si>
+    <t>JAFLP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r273445302-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1177,6 +1339,9 @@
     <t>We had to catch an early morning flight out of DFW and so stayed overnight at this hotel It fit our needs.  We found it clean and comfortable with friendly staff.  You signed a sheet showing the time you needed the shuttle to the airport.  Be aware that they do make stops at other hotels so allow a 20-30 minute ride to the airport.  We left before breakfast time but they did have coffee there.  A nice touch would be to also have muffins you could take along with your coffee.</t>
   </si>
   <si>
+    <t>John J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r269127343-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1195,6 +1360,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>JOSEPH S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r268408995-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1210,6 +1378,9 @@
     <t>I stayed in this hotel one night,bed ,cable,wifi breakfast as good as anY trendy hotel,for a very comfortable price.Room was clean,bed with good quality matters, cable with hundred of channel.Recommend it for a night transfer at DFW.</t>
   </si>
   <si>
+    <t>cotjos213</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r267984286-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1225,6 +1396,9 @@
     <t>This place is conveniently close to DFW airport. It is clean and quiet. Good place to rest while traveling. They offer an airport shuttle. I am not sure, but I believe they have an indoor swimming pool.</t>
   </si>
   <si>
+    <t>MollyMG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r257638640-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1243,6 +1417,9 @@
     <t>My husband and I were in town to visit family and stayed here for two days of our week long stay. There were good and bad about our stay. We arrived at 11pm and waited 40 minutes for the hotel shuttle, only to be told it would be delayed even further. So, our "free hotel shuttle" turned into a $35 taxi ride. Our room was very clean, which is something I always worry about with a budget hotel. Unfortunately, our shower did not drain and when you flushed the toilet it would run forever. Tip-bring ear plugs-the rooms are loud. One thing you should enjoy is the breakfast which includes both hot and cold items. Would I stay again? If the budget was tight-yes.More</t>
   </si>
   <si>
+    <t>canada777-1207</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r257436245-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1258,6 +1435,9 @@
     <t>we just had an overnight stay when stuck in Dallas airport. The front desk and shuttle driver were very helpful. The hotel is out of the way, and very basic. No restaurant or bar on site. They give you a menu for takeout. That said, the linen, bed and shower were very comfortable.  The room was clean. The gentleman at the front desk was super helpful, and helped us arrange an early morning taxi. they also have breakfast but we had to leave too early to be able to check that out. And they have shuttle service to DFW</t>
   </si>
   <si>
+    <t>Journeycritter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r257395632-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1276,6 +1456,9 @@
     <t>Overall:I was stopping over as a layby flight overnight. From the moment I rang up, staff were clear communicators and friendly. The room was clean and facilities were excellent for an overnight stay. Room and facilities:Everything needed for an overnight stay was provided. Nothing missing I could think of. Staff and service:It was late at night when I checked in. One staff member was very friendly! The other seemed over tired. He wasn't as welcoming but was not impolite. Pricing:Cost about 93 USD for one person (including taxes). This was with late notice (rang at airport) in Feb. Side note:Closest restaurant was a 15 min walk away. I was quite tired and so Dominoes was recommended. They delivered to my room in about 25 mins. Best part:Efficiency of staff. Also, complimentary shuttles to and from airport. I had a 4.05am shuttle! It was on time. Worst part:Nil on my short stay. Final word:No issues for an overnight stay with good shuttle service. More</t>
   </si>
   <si>
+    <t>Dan R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r249436364-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1294,6 +1477,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Gabriella12345</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r244583064-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1309,6 +1495,9 @@
     <t>The rooms are set up very nice. Everything was VERY clean, the bed was comfortable along with clean. Would definitely stay again. We needed conjoined rooms at 8 o'clock at night and they made that happen. Great service.</t>
   </si>
   <si>
+    <t>haaspatricia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r243089686-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1324,6 +1513,9 @@
     <t xml:space="preserve">I am a frequent traveller ,and stay in many hotels .. but was my first time to see a Indian lady on the front desk ....but for my suprise she given the best customer service I ever had....she was super busy when she checked me in and other guest but the smile on her face and get patience last forever ...... </t>
   </si>
   <si>
+    <t>TravelwellVI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r240767556-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1342,6 +1534,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Tim G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r240292810-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1360,6 +1555,9 @@
     <t>Recently renovated. Close to the airport, shuttle service is okay, fairly efficient. The hotel is priced appropriately. There is a train right behind the hotel, it transports people to DFW so it isn't a long loud train and it didn't bother me. Wall air conditioning unit took a bit of adjusting, but quiet and worked fine. Room backed on to the elevator but was not noisy at all. Friendly staff. Definitely a good stay for a night with easy airport access. There is no food nearby however, can get some deliveries. The only food within walking distance is a whataburger connected to a gas station convenience store. Internet was decent. More</t>
   </si>
   <si>
+    <t>Gleered</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r238630959-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1378,6 +1576,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Kurtis L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r230026289-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1396,6 +1597,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Bulld0g_44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r227895796-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1420,6 +1624,9 @@
     <t>I had a 6AM flight out of DFW, and wanted someplace close to spend the night, using my Choice Rewards points. Sleep Inn fit the bill perfectly. There isn't anything fancy here, just a basic, clean room to sleep. Check in was easy, desk staff was friendly and helpful. They have an airport shuttle, but I did not need to use it, so I can't comment on it. I also left before the breakfast started at 6AM.The property itself is obviously somewhat older and a little worn, but not trashy. Just showing a little age (aren't we all!). I'm pretty sure the it's main function is for travelers who are staying a night or two, then leaving. It's great for that. Not a place I would likely stay for weeks, though.More</t>
   </si>
   <si>
+    <t>dale_uark</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r221775860-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1441,6 +1648,9 @@
     <t>Desk staff very nice, property itself is adequate but dark and well worn; rooms themselves are nicer, tho the bathroom is tiny.  The shuttle is hit or miss -- they use a common carrier with about 10 other hotels, and the order of pick-up and drop-off is anybody's guess ... on the return to DFW, we sat outside the lobby of one hotel for 10 minutes waiting (and nobody ever did come out - irritating).  It will get you there, but it could take half an hour or so, on top of the half hour wait for it to come in the first place.  I'd probably choose to pay a few $ more and stay elsewhere with a dedicated shuttle and nicer general atmosphere.More</t>
   </si>
   <si>
+    <t>Chuck C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r211006951-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1459,6 +1669,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>TexasJoe8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r210647244-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1480,6 +1693,9 @@
     <t>Stayed here for one night before flying to Korea out of DFW.  Was able to park my car at the hotel for 10 days while away.  The staff was friendly and efficient, room was small but clean and comfortable and included a fridge and microwave.  The breakfast was solid with some hot and cold options.  I did not notice any airport noise during the night.  The airport shuttle is shared with other hotels so not the fastest and was crowded but it did run on schedule.  Keep the hotel number in your cell and when you return, call and ask for specific pick up spot for your terminal - I didn't quite get the specific spot and nearly missed the shuttle.  Not much else close by other than airport parking and hotels is really the only downfall.  Nice stay, would return again of need be.More</t>
   </si>
   <si>
+    <t>czematis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r206658108-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1501,6 +1717,9 @@
     <t>The only reason this review didn't get a terrible rating is because the bed was comfortable and room was clean.  Unfortunately, at the point when I finally was able to go to bed, it was the last thing I cared about.  Checking in was a nightmare with one staff member who kept blowing us off to help anybody else who came to the desk, then couldn't find our reservation and took FOREVER to put us into the system.  Then, there was a very large group of 20 somethings staying the night who were obnoxiously loud, talking in the halls, banging doors, etc.  I wouldn't mind during the day as much and if they weren't old enough to know better, but this was at midnight and these people were all adults.  We had to yell at them twice after asking the front desk to get them to be quiet.  The check out the next morning at 3:30 am (because we had an early flight) also took an unnecessarily long time and the lady could have cared less about our complaints.  I never suggest staying here unless it is a last resort!!!!More</t>
   </si>
   <si>
+    <t>Jacque R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r204491693-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1522,6 +1741,9 @@
     <t>Telephone call with front desk quoted one price, I arrived and that person mysteriously was off for night.  Second person verbally confirmed the price but charged $25 more to my credit card.  Having been up over 32 hours, I signed the slip without verifying what was quoted only to get home and find they up the price.  Choice Hotels was horrible and claimed they saw no such price for the amount quoted on their site and would not honor what was quoted.  Never will I stay at any choice hotels again...The hotel is old as heck, second floor looks dirty, it's stink and very gothic.  By the way, I was there less than 6 hours; 12:30-6:00am.  Next time I'll sleep in the airport like the rest of the other smart people.  AC noise was awful and I kept looking for "Jason" to come through the creepy door at any moment.More</t>
   </si>
   <si>
+    <t>marieatta_pman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r202905892-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1537,6 +1759,9 @@
     <t>PROSnicely appointed rooms , seemed clean and newvery nice staff - front desk, breakfast attendant, etc..good rategreat breakfast - hot eggs and meat along with usual choicehotels brand offerings (hot waffles)great rates-very good valuefridge and microwave in roomCONSnot close to anything if you need something - no restaurants, stores, etc..shuttle could take a while since it is far from terminal - if you have a rental car like it did - not horrible.</t>
   </si>
   <si>
+    <t>Peter P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r200865714-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1552,6 +1777,9 @@
     <t>I stayed at the Sleep Inn Plaza Dve for 3 days and found that the staff were very friendly and went out of their way to help me when things didn't go to plan.Robert and Adrian at the front desk were great hosts and made my stay enjoyable.The rooms were very comfortable and clean,the wi fi worked well and shutlle was prompt and friendly.I recommend this hotel for its staff value and location to DFW airport.</t>
   </si>
   <si>
+    <t>srquil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r199201810-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1582,6 +1810,9 @@
     <t>Needed a hotel for a night. This is a good hotel, no complaints, although it is a little difficult to find after dark. I was close to the airport runways but we did not experience any noise from the aircraft.</t>
   </si>
   <si>
+    <t>TopofTXtraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r197440542-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1600,6 +1831,9 @@
     <t>Stayed a few nights with my family recently.  Pretty reasonable place.  Others comment about the new renovations, but it doesn't look all that newly renovated to me.  It's not bad...it just doesn't look "newly" renovated.  Beds are firm but comfortable.  Pool was closed due to mechanical problem.  Workout room has a treadmill, stationary bike, and elliptical - all of which work, but have some minor issues.  The good - helpful staff, convenient to DFW, affordable, and newer (apparently) decor.Not as good - No bathtub (tough with small kids), small bath area (pocket door to toilet / shower area), breakfast not so hot - even for a freebie hotel breakfast.Overall, we'd return if the price was right and the stay was short, but probably wouldn't seek it out.More</t>
   </si>
   <si>
+    <t>Kinko_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r190455097-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1618,6 +1852,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>ExcellentAdventures</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r185949659-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1639,6 +1876,9 @@
     <t>The hotel has basic accommodation that includes a mini-fridge, microwave, coffee maker and flat screen TV in the room.  There is only one ice machine located on the first floor by the vending machines.  Sleep quality is pretty good given the proximity to the airport.  The shuttle is a shared shuttle so pick up at the airport can be about a 30 minute wait.  On the return to the airport, you make a reservation so that works out fine.  There are no restaurants nearby but the hotel does have a lot of menus for delivery choices.  Breakfast was quite good with a large variety of hot and cold items.  There wasn't much seating but trays are available to take breakfast back to the room.  The room rate was very, very affordable so that makes this hotel a good choice when flying out of DFW.More</t>
   </si>
   <si>
+    <t>Andrew R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r181542112-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1660,6 +1900,9 @@
     <t>I stayed here for I believe four nights. I didn't have a car, but there is a bus that stops in front of the hotel that will take you to a metro train station, which gives extremely easy access to all of Dallas. The cost is $5, and that gives you a pass that is good for the whole day on all the busses and trains.My room was quiet and clean. They have a wonderful breakfast which included (as someone posted a picture of) make your own Texas shaped waffles. There is also an indoor pool and Jacuzzi. My one complaint had to do with the hotel shuttle. I called them to request a shuttle, they said it would be on it's way, waited 30 minutes, called again, they said sorry it's on it's way, waited another 30 minutes, called again. This time I asked if I was missing it or something, they said to look for the "Hotel Connection" van, which I had no idea I was supposed to look for. I thought I should be looking for a sleep inn van.More</t>
   </si>
   <si>
+    <t>Bellhop-2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r177373891-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1678,6 +1921,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>Robert S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r176656023-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1694,6 +1940,9 @@
   </si>
   <si>
     <t>August 2013</t>
+  </si>
+  <si>
+    <t>March10</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r166695559-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
@@ -1733,6 +1982,9 @@
 I'm sure the park and...I don't normally go back and update reviews so quickly, but I had an opportunity to stay here a second time over the weekend.The bed is still old, but comfortable, and the room, overall still has some wear and tear. It is time they upgraded the TVs though. HD or flat screen aren't a big deal to me, but the one I had constantly had volume issues. It would get too loud then too soft. I know that happens a lot with commercials, but this was just CNN's coverage of the Asiana plane crash, followed by some sports.But the main reason for the downgrade to 3 stars is the parking. I had mentioned before it was a tight lot, but this weekend was beyond ridiculous. When I arrived to check in at 4 p.m. There was one spot in the entire lot. Five of the spots were occupied by shuttles. I went to some business and dinner, and there were no spots available and a couple of cars had jumped the curb to park i a lot behind the hotel. I didn't not want to do this so I parked across the street. I noticed as I parked, I wasn't the only one. Another gentleman was walkiing to his car as I was exiting mine. As soon as I saw a shuttle leave I ran to my car to move to the spot. I'm sure the park and fly deal is great. I'd use it myself. But with the shuttle using parking spots as well as people parking their cars there and in another city, the already small parking area becomes impossible. The hotel really needs to convert the lot behind the building into more parking. Just 5-10 more spots would be great. It's a shame to have that lot just sit there useless when people need to park and have to drive around that lot anyway looking for a spot. Otherwise, again, the value here is hard to beat. Few frills but a friendly staff and a comfortable room, with one of the best internet connections I've used at a hotel in some time.More</t>
   </si>
   <si>
+    <t>Seriously2009</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r161835388-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1748,6 +2000,9 @@
     <t xml:space="preserve">This place fit the bill for me. I was coming in from out of town to catch an early 6am flight at DFW. I did not want to spend a lot of money for a few short hours.  They allow me to park my vehicle for the duration of my trip. I don't have to get mixed up in the airport traffic. This perfect for this option.  I am here to rest my head for a few hours. To stay in this hotel for an extended vacation; for me , that would be an absolute no for reasons stated by other reviewers. </t>
   </si>
   <si>
+    <t>Brittney D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r161280680-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1763,6 +2018,9 @@
     <t>This property is pretty outdated. I can sleep on almost anything (including the floor) and these beds were pretty awful. The price was good but for reasons I guess. Pretty bare bone stay and good if you're only staying one night. The staff was really nice. Not very helpful but defintely friendly. Unless they updated and got new beds, I wouldn't stay at this property again. My back hurt for days afterwards.</t>
   </si>
   <si>
+    <t>Melinda L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r159289619-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1784,6 +2042,9 @@
     <t>I stayed at the Sleep Inn the night before an early flight out of DFW. I was pleasantly surprised considering the very reasonable price. The room was quiet, the bed was good, plenty of pillows.  Lots of lighting and I did not have to play detective trying to figure out how to turn lights on.  Also PLENTY of electrical outlets for charging phones, etc., and the complimentary Wi-Fi worked perfectly. Bathroom and shower were clean. A/C worked great. Complimentary breakfast was very good with an assortment of hot and cold foods plus coffee, juice, yogurt, etc. Waffle maker, too. The hotel offers a park and fly package, but for security purposes I opted to leave my car at "The Parking Spot" which is right across the street. It could not have worked out better for me. The only reason I did not give 5 stars is I noticed some cobwebs on one of the sprinkler heads in the room and also in the corner of the bathroom.More</t>
   </si>
   <si>
+    <t>muchfuntotravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r153373691-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1802,6 +2063,9 @@
     <t>We stayed two nights here.The first night was not a good experience with the room not being fully cleaned, a broken window which we didn't realize was cracked open throughout the night, and the vending machine not working well.The staff was nice when we were checking out and the next night which we had already booked previously we stayed in a different room that was clean and in better shape over all. It was also closer to the pool.The pool was warm and we had fun. The hot tub was hot but too many bubbles formed within minutes.The breakfast was a more than continental and included things like plain eggs. There was a computer in an open area but the internet connection was either super slow or non working.Overall an ok stay but very worn out place.More</t>
   </si>
   <si>
+    <t>Carol6a</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r149266423-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1838,6 +2102,9 @@
     <t>I'm not going to paint a rosy picture and say that this hotel isn't a bit older and doesn't need a few minor repairs and upgrades here and there. In fact, around the toilet area there appeared to be rust and the mattress was old, but comfortable to me. I would like a few more firm pillows. And it does need a bigger parking lot (though luckily I found an empty spot right next to a door...very helpful since my night there the weather didn't get above freezing all day). And the hotel hallways do smell of smoke. And due to construction in the area getting to and out of the hotel area can be tricky (but the hotel has little to do with this). But for under $50 a night, it's hard to beat. You can pay the extra $60 and stay across the street and get a nicer bed, even a flat screen TV and newer carpet. But is all that worth that much money, especially when, in all honesty, most of the differences will be unnoticeable. This is one of the better values I've found.More</t>
   </si>
   <si>
+    <t>MOHope</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r146452349-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1859,6 +2126,9 @@
     <t>Hate to write bad reviews but this one deserves one. I have stayed at numerous Sleep Inns across the country and this one did not measure up. Check in was quick but clerk did not seem interested. Had to call him back to get the internet code. Carpet does not appear clean (I would not walk on it barefoot). Place is dingy. No microwave nor fridge in room. Pressure in shower was terrible. I hate that as I enjoy a good shower.My sis had to make a copy of her airline reservations and she was charged 25 cents per page. We had also stayed at La Quinta, Holiday Inn during this trip and neither charged for copies. Breakfast was horrible. Coffee was watered down and so was the waffle syrup. The beds were good and they did have an airport shuttle. i am sure you can get a better deal at another hotel.More</t>
   </si>
   <si>
+    <t>Roswellcop</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r146185777-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1874,6 +2144,9 @@
     <t>Great location with free shuttle to airport and cheap airport parking for $6.95 per night but not fence or security.  The parking Spot is just down the street also for $11.95.  Hotel was clean and well kept but staff appeared to be family of owners and not overly helpful.  Did not give off the impression that they wanted to be there.  Called down for a 5am wake up call and the girl answered the phone "what you want"  We then received our wake up call at 5.30am..  Morning check out same un-helpful girl</t>
   </si>
   <si>
+    <t>Marc C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r145705338-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1889,6 +2162,9 @@
     <t>Only complaint was that the hotel shuttle is "shared" by several nearby hotels, so it took about 20 minutes to pick us up from the airport.  Otherwise, a fantastic hotel for the money.  Indoor pool with hot tub, clean rooms, lots of food delivery options for dinner, and an "above average" continental breakfast.  Don't expect a chocolate on your pillow or a butler to bring wine, but for the price, perfect.</t>
   </si>
   <si>
+    <t>James R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r138355809-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1907,6 +2183,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>Spatziano747</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r137727191-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1928,6 +2207,9 @@
     <t>It was a real last minute decision to stay here before a real early morning flight.  A tornado came through the DFW area and hundreds of flights were cancelled.  I knew there was going to be drama at the airport in the morning as my flight was before 6 AM so I opted to stay closer to the airport to get there early.  I'm a Hilton guy so a Hilton property is usually my # 1 choice, but due to the number of flights being cancelled everything was sold out.  I opted for the Sleep Inn.I must say, I was pleasantly surprised.  The room was super clean and the sheets were clean and soft.  I did not care for the amenities as they were low quality and made me itch, but that's minor.  The shower was nice, clean, and had a great pressure (I hate a wimpy shower).  They did offer a free breakfast, but I didn't partake.  I did grab a banana on my way out the door to grab the shuttle.  The driver was on time and really friendly (for such an early hour).  Nice guy!I've stayed at thousands of hotel in over 50 countries, so when I review I don't review lightly.  Over all, if you're looking for a quick stay at an airport location at a GREAT price, I would highly recommend this location.More</t>
   </si>
   <si>
+    <t>dianadenise</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r136522517-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1946,6 +2228,9 @@
     <t>Overall the hotel is okay. It was hard to understand the hotel clerk who spoke with a heavy accent,  It is what you would expect from a less than three star hotel.  The lobby area was functional.  The furniture was economical much like that found at budget furniture stores.  The hallway leading to the rooms was somewhat shabby.The furniture on second floor sitting area was torn. The carpeting appeared dirty and the trash cans needed cleaning.  The room was livable.  The carpet inside was frayed.  Bedding needs replacing, had cigarette burns and looked dingy. The bed was somewhat comfortable. Plenty of pillows (not real fluffy, but not flat),  The a/c works well. Free internet a plus. Continental breakfast was skimpy. Televisions could be updated.  There is a washer/dryer on site.More</t>
   </si>
   <si>
+    <t>CentralTexasBob</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r133068341-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1967,6 +2252,9 @@
     <t>Arrived around 5pm.  Room is clean enough and decent for the price.  Within 5 minutes noticed wifi doesn't work on Kindle Fire or Android cell phones -- normal home page redirect would not work.  Front desk staff was clueless -- blamed it on old router, but this is clearly an issue w/ their security setup on wireless as thier network is not using any kind of WEP or WPA encryption.  Front desk couild not offer any help, and the 24-hour wi-fi # in the room just led to voicemail.   We then decided to check out the pool -- it was nice and warm -- the only thing really good so far -- that got the second star.  However, I also noticed on info card that it a continental breakfast is served.  The choicehotels.com website said a hot breakfast was included, which even the PC in the lobby confirmed on its default home page.  The staff couldn't do anymore than tell me to call Choice corporate for their "false advertising".  If you want a hot breakfast or wi-fi on non-Windows devices then stay elsewhere.More</t>
   </si>
   <si>
+    <t>m a</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r132748767-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -1982,6 +2270,9 @@
     <t>The staff of this hotel fail to follow simple requests which caused me to miss my flight and they fail to even give a decent apology !This is a very active hotel for younger families so if you expect quiet and sleep choose a different hotel!The staff will not give wake-up calls that they promise so do not miss a $400 flight because of them like I did!The rooms are not real clean even for a lower grade hotel like this.Make a few calls and stay somewhere else for the same price and have a better experience!</t>
   </si>
   <si>
+    <t>pinkbikerider</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r131938356-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -2000,6 +2291,9 @@
     <t>sounds trite, but this time it's true.  There are lots of hotels in DFW area, but the convention I was attending was at a pricier chain.  Vicky at the front desk was friendly, helpful &amp; knew the area so getting around was easy when the GPS died!  I really liked the 'room service' full line italian restaurant service not just some chain pizza joint &amp; having a fridge &amp; micro worked great for left-overs.  Full workout room, inside pool &amp; hot tub worked the road kinks out &amp; it was spotless, as was our room. I got a great rate booking direct through Sleep Inn's website and rooms were hard to come by with race week &amp; 2 State party conventions that weekend.  The tv was good sized flat screen &amp; lots of thick towels &amp; pillows made dream time easy-it was very quiet even that close to DFW .  I look forward to staying here againMore</t>
   </si>
   <si>
+    <t>MLJ54</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r128183656-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -2018,6 +2312,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>sprintlane</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r127711713-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -2039,6 +2336,9 @@
     <t>I'm surprised by the many negative comments about this property. I assume that the Sleep Inn DFW is focussed on travellers connecting between flights at DFW Airport. SI-DFW fits the bill nicely for this purpose. I arrived very weary after a long flight (from Australia) and only wanted somewhere to stay overnight until my next flight the following morning. The hotel was clean and comfortable and the front desk staff were very pleasant. As noted by others, there are no nearby restaurants, but a multitude of 'room service' menu options is available. There is a also a nearby Burger place if you only want a quick takeout option. The airport shuttle bus was quick and comfortable. Overall, SI-DFW is  probably not the best choice if you want to explore the DFW area, but for a 'between-flights' requirement, it is hard to beat. The room rate was very reasonable.More</t>
   </si>
   <si>
+    <t>mymysmema</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r125665462-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -2054,6 +2354,9 @@
     <t>Very basic accomodations.  Worth the $49.  The area is surrounded by other motels, no place to eat withing walking distance.</t>
   </si>
   <si>
+    <t>songbird43</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r124783190-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -2072,6 +2375,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>SanityJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r123914307-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -2090,6 +2396,9 @@
     <t>The hotel was getting a paint job when I overnighting in January 2012 so the smell of fresh paint was the first thing to hit me when I entered. I had overnighted at Super 8 the weekend before and I was very impressed but I decided to try Sleep Inn for my second overnight since the rate was about the same. Here is a summary of the issues I had with Sleep Inn:The shuttle service took much longer than Super 8 even if I called as soon as I got outside the airport.The restaurant (although bigger than Super 8) was in darkness and not as easily accessible as Super 8. I had to fish around in the dark to get some teabags since I couldn't find the light switch. (I checked in at night but still earlier than I had checked in at Super 8)The room and bathroom were much smaller than Super 8 and there was no mini fridge nor microwave.The hotels are all in the same area and within walking distance of each other. The nightly rate is about the same so I would definitely recommend Super 8 over Sleep Inn.More</t>
   </si>
   <si>
+    <t>citygirlstuck</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r123159733-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -2111,6 +2420,9 @@
     <t>After our flight got canceled, we were in a line with about 50 other people, and just took the first hotel offered to us under the 'distressed passenger' program.  Wow, this was a bad idea.  Wish I would have taken a minute to look it up, but I was misled by the Sleep Inn brand, thinking it would be ok for a few hours of sleep.  After waiting almost an hour for the disgusting shuttle, we finally arrived at this nasty little hotel.  The desk clerk was very frazzled and finally got us set up in a smoking room; gross.  I swore that there were bed bugs b/c I was itching all night; kinda glad I hadn't read other reviews confirming this.  The restroom was clean, so at least I had a good shower to wash off the nasty before heading back to the airport the next morning.  Seriously, I've slept on airport floors a few times, and I wish I would have saved my $60.More</t>
   </si>
   <si>
+    <t>Kim R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r118869972-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -2129,6 +2441,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>Horaciohlr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r117936766-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -2147,6 +2462,9 @@
     <t>April 2011</t>
   </si>
   <si>
+    <t>OK-IA-TX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r117553047-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -2168,6 +2486,9 @@
     <t>I usually stay at Comfort Suites (where I have NEVER been disappointed) but this time decided to stay at a nearby Sleep Inn because the price was less and they still advertised free internet &amp; continental breakfast. This place was so depressing! I was willing to overlook the tiny spider crawling on the desk as I arrived. The ant crawling on the toilet gave me pause. But then there was the bed that looked less than perfectly made (leaving the impression that it had been pre-used)... and the dull musty feel in the air of the whole building... and the dull, stagnant looking indoor pool/sauna that caused me to re-think my plans for a swim.  And the reception - apparently a family has been hired to sit around listlessly. Never a smile or greeting - just the distinct impression that none of them wanted to be there.  First time in a long while I was genuinely glad to check out. You get what you pay for, I suppose, but for this kind of experience I could have gone to a Super 8!More</t>
   </si>
   <si>
+    <t>Nemak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r116405251-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -2189,6 +2510,9 @@
     <t>We missed our connection at the DFW airport and had a choice to spend the night at the airport or in one of the local hotels. This was the cheapest one and the cost was further reduced by a coupon from the airline due to circumstances. No complaints: free shuttle, close to the airport, internet is free, room clean and bed comfortable, indoor swimming pool available,  and ,of course, the "complimentary" breakfast. Well, you would not have any choices, -there are no breakfast places or freestanding restaurants nearby, except for a Whataburger (8 min walk). The person at the desk was acommodating and helpful. So, if you are stuck at the airport, staying here certainly beats sleeping at the airport and is financially reasonable.More</t>
   </si>
   <si>
+    <t>Belindabiddick</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r114790319-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -2210,6 +2534,9 @@
     <t>I really had no other problem with this place except that the "free parking" perk was misleading.  The only night that was free was the first one.  I had to pay $3.00 for the other nights.  It's still cheaper than the parking lots surrounding the airport but I should have been told when I called and asked about the free parking.I wouldn't spend my vacation in this hotel but it's a good place to spend while waiting for a flight.  The shuttle was great, on time, and drove us right up to the gate.  When I called on the way back, it was there by the time I got down to the street level.More</t>
   </si>
   <si>
+    <t>pjm55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r110030966-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -2222,6 +2549,9 @@
     <t>My husband and I stayed here twice - one at the beginning of a vacation and once at the end.  Both times were very satisfactory and we felt that we'd gotten a good bargain.  The rooms were clean and the front end staff were particularly helpful (Chris and Ashton).  They both went out of their way to give us useful advice - when to schedule the airport van, which take out restaurants were good, etc..  We were very satisfied.</t>
   </si>
   <si>
+    <t>latenights</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r97331501-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -2240,6 +2570,9 @@
     <t>January 2011</t>
   </si>
   <si>
+    <t>freddy82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r70845880-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -2258,6 +2591,9 @@
     <t>July 2010</t>
   </si>
   <si>
+    <t>jeanasalman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r48090971-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -2279,6 +2615,9 @@
     <t>I used my mobile phone to check kayak.com for local hotel rates.  First, I called the Comfort Inn and the guy at the desk refused to match any of the rates I saw online, even the ones that didn't indicate internet-only.  I hung up and called the Sleep Inn.  They happily matched the rate online and sent a speedy shuttle to pick us up.  The shuttle driver was kind enough to go through a drive through for us since we hadn't eaten all day.  Check-in was quick.  Room was clean.  Wake up call right on time.  Good continental breakfast spread.  What more can you want when you're forced to find a place to stay the night at midnight?More</t>
   </si>
   <si>
+    <t>hshshshshsh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r11102846-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -2294,6 +2633,9 @@
     <t>November 2007</t>
   </si>
   <si>
+    <t>alira</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r8097190-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -2309,6 +2651,9 @@
     <t>The hotel was fine-- good size, clean, loved the shuttle.But if you arrive, as I did, without a car, be aware-- there is no restaurant nearby.  I had to walk on a busy overpass to get to an unpleasant Denny's for dinner.  The Westin and Holiday Inn (across the overpass) both have restaurants. Just be aware that you need a car if youstay here, or a willingness to walk aways in the Texas sun.That said, the Holiday Inn has a very nice happy hour!  Free food!</t>
   </si>
   <si>
+    <t>cinzian</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r7987775-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -2330,6 +2675,9 @@
     <t>Room 129, which the hotel clerk announced as we were handed our keys, reeked of mildew upon entrance.  Whatever Febreeze product they used couldn't cover it up.  We had just come from friends fighting a similar situation and recognized it immediately.  No other room was available, and we needed to sleep immediately, so we covered our faces with the sheets and blasted the air conditioner for our 6 hours of sleep/layover.  The smell was still there in the morning when I pulled the sheet from my face.Also, the airport COURTESY VAN signs really are problematic at the airport.  They are at extreme ends of the terminals--we couldn't see them from the baggage claim area.  It'd help if the desk clerk had been more specific rather than speaking in generalities.  I doubt that they've been to the airport or know the set-up.More</t>
   </si>
   <si>
+    <t>Laura G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r3278443-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -2345,6 +2693,9 @@
     <t>We recently stayed here and had no problems with it at all. The rooms are clean and spacious. It is very close to DFW. The 24 hour shuttle was very convenient. They have great park and fly rates. The service was fine. Can't really expect much from a budget chain hotel, so there shouldn't be much to complain about. Would recommend it if you just want a place to sleep, which is usually the case if you are staying close to DFW.</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r2842278-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
   </si>
   <si>
@@ -2361,6 +2712,9 @@
   </si>
   <si>
     <t>I travel at least one week per month.  Upon arriving, Matthew at the front desk was dressed in plain clothes, doing homework.  No name tag, his shirt looked like he had slept in it, he looked as if he had walked in off the street and went to work, unprofessional.  I had to wait on him to finish the portion of his homework before checking in.  The room wasn't deodorized and smelled of smoke.  For one night it was OK, the park-and-fly rate was good; however, I wouldn't stay here again.  I don't ask for much from a Choice brand motel/hotel; however, I do expect the staff to be professionally dressed and paying attention to their job duties and not their classroom duties.More</t>
+  </si>
+  <si>
+    <t>LynnB_Huntsville_AL</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109054-r2575257-Sleep_Inn_DFW_Airport-Irving_Texas.html</t>
@@ -2883,43 +3237,47 @@
       <c r="A2" t="n">
         <v>37757</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>177413</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2935,47 +3293,51 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37757</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>177414</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
@@ -2992,56 +3354,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37757</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>159666</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3057,56 +3423,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37757</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>177415</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3126,50 +3496,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37757</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>3848</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3189,50 +3563,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37757</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>6416</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3246,50 +3624,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37757</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>177416</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -3309,50 +3691,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37757</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>177417</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -3372,50 +3758,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37757</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>99352</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3433,50 +3823,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37757</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>67277</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3490,50 +3884,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37757</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>177418</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3547,50 +3945,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37757</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>177419</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -3610,50 +4012,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37757</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>177420</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="O14" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -3673,50 +4079,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37757</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>31775</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="O15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3730,50 +4140,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37757</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>177421</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="O16" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -3793,50 +4207,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37757</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>177422</v>
+      </c>
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="O17" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3848,56 +4266,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="X17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="Y17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37757</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>177423</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="J18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="K18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="O18" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3911,50 +4333,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37757</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>177424</v>
+      </c>
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -3972,56 +4398,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="X19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="Y19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37757</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>22691</v>
+      </c>
+      <c r="C20" t="s">
+        <v>188</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="J20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="O20" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -4039,50 +4469,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37757</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>177425</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="J21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="O21" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4096,50 +4530,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37757</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>177426</v>
+      </c>
+      <c r="C22" t="s">
+        <v>200</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="J22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="K22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="O22" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4153,50 +4591,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37757</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>102795</v>
+      </c>
+      <c r="C23" t="s">
+        <v>206</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="J23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="K23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -4216,50 +4658,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37757</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>177427</v>
+      </c>
+      <c r="C24" t="s">
+        <v>213</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="J24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="K24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="O24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4271,56 +4717,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="X24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="Y24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37757</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>6744</v>
+      </c>
+      <c r="C25" t="s">
+        <v>223</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="J25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="K25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="L25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4334,50 +4784,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37757</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>177428</v>
+      </c>
+      <c r="C26" t="s">
+        <v>230</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="J26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="K26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="L26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="O26" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4391,50 +4845,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37757</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>5577</v>
+      </c>
+      <c r="C27" t="s">
+        <v>236</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="J27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="K27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4448,50 +4906,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37757</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>177429</v>
+      </c>
+      <c r="C28" t="s">
+        <v>242</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="J28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="K28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4505,50 +4967,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37757</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>12976</v>
+      </c>
+      <c r="C29" t="s">
+        <v>249</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="J29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="K29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="O29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4566,50 +5032,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37757</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>177430</v>
+      </c>
+      <c r="C30" t="s">
+        <v>257</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="J30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="K30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4629,50 +5099,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37757</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>177431</v>
+      </c>
+      <c r="C31" t="s">
+        <v>264</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="J31" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="K31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4690,50 +5164,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37757</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>177432</v>
+      </c>
+      <c r="C32" t="s">
+        <v>272</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="J32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="K32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="O32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4753,50 +5231,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37757</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>177433</v>
+      </c>
+      <c r="C33" t="s">
+        <v>280</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="J33" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="K33" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="O33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4814,50 +5296,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37757</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>177434</v>
+      </c>
+      <c r="C34" t="s">
+        <v>286</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="J34" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="K34" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="O34" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4877,50 +5363,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37757</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>177435</v>
+      </c>
+      <c r="C35" t="s">
+        <v>292</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="J35" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="K35" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="L35" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="O35" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4938,41 +5428,45 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37757</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>177436</v>
+      </c>
+      <c r="C36" t="s">
+        <v>299</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="J36" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="K36" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="L36" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
@@ -4991,50 +5485,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37757</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>177437</v>
+      </c>
+      <c r="C37" t="s">
+        <v>305</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="J37" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="K37" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="L37" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="O37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5048,50 +5546,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37757</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>177438</v>
+      </c>
+      <c r="C38" t="s">
+        <v>311</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="J38" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="K38" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="L38" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="O38" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -5109,50 +5611,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37757</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>60767</v>
+      </c>
+      <c r="C39" t="s">
+        <v>318</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="J39" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="K39" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="L39" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5170,50 +5676,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37757</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>8062</v>
+      </c>
+      <c r="C40" t="s">
+        <v>325</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="J40" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="K40" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="L40" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5233,50 +5743,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37757</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>177439</v>
+      </c>
+      <c r="C41" t="s">
+        <v>331</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="J41" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="K41" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="L41" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="O41" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5290,50 +5804,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37757</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>177440</v>
+      </c>
+      <c r="C42" t="s">
+        <v>338</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="J42" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="K42" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="L42" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5353,50 +5871,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37757</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>177441</v>
+      </c>
+      <c r="C43" t="s">
+        <v>345</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="J43" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="K43" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="L43" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="O43" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -5416,50 +5938,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37757</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>177442</v>
+      </c>
+      <c r="C44" t="s">
+        <v>352</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="J44" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="K44" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="L44" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="O44" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -5479,50 +6005,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37757</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>177443</v>
+      </c>
+      <c r="C45" t="s">
+        <v>360</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="J45" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="K45" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="L45" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="O45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5542,50 +6072,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37757</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>177444</v>
+      </c>
+      <c r="C46" t="s">
+        <v>366</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="J46" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="K46" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="L46" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="O46" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5605,50 +6139,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37757</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>177445</v>
+      </c>
+      <c r="C47" t="s">
+        <v>373</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="J47" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="K47" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="L47" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="O47" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5668,50 +6206,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37757</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>209</v>
+      </c>
+      <c r="C48" t="s">
+        <v>381</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="J48" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="K48" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="L48" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="O48" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5731,50 +6273,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>37757</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>177446</v>
+      </c>
+      <c r="C49" t="s">
+        <v>387</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="J49" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="K49" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="L49" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="O49" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5794,50 +6340,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>37757</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>177447</v>
+      </c>
+      <c r="C50" t="s">
+        <v>394</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>346</v>
+        <v>395</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
       <c r="J50" t="s">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="K50" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="O50" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5851,50 +6401,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>37757</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>177448</v>
+      </c>
+      <c r="C51" t="s">
+        <v>401</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="J51" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="K51" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="L51" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="O51" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5908,50 +6462,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>37757</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>39389</v>
+      </c>
+      <c r="C52" t="s">
+        <v>407</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>357</v>
+        <v>408</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>358</v>
+        <v>409</v>
       </c>
       <c r="J52" t="s">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="K52" t="s">
-        <v>360</v>
+        <v>411</v>
       </c>
       <c r="L52" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -5971,50 +6529,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>37757</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>177449</v>
+      </c>
+      <c r="C53" t="s">
+        <v>414</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
       <c r="J53" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="K53" t="s">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="L53" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6028,50 +6590,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>37757</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>177450</v>
+      </c>
+      <c r="C54" t="s">
+        <v>421</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="J54" t="s">
-        <v>371</v>
+        <v>424</v>
       </c>
       <c r="K54" t="s">
-        <v>372</v>
+        <v>425</v>
       </c>
       <c r="L54" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="n">
@@ -6089,50 +6655,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>37757</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>177451</v>
+      </c>
+      <c r="C55" t="s">
+        <v>429</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="J55" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="K55" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="L55" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="O55" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -6152,50 +6722,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>37757</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>12779</v>
+      </c>
+      <c r="C56" t="s">
+        <v>435</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="J56" t="s">
-        <v>383</v>
+        <v>438</v>
       </c>
       <c r="K56" t="s">
-        <v>384</v>
+        <v>439</v>
       </c>
       <c r="L56" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
       <c r="O56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6215,50 +6789,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>37757</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>177452</v>
+      </c>
+      <c r="C57" t="s">
+        <v>442</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="J57" t="s">
-        <v>389</v>
+        <v>445</v>
       </c>
       <c r="K57" t="s">
-        <v>390</v>
+        <v>446</v>
       </c>
       <c r="L57" t="s">
-        <v>391</v>
+        <v>447</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
       <c r="O57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="n">
@@ -6278,50 +6856,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>391</v>
+        <v>447</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>37757</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>177453</v>
+      </c>
+      <c r="C58" t="s">
+        <v>448</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="J58" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="K58" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="L58" t="s">
-        <v>396</v>
+        <v>453</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
       <c r="O58" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6335,50 +6917,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>396</v>
+        <v>453</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>37757</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>177454</v>
+      </c>
+      <c r="C59" t="s">
+        <v>454</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="J59" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="K59" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="L59" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -6398,50 +6984,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>402</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>37757</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>177455</v>
+      </c>
+      <c r="C60" t="s">
+        <v>461</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>403</v>
+        <v>462</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>404</v>
+        <v>463</v>
       </c>
       <c r="J60" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="K60" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="L60" t="s">
-        <v>407</v>
+        <v>466</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="O60" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6459,50 +7049,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>407</v>
+        <v>466</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>37757</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>177456</v>
+      </c>
+      <c r="C61" t="s">
+        <v>467</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>408</v>
+        <v>468</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="J61" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="K61" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="L61" t="s">
-        <v>412</v>
+        <v>472</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="O61" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6516,50 +7110,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>37757</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>8981</v>
+      </c>
+      <c r="C62" t="s">
+        <v>474</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>414</v>
+        <v>475</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
       <c r="J62" t="s">
-        <v>416</v>
+        <v>477</v>
       </c>
       <c r="K62" t="s">
-        <v>417</v>
+        <v>478</v>
       </c>
       <c r="L62" t="s">
-        <v>418</v>
+        <v>479</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>419</v>
+        <v>480</v>
       </c>
       <c r="O62" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6579,41 +7177,45 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>418</v>
+        <v>479</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>37757</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>177457</v>
+      </c>
+      <c r="C63" t="s">
+        <v>481</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>420</v>
+        <v>482</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>421</v>
+        <v>483</v>
       </c>
       <c r="J63" t="s">
-        <v>422</v>
+        <v>484</v>
       </c>
       <c r="K63" t="s">
-        <v>423</v>
+        <v>485</v>
       </c>
       <c r="L63" t="s">
-        <v>424</v>
+        <v>486</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
@@ -6642,41 +7244,45 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>424</v>
+        <v>486</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>37757</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>177458</v>
+      </c>
+      <c r="C64" t="s">
+        <v>487</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>425</v>
+        <v>488</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>426</v>
+        <v>489</v>
       </c>
       <c r="J64" t="s">
-        <v>427</v>
+        <v>490</v>
       </c>
       <c r="K64" t="s">
-        <v>428</v>
+        <v>491</v>
       </c>
       <c r="L64" t="s">
-        <v>429</v>
+        <v>492</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
@@ -6705,50 +7311,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>429</v>
+        <v>492</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>37757</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>177459</v>
+      </c>
+      <c r="C65" t="s">
+        <v>493</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>430</v>
+        <v>494</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>431</v>
+        <v>495</v>
       </c>
       <c r="J65" t="s">
-        <v>432</v>
+        <v>496</v>
       </c>
       <c r="K65" t="s">
-        <v>433</v>
+        <v>497</v>
       </c>
       <c r="L65" t="s">
-        <v>434</v>
+        <v>498</v>
       </c>
       <c r="M65" t="n">
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>435</v>
+        <v>499</v>
       </c>
       <c r="O65" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6762,50 +7372,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>434</v>
+        <v>498</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>37757</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>28553</v>
+      </c>
+      <c r="C66" t="s">
+        <v>500</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>436</v>
+        <v>501</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>437</v>
+        <v>502</v>
       </c>
       <c r="J66" t="s">
-        <v>438</v>
+        <v>503</v>
       </c>
       <c r="K66" t="s">
-        <v>439</v>
+        <v>504</v>
       </c>
       <c r="L66" t="s">
-        <v>440</v>
+        <v>505</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>435</v>
+        <v>499</v>
       </c>
       <c r="O66" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -6819,50 +7433,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>441</v>
+        <v>506</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>37757</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>177460</v>
+      </c>
+      <c r="C67" t="s">
+        <v>507</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>442</v>
+        <v>508</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>443</v>
+        <v>509</v>
       </c>
       <c r="J67" t="s">
-        <v>444</v>
+        <v>510</v>
       </c>
       <c r="K67" t="s">
-        <v>445</v>
+        <v>511</v>
       </c>
       <c r="L67" t="s">
-        <v>446</v>
+        <v>512</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6882,50 +7500,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>446</v>
+        <v>512</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>37757</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>177461</v>
+      </c>
+      <c r="C68" t="s">
+        <v>514</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>448</v>
+        <v>515</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>449</v>
+        <v>516</v>
       </c>
       <c r="J68" t="s">
-        <v>450</v>
+        <v>517</v>
       </c>
       <c r="K68" t="s">
-        <v>451</v>
+        <v>518</v>
       </c>
       <c r="L68" t="s">
-        <v>452</v>
+        <v>519</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="O68" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6939,50 +7561,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>452</v>
+        <v>519</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>37757</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>177462</v>
+      </c>
+      <c r="C69" t="s">
+        <v>521</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>454</v>
+        <v>522</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>455</v>
+        <v>523</v>
       </c>
       <c r="J69" t="s">
-        <v>456</v>
+        <v>524</v>
       </c>
       <c r="K69" t="s">
-        <v>457</v>
+        <v>525</v>
       </c>
       <c r="L69" t="s">
-        <v>458</v>
+        <v>526</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="O69" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7000,56 +7626,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>459</v>
+        <v>527</v>
       </c>
       <c r="X69" t="s">
-        <v>460</v>
+        <v>528</v>
       </c>
       <c r="Y69" t="s">
-        <v>461</v>
+        <v>529</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>37757</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>177463</v>
+      </c>
+      <c r="C70" t="s">
+        <v>530</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>462</v>
+        <v>531</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>463</v>
+        <v>532</v>
       </c>
       <c r="J70" t="s">
-        <v>464</v>
+        <v>533</v>
       </c>
       <c r="K70" t="s">
-        <v>465</v>
+        <v>534</v>
       </c>
       <c r="L70" t="s">
-        <v>466</v>
+        <v>535</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>467</v>
+        <v>536</v>
       </c>
       <c r="O70" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -7069,50 +7699,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>468</v>
+        <v>537</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>37757</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>623</v>
+      </c>
+      <c r="C71" t="s">
+        <v>538</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>469</v>
+        <v>539</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="J71" t="s">
-        <v>471</v>
+        <v>541</v>
       </c>
       <c r="K71" t="s">
-        <v>472</v>
+        <v>542</v>
       </c>
       <c r="L71" t="s">
-        <v>473</v>
+        <v>543</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>474</v>
+        <v>544</v>
       </c>
       <c r="O71" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -7136,50 +7770,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>473</v>
+        <v>543</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>37757</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>17425</v>
+      </c>
+      <c r="C72" t="s">
+        <v>545</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>475</v>
+        <v>546</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>476</v>
+        <v>547</v>
       </c>
       <c r="J72" t="s">
-        <v>477</v>
+        <v>548</v>
       </c>
       <c r="K72" t="s">
-        <v>478</v>
+        <v>549</v>
       </c>
       <c r="L72" t="s">
-        <v>479</v>
+        <v>550</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>480</v>
+        <v>551</v>
       </c>
       <c r="O72" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7203,50 +7841,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>481</v>
+        <v>552</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>37757</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>177464</v>
+      </c>
+      <c r="C73" t="s">
+        <v>553</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>482</v>
+        <v>554</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>483</v>
+        <v>555</v>
       </c>
       <c r="J73" t="s">
-        <v>484</v>
+        <v>556</v>
       </c>
       <c r="K73" t="s">
-        <v>485</v>
+        <v>557</v>
       </c>
       <c r="L73" t="s">
-        <v>486</v>
+        <v>558</v>
       </c>
       <c r="M73" t="n">
         <v>2</v>
       </c>
       <c r="N73" t="s">
-        <v>487</v>
+        <v>559</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>2</v>
@@ -7270,50 +7912,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>488</v>
+        <v>560</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>37757</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>177465</v>
+      </c>
+      <c r="C74" t="s">
+        <v>561</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>489</v>
+        <v>562</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>490</v>
+        <v>563</v>
       </c>
       <c r="J74" t="s">
-        <v>491</v>
+        <v>564</v>
       </c>
       <c r="K74" t="s">
-        <v>492</v>
+        <v>565</v>
       </c>
       <c r="L74" t="s">
-        <v>493</v>
+        <v>566</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>494</v>
+        <v>567</v>
       </c>
       <c r="O74" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P74" t="n">
         <v>1</v>
@@ -7337,50 +7983,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>495</v>
+        <v>568</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>37757</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>28063</v>
+      </c>
+      <c r="C75" t="s">
+        <v>569</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>496</v>
+        <v>570</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>497</v>
+        <v>571</v>
       </c>
       <c r="J75" t="s">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="K75" t="s">
-        <v>499</v>
+        <v>573</v>
       </c>
       <c r="L75" t="s">
-        <v>500</v>
+        <v>574</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>487</v>
+        <v>559</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7404,50 +8054,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>500</v>
+        <v>574</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>37757</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>2984</v>
+      </c>
+      <c r="C76" t="s">
+        <v>575</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>501</v>
+        <v>576</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>502</v>
+        <v>577</v>
       </c>
       <c r="J76" t="s">
-        <v>503</v>
+        <v>578</v>
       </c>
       <c r="K76" t="s">
-        <v>504</v>
+        <v>579</v>
       </c>
       <c r="L76" t="s">
-        <v>505</v>
+        <v>580</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>487</v>
+        <v>559</v>
       </c>
       <c r="O76" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7471,50 +8125,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>505</v>
+        <v>580</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>37757</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>177466</v>
+      </c>
+      <c r="C77" t="s">
+        <v>581</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>506</v>
+        <v>582</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>507</v>
+        <v>583</v>
       </c>
       <c r="J77" t="s">
-        <v>508</v>
+        <v>584</v>
       </c>
       <c r="K77" t="s">
-        <v>509</v>
+        <v>585</v>
       </c>
       <c r="L77" t="s">
-        <v>510</v>
+        <v>586</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>480</v>
+        <v>551</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7538,50 +8196,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>510</v>
+        <v>586</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>37757</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>177414</v>
+      </c>
+      <c r="C78" t="s">
+        <v>78</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>511</v>
+        <v>587</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>512</v>
+        <v>588</v>
       </c>
       <c r="J78" t="s">
-        <v>513</v>
+        <v>589</v>
       </c>
       <c r="K78" t="s">
-        <v>514</v>
+        <v>590</v>
       </c>
       <c r="L78" t="s">
-        <v>515</v>
+        <v>591</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>480</v>
+        <v>551</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -7605,50 +8267,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>515</v>
+        <v>591</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>37757</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>177467</v>
+      </c>
+      <c r="C79" t="s">
+        <v>592</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>516</v>
+        <v>593</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>517</v>
+        <v>594</v>
       </c>
       <c r="J79" t="s">
-        <v>518</v>
+        <v>595</v>
       </c>
       <c r="K79" t="s">
-        <v>519</v>
+        <v>596</v>
       </c>
       <c r="L79" t="s">
-        <v>520</v>
+        <v>597</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>480</v>
+        <v>551</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7672,50 +8338,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>521</v>
+        <v>598</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>37757</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>177468</v>
+      </c>
+      <c r="C80" t="s">
+        <v>599</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>522</v>
+        <v>600</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="J80" t="s">
-        <v>524</v>
+        <v>602</v>
       </c>
       <c r="K80" t="s">
-        <v>525</v>
+        <v>603</v>
       </c>
       <c r="L80" t="s">
-        <v>526</v>
+        <v>604</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>527</v>
+        <v>605</v>
       </c>
       <c r="O80" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7739,50 +8409,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>526</v>
+        <v>604</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>37757</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>177469</v>
+      </c>
+      <c r="C81" t="s">
+        <v>606</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>528</v>
+        <v>607</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>529</v>
+        <v>608</v>
       </c>
       <c r="J81" t="s">
-        <v>530</v>
+        <v>609</v>
       </c>
       <c r="K81" t="s">
-        <v>531</v>
+        <v>610</v>
       </c>
       <c r="L81" t="s">
-        <v>532</v>
+        <v>611</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>533</v>
+        <v>612</v>
       </c>
       <c r="O81" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7806,50 +8480,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>534</v>
+        <v>613</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>37757</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>6276</v>
+      </c>
+      <c r="C82" t="s">
+        <v>614</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>535</v>
+        <v>615</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>536</v>
+        <v>616</v>
       </c>
       <c r="J82" t="s">
-        <v>537</v>
+        <v>617</v>
       </c>
       <c r="K82" t="s">
-        <v>538</v>
+        <v>618</v>
       </c>
       <c r="L82" t="s">
-        <v>539</v>
+        <v>619</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>540</v>
+        <v>620</v>
       </c>
       <c r="O82" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P82" t="s"/>
       <c r="Q82" t="s"/>
@@ -7863,50 +8541,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>541</v>
+        <v>621</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>37757</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>177470</v>
+      </c>
+      <c r="C83" t="s">
+        <v>622</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>542</v>
+        <v>623</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>543</v>
+        <v>624</v>
       </c>
       <c r="J83" t="s">
-        <v>544</v>
+        <v>625</v>
       </c>
       <c r="K83" t="s">
-        <v>545</v>
+        <v>626</v>
       </c>
       <c r="L83" t="s">
-        <v>546</v>
+        <v>627</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>547</v>
+        <v>628</v>
       </c>
       <c r="O83" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="s"/>
@@ -7920,50 +8602,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>546</v>
+        <v>627</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>37757</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C84" t="s">
+        <v>629</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>548</v>
+        <v>630</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>549</v>
+        <v>631</v>
       </c>
       <c r="J84" t="s">
-        <v>550</v>
+        <v>632</v>
       </c>
       <c r="K84" t="s">
-        <v>551</v>
+        <v>633</v>
       </c>
       <c r="L84" t="s">
-        <v>552</v>
+        <v>634</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>553</v>
+        <v>635</v>
       </c>
       <c r="O84" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -7987,50 +8673,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>552</v>
+        <v>634</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>37757</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>177471</v>
+      </c>
+      <c r="C85" t="s">
+        <v>636</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>554</v>
+        <v>637</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>555</v>
+        <v>638</v>
       </c>
       <c r="J85" t="s">
-        <v>556</v>
+        <v>639</v>
       </c>
       <c r="K85" t="s">
-        <v>557</v>
+        <v>640</v>
       </c>
       <c r="L85" t="s">
-        <v>558</v>
+        <v>641</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>559</v>
+        <v>642</v>
       </c>
       <c r="O85" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8052,47 +8742,51 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>560</v>
+        <v>643</v>
       </c>
       <c r="X85" t="s">
-        <v>561</v>
+        <v>644</v>
       </c>
       <c r="Y85" t="s">
-        <v>562</v>
+        <v>645</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>37757</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>29189</v>
+      </c>
+      <c r="C86" t="s">
+        <v>646</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>563</v>
+        <v>647</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>564</v>
+        <v>648</v>
       </c>
       <c r="J86" t="s">
-        <v>565</v>
+        <v>649</v>
       </c>
       <c r="K86" t="s">
-        <v>566</v>
+        <v>650</v>
       </c>
       <c r="L86" t="s">
-        <v>567</v>
+        <v>651</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
@@ -8121,50 +8815,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>567</v>
+        <v>651</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>37757</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>3901</v>
+      </c>
+      <c r="C87" t="s">
+        <v>652</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>568</v>
+        <v>653</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>569</v>
+        <v>654</v>
       </c>
       <c r="J87" t="s">
-        <v>570</v>
+        <v>655</v>
       </c>
       <c r="K87" t="s">
-        <v>571</v>
+        <v>656</v>
       </c>
       <c r="L87" t="s">
-        <v>572</v>
+        <v>657</v>
       </c>
       <c r="M87" t="n">
         <v>2</v>
       </c>
       <c r="N87" t="s">
-        <v>547</v>
+        <v>628</v>
       </c>
       <c r="O87" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P87" t="n">
         <v>3</v>
@@ -8188,50 +8886,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>572</v>
+        <v>657</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>37757</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>66303</v>
+      </c>
+      <c r="C88" t="s">
+        <v>658</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>573</v>
+        <v>659</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>574</v>
+        <v>660</v>
       </c>
       <c r="J88" t="s">
-        <v>575</v>
+        <v>661</v>
       </c>
       <c r="K88" t="s">
-        <v>576</v>
+        <v>662</v>
       </c>
       <c r="L88" t="s">
-        <v>577</v>
+        <v>663</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>578</v>
+        <v>664</v>
       </c>
       <c r="O88" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8255,50 +8957,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>579</v>
+        <v>665</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>37757</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>177472</v>
+      </c>
+      <c r="C89" t="s">
+        <v>666</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>580</v>
+        <v>667</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>581</v>
+        <v>668</v>
       </c>
       <c r="J89" t="s">
-        <v>582</v>
+        <v>669</v>
       </c>
       <c r="K89" t="s">
-        <v>583</v>
+        <v>670</v>
       </c>
       <c r="L89" t="s">
-        <v>584</v>
+        <v>671</v>
       </c>
       <c r="M89" t="n">
         <v>3</v>
       </c>
       <c r="N89" t="s">
-        <v>547</v>
+        <v>628</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>3</v>
@@ -8322,50 +9028,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>585</v>
+        <v>672</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>37757</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>177473</v>
+      </c>
+      <c r="C90" t="s">
+        <v>673</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>586</v>
+        <v>674</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>587</v>
+        <v>675</v>
       </c>
       <c r="J90" t="s">
-        <v>588</v>
+        <v>676</v>
       </c>
       <c r="K90" t="s">
-        <v>589</v>
+        <v>677</v>
       </c>
       <c r="L90" t="s">
-        <v>590</v>
+        <v>678</v>
       </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
       <c r="N90" t="s">
-        <v>591</v>
+        <v>679</v>
       </c>
       <c r="O90" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P90" t="n">
         <v>3</v>
@@ -8389,50 +9099,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>590</v>
+        <v>678</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>37757</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>177470</v>
+      </c>
+      <c r="C91" t="s">
+        <v>636</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>592</v>
+        <v>680</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>593</v>
+        <v>681</v>
       </c>
       <c r="J91" t="s">
-        <v>594</v>
+        <v>682</v>
       </c>
       <c r="K91" t="s">
-        <v>595</v>
+        <v>683</v>
       </c>
       <c r="L91" t="s">
-        <v>596</v>
+        <v>684</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>591</v>
+        <v>679</v>
       </c>
       <c r="O91" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8456,50 +9170,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>597</v>
+        <v>685</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>37757</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>89526</v>
+      </c>
+      <c r="C92" t="s">
+        <v>686</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>598</v>
+        <v>687</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>599</v>
+        <v>688</v>
       </c>
       <c r="J92" t="s">
-        <v>600</v>
+        <v>689</v>
       </c>
       <c r="K92" t="s">
-        <v>601</v>
+        <v>690</v>
       </c>
       <c r="L92" t="s">
-        <v>602</v>
+        <v>691</v>
       </c>
       <c r="M92" t="n">
         <v>2</v>
       </c>
       <c r="N92" t="s">
-        <v>603</v>
+        <v>692</v>
       </c>
       <c r="O92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P92" t="n">
         <v>2</v>
@@ -8523,50 +9241,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>604</v>
+        <v>693</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>37757</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>177474</v>
+      </c>
+      <c r="C93" t="s">
+        <v>694</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>605</v>
+        <v>695</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>606</v>
+        <v>696</v>
       </c>
       <c r="J93" t="s">
-        <v>607</v>
+        <v>697</v>
       </c>
       <c r="K93" t="s">
-        <v>608</v>
+        <v>698</v>
       </c>
       <c r="L93" t="s">
-        <v>609</v>
+        <v>699</v>
       </c>
       <c r="M93" t="n">
         <v>2</v>
       </c>
       <c r="N93" t="s">
-        <v>603</v>
+        <v>692</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -8590,50 +9312,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>609</v>
+        <v>699</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>37757</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>95016</v>
+      </c>
+      <c r="C94" t="s">
+        <v>700</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>610</v>
+        <v>701</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>611</v>
+        <v>702</v>
       </c>
       <c r="J94" t="s">
-        <v>612</v>
+        <v>703</v>
       </c>
       <c r="K94" t="s">
-        <v>613</v>
+        <v>704</v>
       </c>
       <c r="L94" t="s">
-        <v>614</v>
+        <v>705</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>603</v>
+        <v>692</v>
       </c>
       <c r="O94" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8657,50 +9383,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>614</v>
+        <v>705</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>37757</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>2768</v>
+      </c>
+      <c r="C95" t="s">
+        <v>706</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>615</v>
+        <v>707</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>616</v>
+        <v>708</v>
       </c>
       <c r="J95" t="s">
-        <v>617</v>
+        <v>709</v>
       </c>
       <c r="K95" t="s">
-        <v>618</v>
+        <v>710</v>
       </c>
       <c r="L95" t="s">
-        <v>619</v>
+        <v>711</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>620</v>
+        <v>712</v>
       </c>
       <c r="O95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -8724,50 +9454,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>619</v>
+        <v>711</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>37757</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>177475</v>
+      </c>
+      <c r="C96" t="s">
+        <v>713</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>621</v>
+        <v>714</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>622</v>
+        <v>715</v>
       </c>
       <c r="J96" t="s">
-        <v>623</v>
+        <v>716</v>
       </c>
       <c r="K96" t="s">
-        <v>624</v>
+        <v>717</v>
       </c>
       <c r="L96" t="s">
-        <v>625</v>
+        <v>718</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>626</v>
+        <v>719</v>
       </c>
       <c r="O96" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -8791,50 +9525,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>627</v>
+        <v>720</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>37757</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>177476</v>
+      </c>
+      <c r="C97" t="s">
+        <v>721</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>628</v>
+        <v>722</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>629</v>
+        <v>723</v>
       </c>
       <c r="J97" t="s">
-        <v>630</v>
+        <v>724</v>
       </c>
       <c r="K97" t="s">
-        <v>631</v>
+        <v>725</v>
       </c>
       <c r="L97" t="s">
-        <v>632</v>
+        <v>726</v>
       </c>
       <c r="M97" t="n">
         <v>3</v>
       </c>
       <c r="N97" t="s">
-        <v>620</v>
+        <v>712</v>
       </c>
       <c r="O97" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P97" t="n">
         <v>3</v>
@@ -8858,50 +9596,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>633</v>
+        <v>727</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>37757</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>177477</v>
+      </c>
+      <c r="C98" t="s">
+        <v>728</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>634</v>
+        <v>729</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>635</v>
+        <v>730</v>
       </c>
       <c r="J98" t="s">
-        <v>636</v>
+        <v>731</v>
       </c>
       <c r="K98" t="s">
-        <v>637</v>
+        <v>732</v>
       </c>
       <c r="L98" t="s">
-        <v>638</v>
+        <v>733</v>
       </c>
       <c r="M98" t="n">
         <v>2</v>
       </c>
       <c r="N98" t="s">
-        <v>639</v>
+        <v>734</v>
       </c>
       <c r="O98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P98" t="n">
         <v>3</v>
@@ -8925,50 +9667,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>640</v>
+        <v>735</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>37757</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>177478</v>
+      </c>
+      <c r="C99" t="s">
+        <v>736</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>641</v>
+        <v>737</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>642</v>
+        <v>738</v>
       </c>
       <c r="J99" t="s">
-        <v>643</v>
+        <v>739</v>
       </c>
       <c r="K99" t="s">
-        <v>644</v>
+        <v>740</v>
       </c>
       <c r="L99" t="s">
-        <v>645</v>
+        <v>741</v>
       </c>
       <c r="M99" t="n">
         <v>2</v>
       </c>
       <c r="N99" t="s">
-        <v>639</v>
+        <v>734</v>
       </c>
       <c r="O99" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P99" t="n">
         <v>3</v>
@@ -8992,50 +9738,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>645</v>
+        <v>741</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>37757</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>177479</v>
+      </c>
+      <c r="C100" t="s">
+        <v>742</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>646</v>
+        <v>743</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>647</v>
+        <v>744</v>
       </c>
       <c r="J100" t="s">
-        <v>648</v>
+        <v>745</v>
       </c>
       <c r="K100" t="s">
-        <v>649</v>
+        <v>746</v>
       </c>
       <c r="L100" t="s">
-        <v>650</v>
+        <v>747</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>639</v>
+        <v>734</v>
       </c>
       <c r="O100" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9059,50 +9809,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>651</v>
+        <v>748</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>37757</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>177480</v>
+      </c>
+      <c r="C101" t="s">
+        <v>749</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>652</v>
+        <v>750</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>653</v>
+        <v>751</v>
       </c>
       <c r="J101" t="s">
-        <v>654</v>
+        <v>752</v>
       </c>
       <c r="K101" t="s">
-        <v>655</v>
+        <v>753</v>
       </c>
       <c r="L101" t="s">
-        <v>656</v>
+        <v>754</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>657</v>
+        <v>755</v>
       </c>
       <c r="O101" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9126,50 +9880,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>656</v>
+        <v>754</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>37757</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>177481</v>
+      </c>
+      <c r="C102" t="s">
+        <v>756</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>658</v>
+        <v>757</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>659</v>
+        <v>758</v>
       </c>
       <c r="J102" t="s">
-        <v>660</v>
+        <v>759</v>
       </c>
       <c r="K102" t="s">
-        <v>661</v>
+        <v>760</v>
       </c>
       <c r="L102" t="s">
-        <v>662</v>
+        <v>761</v>
       </c>
       <c r="M102" t="n">
         <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>663</v>
+        <v>762</v>
       </c>
       <c r="O102" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P102" t="n">
         <v>4</v>
@@ -9193,50 +9951,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>664</v>
+        <v>763</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>37757</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>42252</v>
+      </c>
+      <c r="C103" t="s">
+        <v>764</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>665</v>
+        <v>765</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>666</v>
+        <v>766</v>
       </c>
       <c r="J103" t="s">
-        <v>667</v>
+        <v>767</v>
       </c>
       <c r="K103" t="s">
-        <v>668</v>
+        <v>768</v>
       </c>
       <c r="L103" t="s">
-        <v>669</v>
+        <v>769</v>
       </c>
       <c r="M103" t="n">
         <v>3</v>
       </c>
       <c r="N103" t="s">
-        <v>663</v>
+        <v>762</v>
       </c>
       <c r="O103" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P103" t="n">
         <v>3</v>
@@ -9260,50 +10022,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>669</v>
+        <v>769</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>37757</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>177482</v>
+      </c>
+      <c r="C104" t="s">
+        <v>770</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>670</v>
+        <v>771</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>671</v>
+        <v>772</v>
       </c>
       <c r="J104" t="s">
-        <v>672</v>
+        <v>773</v>
       </c>
       <c r="K104" t="s">
-        <v>673</v>
+        <v>774</v>
       </c>
       <c r="L104" t="s">
-        <v>674</v>
+        <v>775</v>
       </c>
       <c r="M104" t="n">
         <v>3</v>
       </c>
       <c r="N104" t="s">
-        <v>675</v>
+        <v>776</v>
       </c>
       <c r="O104" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P104" t="n">
         <v>4</v>
@@ -9327,50 +10093,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>674</v>
+        <v>775</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>37757</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>177483</v>
+      </c>
+      <c r="C105" t="s">
+        <v>777</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>676</v>
+        <v>778</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>677</v>
+        <v>779</v>
       </c>
       <c r="J105" t="s">
-        <v>678</v>
+        <v>780</v>
       </c>
       <c r="K105" t="s">
-        <v>679</v>
+        <v>781</v>
       </c>
       <c r="L105" t="s">
-        <v>680</v>
+        <v>782</v>
       </c>
       <c r="M105" t="n">
         <v>3</v>
       </c>
       <c r="N105" t="s">
-        <v>657</v>
+        <v>755</v>
       </c>
       <c r="O105" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P105" t="n">
         <v>2</v>
@@ -9394,50 +10164,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>681</v>
+        <v>783</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>37757</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>177484</v>
+      </c>
+      <c r="C106" t="s">
+        <v>784</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>682</v>
+        <v>785</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>683</v>
+        <v>786</v>
       </c>
       <c r="J106" t="s">
-        <v>684</v>
+        <v>787</v>
       </c>
       <c r="K106" t="s">
-        <v>685</v>
+        <v>788</v>
       </c>
       <c r="L106" t="s">
-        <v>686</v>
+        <v>789</v>
       </c>
       <c r="M106" t="n">
         <v>2</v>
       </c>
       <c r="N106" t="s">
-        <v>687</v>
+        <v>790</v>
       </c>
       <c r="O106" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P106" t="n">
         <v>1</v>
@@ -9461,50 +10235,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>688</v>
+        <v>791</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>37757</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>7187</v>
+      </c>
+      <c r="C107" t="s">
+        <v>792</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>689</v>
+        <v>793</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>690</v>
+        <v>794</v>
       </c>
       <c r="J107" t="s">
-        <v>691</v>
+        <v>795</v>
       </c>
       <c r="K107" t="s">
-        <v>692</v>
+        <v>796</v>
       </c>
       <c r="L107" t="s">
-        <v>693</v>
+        <v>797</v>
       </c>
       <c r="M107" t="n">
         <v>4</v>
       </c>
       <c r="N107" t="s">
-        <v>694</v>
+        <v>798</v>
       </c>
       <c r="O107" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -9528,50 +10306,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>693</v>
+        <v>797</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>37757</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>177485</v>
+      </c>
+      <c r="C108" t="s">
+        <v>799</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>695</v>
+        <v>800</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>696</v>
+        <v>801</v>
       </c>
       <c r="J108" t="s">
-        <v>697</v>
+        <v>802</v>
       </c>
       <c r="K108" t="s">
-        <v>698</v>
+        <v>803</v>
       </c>
       <c r="L108" t="s">
-        <v>699</v>
+        <v>804</v>
       </c>
       <c r="M108" t="n">
         <v>4</v>
       </c>
       <c r="N108" t="s">
-        <v>700</v>
+        <v>805</v>
       </c>
       <c r="O108" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P108" t="n">
         <v>4</v>
@@ -9591,50 +10373,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>699</v>
+        <v>804</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>37757</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>177486</v>
+      </c>
+      <c r="C109" t="s">
+        <v>806</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>701</v>
+        <v>807</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>702</v>
+        <v>808</v>
       </c>
       <c r="J109" t="s">
-        <v>703</v>
+        <v>809</v>
       </c>
       <c r="K109" t="s">
-        <v>704</v>
+        <v>810</v>
       </c>
       <c r="L109" t="s">
-        <v>705</v>
+        <v>811</v>
       </c>
       <c r="M109" t="n">
         <v>2</v>
       </c>
       <c r="N109" t="s">
-        <v>706</v>
+        <v>812</v>
       </c>
       <c r="O109" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P109" t="n">
         <v>2</v>
@@ -9654,50 +10440,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>707</v>
+        <v>813</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>37757</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>177487</v>
+      </c>
+      <c r="C110" t="s">
+        <v>814</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>708</v>
+        <v>815</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>709</v>
+        <v>816</v>
       </c>
       <c r="J110" t="s">
-        <v>710</v>
+        <v>817</v>
       </c>
       <c r="K110" t="s">
-        <v>711</v>
+        <v>818</v>
       </c>
       <c r="L110" t="s">
-        <v>712</v>
+        <v>819</v>
       </c>
       <c r="M110" t="n">
         <v>4</v>
       </c>
       <c r="N110" t="s">
-        <v>713</v>
+        <v>820</v>
       </c>
       <c r="O110" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
@@ -9717,50 +10507,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>714</v>
+        <v>821</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>37757</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>177488</v>
+      </c>
+      <c r="C111" t="s">
+        <v>822</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>715</v>
+        <v>823</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>716</v>
+        <v>824</v>
       </c>
       <c r="J111" t="s">
-        <v>717</v>
+        <v>825</v>
       </c>
       <c r="K111" t="s">
-        <v>718</v>
+        <v>826</v>
       </c>
       <c r="L111" t="s">
-        <v>719</v>
+        <v>827</v>
       </c>
       <c r="M111" t="n">
         <v>4</v>
       </c>
       <c r="N111" t="s">
-        <v>720</v>
+        <v>828</v>
       </c>
       <c r="O111" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="P111" t="n">
         <v>5</v>
@@ -9780,50 +10574,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>721</v>
+        <v>829</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>37757</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>177489</v>
+      </c>
+      <c r="C112" t="s">
+        <v>830</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>722</v>
+        <v>831</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>723</v>
+        <v>832</v>
       </c>
       <c r="J112" t="s">
-        <v>724</v>
+        <v>833</v>
       </c>
       <c r="K112" t="s">
-        <v>595</v>
+        <v>683</v>
       </c>
       <c r="L112" t="s">
-        <v>725</v>
+        <v>834</v>
       </c>
       <c r="M112" t="n">
         <v>4</v>
       </c>
       <c r="N112" t="s">
-        <v>700</v>
+        <v>805</v>
       </c>
       <c r="O112" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P112" t="n">
         <v>5</v>
@@ -9847,50 +10645,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>725</v>
+        <v>834</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>37757</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>177490</v>
+      </c>
+      <c r="C113" t="s">
+        <v>835</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>726</v>
+        <v>836</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>727</v>
+        <v>837</v>
       </c>
       <c r="J113" t="s">
-        <v>728</v>
+        <v>838</v>
       </c>
       <c r="K113" t="s">
-        <v>729</v>
+        <v>839</v>
       </c>
       <c r="L113" t="s">
-        <v>730</v>
+        <v>840</v>
       </c>
       <c r="M113" t="n">
         <v>5</v>
       </c>
       <c r="N113" t="s">
-        <v>731</v>
+        <v>841</v>
       </c>
       <c r="O113" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P113" t="n">
         <v>5</v>
@@ -9912,50 +10714,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>730</v>
+        <v>840</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>37757</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>177491</v>
+      </c>
+      <c r="C114" t="s">
+        <v>842</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>732</v>
+        <v>843</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>733</v>
+        <v>844</v>
       </c>
       <c r="J114" t="s">
-        <v>734</v>
+        <v>845</v>
       </c>
       <c r="K114" t="s">
-        <v>735</v>
+        <v>846</v>
       </c>
       <c r="L114" t="s">
-        <v>736</v>
+        <v>847</v>
       </c>
       <c r="M114" t="n">
         <v>4</v>
       </c>
       <c r="N114" t="s">
-        <v>737</v>
+        <v>848</v>
       </c>
       <c r="O114" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P114" t="s"/>
       <c r="Q114" t="s"/>
@@ -9969,50 +10775,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>736</v>
+        <v>847</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>37757</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>177492</v>
+      </c>
+      <c r="C115" t="s">
+        <v>849</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>738</v>
+        <v>850</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>739</v>
+        <v>851</v>
       </c>
       <c r="J115" t="s">
-        <v>740</v>
+        <v>852</v>
       </c>
       <c r="K115" t="s">
-        <v>741</v>
+        <v>853</v>
       </c>
       <c r="L115" t="s">
-        <v>742</v>
+        <v>854</v>
       </c>
       <c r="M115" t="n">
         <v>5</v>
       </c>
       <c r="N115" t="s">
-        <v>743</v>
+        <v>855</v>
       </c>
       <c r="O115" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P115" t="s"/>
       <c r="Q115" t="s"/>
@@ -10026,50 +10836,54 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>744</v>
+        <v>856</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>37757</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>177493</v>
+      </c>
+      <c r="C116" t="s">
+        <v>857</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>745</v>
+        <v>858</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>746</v>
+        <v>859</v>
       </c>
       <c r="J116" t="s">
-        <v>747</v>
+        <v>860</v>
       </c>
       <c r="K116" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="L116" t="s">
-        <v>748</v>
+        <v>861</v>
       </c>
       <c r="M116" t="n">
         <v>2</v>
       </c>
       <c r="N116" t="s">
-        <v>749</v>
+        <v>862</v>
       </c>
       <c r="O116" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="P116" t="n">
         <v>2</v>
@@ -10093,41 +10907,45 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>748</v>
+        <v>861</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>37757</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>177494</v>
+      </c>
+      <c r="C117" t="s">
+        <v>863</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>750</v>
+        <v>864</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>751</v>
+        <v>865</v>
       </c>
       <c r="J117" t="s">
-        <v>752</v>
+        <v>866</v>
       </c>
       <c r="K117" t="s">
-        <v>753</v>
+        <v>867</v>
       </c>
       <c r="L117" t="s">
-        <v>754</v>
+        <v>868</v>
       </c>
       <c r="M117" t="n">
         <v>3</v>
@@ -10146,50 +10964,54 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>754</v>
+        <v>868</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>37757</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>177495</v>
+      </c>
+      <c r="C118" t="s">
+        <v>869</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>755</v>
+        <v>870</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>756</v>
+        <v>871</v>
       </c>
       <c r="J118" t="s">
-        <v>757</v>
+        <v>872</v>
       </c>
       <c r="K118" t="s">
-        <v>758</v>
+        <v>873</v>
       </c>
       <c r="L118" t="s">
-        <v>759</v>
+        <v>874</v>
       </c>
       <c r="M118" t="n">
         <v>2</v>
       </c>
       <c r="N118" t="s">
-        <v>760</v>
+        <v>875</v>
       </c>
       <c r="O118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P118" t="n">
         <v>2</v>
@@ -10213,41 +11035,45 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>761</v>
+        <v>876</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>37757</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>1398</v>
+      </c>
+      <c r="C119" t="s">
+        <v>877</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>762</v>
+        <v>878</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>763</v>
+        <v>879</v>
       </c>
       <c r="J119" t="s">
-        <v>764</v>
+        <v>880</v>
       </c>
       <c r="K119" t="s">
-        <v>765</v>
+        <v>881</v>
       </c>
       <c r="L119" t="s">
-        <v>766</v>
+        <v>882</v>
       </c>
       <c r="M119" t="n">
         <v>4</v>
@@ -10274,41 +11100,45 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>766</v>
+        <v>882</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>37757</v>
       </c>
-      <c r="B120" t="s"/>
-      <c r="C120" t="s"/>
+      <c r="B120" t="n">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>883</v>
+      </c>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>767</v>
+        <v>884</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I120" t="s">
-        <v>768</v>
+        <v>885</v>
       </c>
       <c r="J120" t="s">
-        <v>769</v>
+        <v>886</v>
       </c>
       <c r="K120" t="s">
-        <v>770</v>
+        <v>887</v>
       </c>
       <c r="L120" t="s">
-        <v>771</v>
+        <v>888</v>
       </c>
       <c r="M120" t="n">
         <v>2</v>
@@ -10327,41 +11157,45 @@
       <c r="W120" t="s"/>
       <c r="X120" t="s"/>
       <c r="Y120" t="s">
-        <v>772</v>
+        <v>889</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>37757</v>
       </c>
-      <c r="B121" t="s"/>
-      <c r="C121" t="s"/>
+      <c r="B121" t="n">
+        <v>177496</v>
+      </c>
+      <c r="C121" t="s">
+        <v>890</v>
+      </c>
       <c r="D121" t="n">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>773</v>
+        <v>891</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I121" t="s">
-        <v>774</v>
+        <v>892</v>
       </c>
       <c r="J121" t="s">
-        <v>775</v>
+        <v>893</v>
       </c>
       <c r="K121" t="s">
-        <v>776</v>
+        <v>894</v>
       </c>
       <c r="L121" t="s">
-        <v>777</v>
+        <v>895</v>
       </c>
       <c r="M121" t="n">
         <v>5</v>
@@ -10380,7 +11214,7 @@
       <c r="W121" t="s"/>
       <c r="X121" t="s"/>
       <c r="Y121" t="s">
-        <v>778</v>
+        <v>896</v>
       </c>
     </row>
   </sheetData>
